--- a/Bare-vs-Coated-Water-Pipelines.xlsx
+++ b/Bare-vs-Coated-Water-Pipelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igna/Dropbox/Victaulic/FBE_vs_Bare/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418DE27-9315-3145-8246-96F757045E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D044B3E-6C74-7B4F-BFAD-E936A73E3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32860" yWindow="760" windowWidth="32860" windowHeight="21580" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
+    <workbookView xWindow="-32840" yWindow="760" windowWidth="32860" windowHeight="21580" activeTab="1" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -219,7 +219,13 @@
     <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
-    <definedName name="Steel_cost_difference">Steel!$E$32</definedName>
+    <definedName name="Steel_a1">Steel!$C$32</definedName>
+    <definedName name="Steel_a2">Steel!$C$33</definedName>
+    <definedName name="Steel_b1">Steel!$D$32</definedName>
+    <definedName name="Steel_b2">Steel!$D$33</definedName>
+    <definedName name="Steel_c1">Steel!$C$34</definedName>
+    <definedName name="Steel_c2">Steel!$D$34</definedName>
+    <definedName name="Steel_cost_difference">Steel!$E$34</definedName>
     <definedName name="Steel_density_kg_m3">Data_!$C$6</definedName>
     <definedName name="Steel_diff_percentage">Steel!$E$33</definedName>
     <definedName name="Steel_pipe_transportation">Data_!$C$77</definedName>
@@ -497,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="399">
   <si>
     <t>FBE Coated Case</t>
   </si>
@@ -1741,6 +1747,9 @@
   </si>
   <si>
     <t>Steel Weight</t>
+  </si>
+  <si>
+    <t>Coated</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2514,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3130,7 +3139,6 @@
     <xf numFmtId="194" fontId="31" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="44" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3981,7 +3989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Steel!$B$32</c:f>
+              <c:f>Steel!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4156,25 +4164,25 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>FBE</c:v>
+                  <c:v>Bare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bare</c:v>
+                  <c:v>Coated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Steel!$C$32:$D$32</c:f>
+              <c:f>Steel!$C$34:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16391991.608976576</c:v>
+                  <c:v>22720068.308931705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22720068.308931705</c:v>
+                  <c:v>16391991.608976576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16050,7 +16058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401804B6-E255-0D47-B4C0-0EFB54D89CFA}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
@@ -16109,7 +16117,7 @@
       <c r="B4" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="322">
+      <c r="C4" s="321">
         <f>pipeline_length/1000</f>
         <v>70</v>
       </c>
@@ -16571,7 +16579,7 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="321">
+      <c r="C26" s="320">
         <v>82</v>
       </c>
       <c r="D26" t="s">
@@ -16790,9 +16798,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:56">
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
       <c r="E1" s="115"/>
       <c r="F1" s="2"/>
       <c r="H1" s="2" t="e">
@@ -18144,10 +18152,10 @@
         <v>#NAME?</v>
       </c>
       <c r="AO19" s="2"/>
-      <c r="AQ19" s="325" t="s">
+      <c r="AQ19" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="AR19" s="325"/>
+      <c r="AR19" s="324"/>
     </row>
     <row r="20" spans="2:52">
       <c r="B20" s="106" t="s">
@@ -18320,7 +18328,7 @@
       <c r="AG21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AO21" s="326" t="s">
+      <c r="AO21" s="325" t="s">
         <v>12</v>
       </c>
       <c r="AP21" s="14" t="s">
@@ -18413,7 +18421,7 @@
       <c r="AE22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AO22" s="327"/>
+      <c r="AO22" s="326"/>
       <c r="AP22" s="18" t="s">
         <v>46</v>
       </c>
@@ -18505,7 +18513,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO23" s="328"/>
+      <c r="AO23" s="327"/>
       <c r="AP23" s="18" t="s">
         <v>47</v>
       </c>
@@ -18672,7 +18680,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO25" s="329" t="s">
+      <c r="AO25" s="328" t="s">
         <v>48</v>
       </c>
       <c r="AP25" s="20" t="s">
@@ -18759,7 +18767,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO26" s="329"/>
+      <c r="AO26" s="328"/>
       <c r="AP26" s="24" t="s">
         <v>52</v>
       </c>
@@ -18868,7 +18876,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO27" s="329"/>
+      <c r="AO27" s="328"/>
       <c r="AP27" s="28" t="s">
         <v>55</v>
       </c>
@@ -18980,7 +18988,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO28" s="329"/>
+      <c r="AO28" s="328"/>
       <c r="AP28" s="30" t="s">
         <v>58</v>
       </c>
@@ -21005,7 +21013,7 @@
       <c r="D63" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="330" t="s">
+      <c r="G63" s="329" t="s">
         <v>162</v>
       </c>
       <c r="H63" s="93" t="s">
@@ -21028,7 +21036,7 @@
         <f>FBE_coating_capex/1000000/FBE_steel_capex</f>
         <v>#NAME?</v>
       </c>
-      <c r="G64" s="330"/>
+      <c r="G64" s="329"/>
       <c r="H64" s="91" t="s">
         <v>172</v>
       </c>
@@ -21038,7 +21046,7 @@
       </c>
     </row>
     <row r="65" spans="2:10">
-      <c r="G65" s="330"/>
+      <c r="G65" s="329"/>
       <c r="H65" s="91" t="s">
         <v>46</v>
       </c>
@@ -21054,7 +21062,7 @@
       <c r="C66" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="G66" s="323" t="s">
+      <c r="G66" s="322" t="s">
         <v>163</v>
       </c>
       <c r="H66" s="91" t="s">
@@ -21076,7 +21084,7 @@
       <c r="D67" s="135">
         <v>2.3478260869565216E-2</v>
       </c>
-      <c r="G67" s="323"/>
+      <c r="G67" s="322"/>
       <c r="H67" s="95" t="s">
         <v>172</v>
       </c>
@@ -22225,9 +22233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A178BA-5E80-3042-B3AF-9144313DE68D}">
   <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22600,10 +22608,10 @@
     </row>
     <row r="31" spans="2:6">
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="E31" t="s">
         <v>39</v>
@@ -22614,54 +22622,48 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="167" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="162">
-        <f>C28</f>
-        <v>16391991.608976576</v>
-      </c>
-      <c r="D32" s="162">
-        <f>C18</f>
-        <v>22720068.308931705</v>
-      </c>
-      <c r="E32" s="162">
-        <f>D32-C32</f>
-        <v>6328076.6999551281</v>
+        <v>396</v>
+      </c>
+      <c r="C32">
+        <f>bare_wall__yr_1_mm</f>
+        <v>13.28</v>
+      </c>
+      <c r="D32">
+        <f>C23</f>
+        <v>9.5299999999999994</v>
       </c>
       <c r="F32" s="164">
-        <f>1-C32/D32</f>
-        <v>0.27852366524212591</v>
+        <f>1-C34/D34</f>
+        <v>-0.38604684841894077</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="167" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="320">
-        <f>C27/1000</f>
+      <c r="C33" s="236">
+        <f>bare_steel_weight_t</f>
+        <v>16000.048104881484</v>
+      </c>
+      <c r="D33" s="236">
+        <f>fbe_steel_weight_t</f>
         <v>11543.656062659562</v>
       </c>
-      <c r="D33" s="320">
-        <f>capex_steel_fbe/1000</f>
-        <v>16391.991608976576</v>
-      </c>
-      <c r="E33" s="164">
-        <f>(D33-C33)/D33</f>
-        <v>0.29577464788732383</v>
-      </c>
+      <c r="E33" s="164"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="167" t="s">
-        <v>396</v>
-      </c>
-      <c r="C34">
-        <f>bare_wall__yr_1_mm</f>
-        <v>13.28</v>
-      </c>
-      <c r="D34">
-        <f>C23</f>
-        <v>9.5299999999999994</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C34" s="162">
+        <f>capex_steel_bare</f>
+        <v>22720068.308931705</v>
+      </c>
+      <c r="D34" s="162">
+        <f>capex_steel_fbe</f>
+        <v>16391991.608976576</v>
+      </c>
+      <c r="E34" s="162"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="240" t="s">

--- a/Bare-vs-Coated-Water-Pipelines.xlsx
+++ b/Bare-vs-Coated-Water-Pipelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igna/Dropbox/Victaulic/FBE_vs_Bare/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D044B3E-6C74-7B4F-BFAD-E936A73E3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C57F74-4103-EC43-A432-AF8452FED660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32840" yWindow="760" windowWidth="32860" windowHeight="21580" activeTab="1" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
+    <workbookView xWindow="-32860" yWindow="760" windowWidth="32860" windowHeight="21580" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -32,6 +32,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Charts!$D$1:$G$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$2:$F$25</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">SC!$A$6:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SC!$B$6:$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SC!$A$6:$A$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SC!$B$6:$B$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SC!$A$6:$A$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SC!$B$6:$B$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">SC!$A$6:$A$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">SC!$B$6:$B$7</definedName>
     <definedName name="aguasin_price_200_L_s">Data_!$F$108</definedName>
     <definedName name="annual_discount_rate">Parameters!$C$29</definedName>
     <definedName name="annual_discount_rate_percent">Parameters!$C$28</definedName>
@@ -55,8 +63,8 @@
     <definedName name="bare_re_yr_1">Electricity!$R$22</definedName>
     <definedName name="bare_roughness_yr_1">Electricity!$Q$22</definedName>
     <definedName name="bare_steel_capex">Data_!$C$38</definedName>
-    <definedName name="bare_steel_percentage">Steel!$D$37</definedName>
-    <definedName name="bare_steel_weight_t">Steel!$C$16</definedName>
+    <definedName name="bare_steel_percentage">Steel!$D$38</definedName>
+    <definedName name="bare_steel_weight_t">Steel!$C$17</definedName>
     <definedName name="bare_total_usd">Charts!$E$10</definedName>
     <definedName name="bare_vel_yr_1_m_s">Electricity!$E$22</definedName>
     <definedName name="bare_wall__yr_1_mm">Parameters!$C$11</definedName>
@@ -64,8 +72,8 @@
     <definedName name="biocide_cost_yr">Inhibitors!$F$12</definedName>
     <definedName name="biocide_kg_yr">Inhibitors!$D$12</definedName>
     <definedName name="biocide_price">Inhibitors!$E$12</definedName>
-    <definedName name="capex_steel_bare">Steel!$C$18</definedName>
-    <definedName name="capex_steel_fbe">Steel!$C$28</definedName>
+    <definedName name="capex_steel_bare">Steel!$C$19</definedName>
+    <definedName name="capex_steel_fbe">Steel!$C$29</definedName>
     <definedName name="case_selection">Electricity!$B$18</definedName>
     <definedName name="case_selection_2">Electricity!$J$18</definedName>
     <definedName name="chem_inj_1">Data_!$D$83</definedName>
@@ -84,6 +92,7 @@
     <definedName name="corrosion_rate_mm_yr">Data_!$C$9</definedName>
     <definedName name="cost_of_steel_MT">Data_!#REF!</definedName>
     <definedName name="cost_per_steel_weight">Steel!$C$13</definedName>
+    <definedName name="cost_per_steel_weight_t">Steel!$C$14</definedName>
     <definedName name="design_flow_rate">Parameters!$C$15</definedName>
     <definedName name="design_flow_rate_l_s">Parameters!$C$14</definedName>
     <definedName name="diameter_mm">Data_!$C$28</definedName>
@@ -134,11 +143,12 @@
     <definedName name="fbe_inspections_PV">Inspections!$C$8</definedName>
     <definedName name="FBE_opex_NPV">Table5[[#Totals],[OPEX]]</definedName>
     <definedName name="FBE_opex_NPV_1">Table5[[#Totals],[OPEX]]</definedName>
+    <definedName name="FBE_plus_bare">SC!$B$8</definedName>
     <definedName name="FBE_re_yr_1">#REF!</definedName>
     <definedName name="FBE_steel_capex">Data_!$C$50</definedName>
-    <definedName name="FBE_steel_percentage">Steel!$D$38</definedName>
-    <definedName name="FBE_Steel_Perecentage">SC!$B$8</definedName>
-    <definedName name="fbe_steel_weight_t">Steel!$C$26</definedName>
+    <definedName name="FBE_steel_percentage">Steel!$D$39</definedName>
+    <definedName name="FBE_Steel_Perecentage">SC!$B$9</definedName>
+    <definedName name="fbe_steel_weight_t">Steel!$C$27</definedName>
     <definedName name="fbe_total_usd">Charts!$F$10</definedName>
     <definedName name="fbe_wall__yr_1_mm">Parameters!$C$10</definedName>
     <definedName name="FBE_wall_yr_1">#REF!</definedName>
@@ -219,15 +229,16 @@
     <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
-    <definedName name="Steel_a1">Steel!$C$32</definedName>
-    <definedName name="Steel_a2">Steel!$C$33</definedName>
-    <definedName name="Steel_b1">Steel!$D$32</definedName>
-    <definedName name="Steel_b2">Steel!$D$33</definedName>
-    <definedName name="Steel_c1">Steel!$C$34</definedName>
-    <definedName name="Steel_c2">Steel!$D$34</definedName>
-    <definedName name="Steel_cost_difference">Steel!$E$34</definedName>
+    <definedName name="Steel_a1">Steel!$C$33</definedName>
+    <definedName name="Steel_a2">Steel!$C$34</definedName>
+    <definedName name="Steel_b1">Steel!$D$33</definedName>
+    <definedName name="Steel_b2">Steel!$D$34</definedName>
+    <definedName name="Steel_c1">Steel!$C$35</definedName>
+    <definedName name="Steel_c2">Steel!$D$35</definedName>
+    <definedName name="Steel_cost_difference">Steel!$E$35</definedName>
     <definedName name="Steel_density_kg_m3">Data_!$C$6</definedName>
-    <definedName name="Steel_diff_percentage">Steel!$E$33</definedName>
+    <definedName name="Steel_diff_percentage">Steel!$E$34</definedName>
+    <definedName name="Steel_Perecentage">SC!$B$10</definedName>
     <definedName name="Steel_pipe_transportation">Data_!$C$77</definedName>
     <definedName name="Steel_price_USD_MT">Data_!#REF!</definedName>
     <definedName name="Supply_contingency">Data_!$C$34</definedName>
@@ -237,8 +248,8 @@
     <definedName name="Utilization_factor">Data_!#REF!</definedName>
     <definedName name="v_kinematic_viscosity">Data_!$C$30</definedName>
     <definedName name="viscosity_Pa_s">Data_!$C$15</definedName>
-    <definedName name="volume_1_m_bare">Steel!$C$15</definedName>
-    <definedName name="volume_1_m_fbe">Steel!$C$25</definedName>
+    <definedName name="volume_1_m_bare">Steel!$C$16</definedName>
+    <definedName name="volume_1_m_fbe">Steel!$C$26</definedName>
     <definedName name="volume_yr">Inhibitors!$C$6</definedName>
     <definedName name="wall_corrosion_rate_mm_yr">Parameters!$C$9</definedName>
     <definedName name="wall_thickness_corrosion_mm">Data_!#REF!</definedName>
@@ -503,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="400">
   <si>
     <t>FBE Coated Case</t>
   </si>
@@ -1359,9 +1370,6 @@
     <t>Extra energy</t>
   </si>
   <si>
-    <t>Shop FBE</t>
-  </si>
-  <si>
     <t>Extra Inspections</t>
   </si>
   <si>
@@ -1674,9 +1682,6 @@
     <t>FBE · Steel weight of pipes</t>
   </si>
   <si>
-    <t>FBE vs Steel Perecentage</t>
-  </si>
-  <si>
     <t>Field Joint Coating</t>
   </si>
   <si>
@@ -1750,6 +1755,15 @@
   </si>
   <si>
     <t>Coated</t>
+  </si>
+  <si>
+    <t>FBE percentage</t>
+  </si>
+  <si>
+    <t>Steel Percentage</t>
+  </si>
+  <si>
+    <t>Interior FBE</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2528,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3165,6 +3179,8 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="44" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3989,7 +4005,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Steel!$B$34</c:f>
+              <c:f>Steel!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4057,13 +4073,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.34201927736151722"/>
-                  <c:y val="-1.2358173183230826E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4086,7 +4096,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:dLblPos val="inEnd"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4131,7 +4141,7 @@
                 <a:endParaRPr lang="en-CL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4160,7 +4170,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Steel!$C$31:$D$31</c:f>
+              <c:f>Steel!$C$32:$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4174,7 +4184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Steel!$C$34:$D$34</c:f>
+              <c:f>Steel!$C$35:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4209,7 +4219,7 @@
       <c:catAx>
         <c:axId val="836053744"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4251,7 +4261,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4260,7 +4270,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4350,20 +4360,69 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.7779391315279166E-2"/>
-          <c:y val="0.1229061561408442"/>
-          <c:w val="0.90619576098971022"/>
-          <c:h val="0.86044741112144985"/>
+          <c:x val="7.6206437852210457E-2"/>
+          <c:y val="6.6432702191602444E-3"/>
+          <c:w val="0.90512598470598515"/>
+          <c:h val="0.97671046471177514"/>
         </c:manualLayout>
       </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SC!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior FBE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="76000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="76000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="76000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -4380,8 +4439,288 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{89D7AFFB-161A-2147-9036-D4AD43B26D1F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:pPr>
+                        <a:defRPr sz="2000"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{038151F5-AC2F-8C4A-8FC7-F35C7BB9BF4F}" type="SERIESNAME">
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="2000"/>
+                      </a:pPr>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:xfrm>
+                  <a:off x="0" y="1341480"/>
+                  <a:ext cx="2098896" cy="548227"/>
+                </a:xfrm>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:alpha val="67000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                      <a:alpha val="67000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CL"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -7934"/>
+                        <a:gd name="adj2" fmla="val -42021"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.16401066342918169"/>
+                      <c:h val="0.29965729239412747"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C06A-C04B-B648-E44A5EAA0BBC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SC!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>761047.67873947392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>SC!$B$9</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.4%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C06A-C04B-B648-E44A5EAA0BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SC!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steel cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -4395,53 +4734,54 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C06A-C04B-B648-E44A5EAA0BBC}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.3592704009104868E-4"/>
-                  <c:y val="8.4925152708811066E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.4702557625179542"/>
-                      <c:h val="0.21863075091336881"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C06A-C04B-B648-E44A5EAA0BBC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17664596964428894"/>
-                  <c:y val="-0.1924931533718994"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{1928784E-77C8-6B46-A436-03C152308E94}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:pPr>
+                        <a:defRPr sz="2000"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{1E8B898F-3752-C749-A8CD-B4E025DB3455}" type="SERIESNAME">
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="2000"/>
+                      </a:pPr>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="0.0%" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:alpha val="67000"/>
+                  </a:sysClr>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -4452,7 +4792,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx2"/>
                       </a:solidFill>
@@ -4464,43 +4804,53 @@
                   <a:endParaRPr lang="en-CL"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.46330436595312235"/>
-                      <c:h val="0.1771691886132736"/>
+                      <c:w val="0.16260095620824344"/>
+                      <c:h val="0.26021420369687409"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C06A-C04B-B648-E44A5EAA0BBC}"/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="67000"/>
+                </a:sysClr>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4510,78 +4860,111 @@
                 <a:endParaRPr lang="en-CL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>SC!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Shop FBE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steel cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SC!$B$6:$B$7</c:f>
+              <c:f>SC!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>761047.67873947392</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>16391991.608976576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>SC!$B$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>95.6%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C06A-C04B-B648-E44A5EAA0BBC}"/>
+              <c16:uniqueId val="{00000005-97BE-EF4E-8703-DC138473C812}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="16"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="527415615"/>
+        <c:axId val="469377968"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="469377968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527415615"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="527415615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="469377968"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4602,9 +4985,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -4616,7 +4997,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1800">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -4754,6 +5135,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28102670755191334"/>
+                  <c:y val="-0.18682628505706442"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4766,7 +5153,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="bg1"/>
                       </a:solidFill>
@@ -4778,9 +5165,9 @@
                   <a:endParaRPr lang="en-CL"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
@@ -4803,13 +5190,37 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0704938995159795E-2"/>
-                  <c:y val="-2.0599250936329586E-2"/>
+                  <c:x val="0.20952987362980224"/>
+                  <c:y val="0.1779026217228464"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CL"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
@@ -4818,8 +5229,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.31106557377049182"/>
-                      <c:h val="0.16048750850377302"/>
+                      <c:w val="0.25231883769701152"/>
+                      <c:h val="0.16048748119968151"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -4838,7 +5249,7 @@
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
@@ -4867,7 +5278,7 @@
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
@@ -4898,7 +5309,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4915,7 +5326,7 @@
             </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -5032,7 +5443,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1800">
+        <a:defRPr sz="2400">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -13485,13 +13896,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13568,16 +13979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>102306</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>141816</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2497667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>395111</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>702733</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16058,10 +16469,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401804B6-E255-0D47-B4C0-0EFB54D89CFA}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16074,10 +16485,10 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="298" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="298" t="s">
         <v>78</v>
@@ -16086,10 +16497,10 @@
         <v>76</v>
       </c>
       <c r="E2" s="233" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="233" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -16098,7 +16509,7 @@
         <v>pipeline_length</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="297">
         <v>70000</v>
@@ -16115,7 +16526,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="321">
         <f>pipeline_length/1000</f>
@@ -16131,7 +16542,7 @@
         <v>elevation_change</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="297">
         <v>1000</v>
@@ -16152,7 +16563,7 @@
         <v>segment_length</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="297">
         <v>12</v>
@@ -16173,7 +16584,7 @@
         <v>outside_diameter</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="297">
         <v>28</v>
@@ -16194,7 +16605,7 @@
         <v>design_flow_rate_m3_s</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <f>CONVERT(outside_diameter_inches,"in","m")</f>
@@ -16216,7 +16627,7 @@
         <v>outside_diameter_inches</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="297">
         <v>0.15</v>
@@ -16237,7 +16648,7 @@
         <v>design_flow_rate_l_s</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="297">
         <v>9.5299999999999994</v>
@@ -16258,7 +16669,7 @@
         <v>fbe_wall__yr_1_mm</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <f>fbe_wall__yr_1_mm+wall_corrosion_rate_mm_yr*25</f>
@@ -16280,7 +16691,7 @@
         <v>fbe_inside_diameter_yr_1</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12">
         <f>outside_diameter-bare_wall__yr_1_mm/1000*2</f>
@@ -16302,7 +16713,7 @@
         <v>#REF!</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13">
         <f>outside_diameter-fbe_wall__yr_1_mm/1000*2</f>
@@ -16367,7 +16778,7 @@
         <v>x70_steel_density</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" s="297">
         <v>7850</v>
@@ -16388,7 +16799,7 @@
         <v>fluid_density</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17" s="297">
         <v>1030</v>
@@ -16430,7 +16841,7 @@
         <v>roughness_bare_yr_1_mm</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="297">
         <v>0.1</v>
@@ -16451,7 +16862,7 @@
         <v>roughness_bare_yr_25_mm</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="297">
         <v>0.3</v>
@@ -16472,7 +16883,7 @@
         <v>roughness_fbe_yr_1_mm</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="297">
         <v>0.01</v>
@@ -16493,7 +16904,7 @@
         <v>roughness_fbe_yr_25_mm</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="297">
         <v>0.05</v>
@@ -16535,13 +16946,13 @@
         <v>service_life_yr</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="297">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -16558,7 +16969,7 @@
       <c r="B25" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="297">
+      <c r="C25" s="331">
         <v>8400</v>
       </c>
       <c r="D25" t="s">
@@ -16659,7 +17070,7 @@
         <v>hrc_price_usd_t</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" s="297">
         <v>625</v>
@@ -16680,7 +17091,7 @@
         <v>field_coating_usd_joint</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C31" s="297">
         <f>1150*0.8</f>
@@ -16702,13 +17113,13 @@
         <v>electrical_energy_usd_mwh</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="297">
         <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -17071,7 +17482,7 @@
     </row>
     <row r="6" spans="2:56">
       <c r="B6" s="106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="110">
         <v>7850</v>
@@ -17149,7 +17560,7 @@
     </row>
     <row r="7" spans="2:56">
       <c r="B7" s="106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="107">
         <v>625</v>
@@ -22231,11 +22642,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A178BA-5E80-3042-B3AF-9144313DE68D}">
-  <dimension ref="B2:F39"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22247,7 +22658,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="233" t="s">
         <v>78</v>
@@ -22256,15 +22667,15 @@
         <v>76</v>
       </c>
       <c r="E2" s="233" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="233" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="236">
         <f>x70_steel_density</f>
@@ -22279,7 +22690,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4">
         <f>bare_wall__yr_1_mm</f>
@@ -22294,7 +22705,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5">
         <f>outside_diameter</f>
@@ -22309,7 +22720,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="236">
         <f>pipeline_length</f>
@@ -22324,14 +22735,14 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="235">
         <f>hrc_price_usd_t/1000</f>
         <v>0.625</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -22339,7 +22750,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -22353,7 +22764,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9">
         <v>120</v>
@@ -22367,7 +22778,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -22381,7 +22792,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11">
         <f>SUM(C8:C10)</f>
@@ -22393,14 +22804,14 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" s="235">
         <f>SUM(C8:C10)/1000</f>
         <v>0.17</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -22408,14 +22819,14 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="237">
         <f>(C7*2+C12)</f>
         <v>1.42</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -22423,294 +22834,306 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="278">
-        <f>bare_inside_diameter_yr_1</f>
-        <v>0.68464000000000003</v>
+        <v>320</v>
+      </c>
+      <c r="C14" s="330">
+        <f>cost_per_steel_weight*1000</f>
+        <v>1420</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="279">
+      <c r="C15" s="278">
+        <f>bare_inside_diameter_yr_1</f>
+        <v>0.68464000000000003</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="279">
         <f>PI()/4*(outside_diameter^2-bare_inside_diameter_yr_1^2)</f>
         <v>2.9117466978856206E-2</v>
       </c>
-      <c r="D15" s="234" t="s">
-        <v>351</v>
-      </c>
-      <c r="E15" t="b">
+      <c r="D16" s="234" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="238" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="236">
-        <f>C17/1000</f>
-        <v>16000.048104881484</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="238" t="s">
-        <v>369</v>
-      </c>
-      <c r="C17" s="239">
+        <v>368</v>
+      </c>
+      <c r="C17" s="236">
+        <f>C18/1000</f>
+        <v>16000.048104881484</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="238" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="239">
         <f>volume_1_m_bare*C3*C6</f>
         <v>16000048.104881484</v>
       </c>
-      <c r="D17" s="238" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" t="b">
+      <c r="D18" s="238" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="163">
-        <f>C13*C17</f>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="163">
+        <f>C13*C18</f>
         <v>22720068.308931705</v>
       </c>
-      <c r="D18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="233" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="233" t="s">
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="233" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="233" t="s">
+      <c r="D22" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="233" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" s="233" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>293</v>
-      </c>
-      <c r="C22" s="236">
+      <c r="E22" s="233" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="233" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="236">
         <f>x70_steel_density</f>
         <v>7850</v>
       </c>
-      <c r="D22" s="234" t="s">
+      <c r="D23" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="b">
+      <c r="E23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C23">
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24">
         <f>fbe_wall__yr_1_mm</f>
         <v>9.5299999999999994</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="b">
+      <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>370</v>
-      </c>
-      <c r="C24">
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25">
         <f>fbe_inside_diameter_yr_1</f>
         <v>0.69214000000000009</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="b">
+      <c r="E25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C25">
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26">
         <f>PI()*(outside_diameter^2-fbe_inside_diameter_yr_1^2)/4</f>
         <v>2.1007563353338601E-2</v>
       </c>
-      <c r="D25" s="234" t="s">
-        <v>351</v>
-      </c>
-      <c r="E25" t="b">
+      <c r="D26" s="234" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="238" t="s">
-        <v>372</v>
-      </c>
-      <c r="C26" s="236">
-        <f>C27/1000</f>
-        <v>11543.656062659562</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="238" t="s">
-        <v>372</v>
-      </c>
-      <c r="C27" s="239">
+        <v>371</v>
+      </c>
+      <c r="C27" s="236">
+        <f>C28/1000</f>
+        <v>11543.656062659562</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="238" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="239">
         <f>volume_1_m_fbe*C3*C6</f>
         <v>11543656.062659562</v>
       </c>
-      <c r="D27" s="238" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" t="b">
+      <c r="D28" s="238" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="163">
-        <f>C13*C27</f>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="163">
+        <f>C13*C28</f>
         <v>16391991.608976576</v>
       </c>
-      <c r="D28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="C31" t="s">
+      <c r="D29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
-        <v>398</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="F31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="167" t="s">
-        <v>396</v>
-      </c>
-      <c r="C32">
+      <c r="F32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="167" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33">
         <f>bare_wall__yr_1_mm</f>
         <v>13.28</v>
       </c>
-      <c r="D32">
-        <f>C23</f>
+      <c r="D33">
+        <f>C24</f>
         <v>9.5299999999999994</v>
       </c>
-      <c r="F32" s="164">
-        <f>1-C34/D34</f>
+      <c r="F33" s="164">
+        <f>1-C35/D35</f>
         <v>-0.38604684841894077</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="167" t="s">
-        <v>397</v>
-      </c>
-      <c r="C33" s="236">
+    <row r="34" spans="2:6">
+      <c r="B34" s="167" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="236">
         <f>bare_steel_weight_t</f>
         <v>16000.048104881484</v>
       </c>
-      <c r="D33" s="236">
+      <c r="D34" s="236">
         <f>fbe_steel_weight_t</f>
         <v>11543.656062659562</v>
       </c>
-      <c r="E33" s="164"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="167" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" s="162">
+      <c r="E34" s="164"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="167" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="162">
         <f>capex_steel_bare</f>
         <v>22720068.308931705</v>
       </c>
-      <c r="D34" s="162">
+      <c r="D35" s="162">
         <f>capex_steel_fbe</f>
         <v>16391991.608976576</v>
       </c>
-      <c r="E34" s="162"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="240" t="s">
+      <c r="E35" s="162"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="240" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="240" t="s">
         <v>332</v>
       </c>
-      <c r="C36" s="240" t="s">
+      <c r="D37" s="240" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="240" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="240" t="s">
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="242">
-        <f>C18</f>
+      <c r="C38" s="242">
+        <f>C19</f>
         <v>22720068.308931705</v>
       </c>
-      <c r="D37" s="241">
+      <c r="D38" s="241">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="240" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="242">
-        <f>C28</f>
+      <c r="C39" s="242">
+        <f>C29</f>
         <v>16391991.608976576</v>
       </c>
-      <c r="D38" s="243">
-        <f>C38/C37</f>
+      <c r="D39" s="243">
+        <f>C39/C38</f>
         <v>0.72147633475787409</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="240" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="242">
-        <f>C37-C38</f>
+      <c r="C40" s="242">
+        <f>C38-C39</f>
         <v>6328076.6999551281</v>
       </c>
-      <c r="D39" s="243">
-        <f>C39/C37</f>
+      <c r="D40" s="243">
+        <f>C40/C38</f>
         <v>0.27852366524212591</v>
       </c>
     </row>
@@ -22737,7 +23160,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>78</v>
@@ -22746,15 +23169,15 @@
         <v>76</v>
       </c>
       <c r="D1" s="233" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1" s="233" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="244">
         <v>4.5</v>
@@ -22765,7 +23188,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3">
         <f>design_flow_rate_l_s/1000</f>
@@ -22777,19 +23200,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4">
         <f>(24 * 60 * 60)</f>
         <v>86400</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="162">
         <f>Dosing_investment*B3*B4</f>
@@ -22807,20 +23230,20 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" style="246" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="246" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="246" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" style="246" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="246"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="16">
       <c r="A1" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>78</v>
@@ -22833,19 +23256,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="247" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="254">
         <v>5</v>
       </c>
       <c r="C2" s="246" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I2" s="248"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="276" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="255">
         <f>fbe_inside_diameter_yr_1</f>
@@ -22857,7 +23280,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="276" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="246">
         <f>pipeline_length</f>
@@ -22869,7 +23292,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="249" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="256">
         <f>PI()*fbe_inside_diameter_yr_1*pipeline_length</f>
@@ -22881,7 +23304,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="276" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="B6" s="257">
         <f>FBE_cost_per_surface*fbe_inside_surface</f>
@@ -22891,7 +23314,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="276" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="257">
         <f>capex_steel_fbe</f>
@@ -22903,12 +23326,9 @@
       <c r="I7" s="245"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="246" t="s">
-        <v>373</v>
-      </c>
-      <c r="B8" s="280">
-        <f>interior_fbe_capex/B7</f>
-        <v>4.6428017832970903E-2</v>
+      <c r="B8" s="257">
+        <f>SUM(B6:B7)</f>
+        <v>17153039.28771605</v>
       </c>
       <c r="F8" s="249"/>
       <c r="G8" s="245"/>
@@ -22916,12 +23336,26 @@
       <c r="I8" s="245"/>
     </row>
     <row r="9" spans="1:9">
+      <c r="A9" s="276" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="280">
+        <f>interior_fbe_capex/FBE_plus_bare</f>
+        <v>4.4368095121456952E-2</v>
+      </c>
       <c r="F9" s="249"/>
       <c r="G9" s="250"/>
       <c r="H9" s="245"/>
       <c r="I9" s="245"/>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" s="276" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="280">
+        <f>B7/FBE_plus_bare</f>
+        <v>0.9556319048785431</v>
+      </c>
       <c r="F10" s="251"/>
       <c r="G10" s="252"/>
       <c r="H10" s="245"/>
@@ -22939,8 +23373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DA13A2-911B-9D49-B1C9-9DED1E3BE9CB}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22960,7 +23394,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="166">
         <f>C$9*D3</f>
@@ -22972,7 +23406,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="166">
         <f t="shared" ref="C4:C8" si="0">C$9*D4</f>
@@ -22988,7 +23422,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="166">
         <f t="shared" si="0"/>
@@ -23000,7 +23434,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="166">
         <f t="shared" si="0"/>
@@ -23012,7 +23446,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="166">
         <f t="shared" si="0"/>
@@ -23024,7 +23458,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="238" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="262">
         <f t="shared" si="0"/>
@@ -23036,7 +23470,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" s="166">
         <f>field_coating_usd_joint</f>
@@ -23049,7 +23483,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <f>pipeline_length</f>
@@ -23058,7 +23492,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12">
         <f>segment_length</f>
@@ -23067,16 +23501,16 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="238" t="s">
-        <v>349</v>
-      </c>
-      <c r="C13" s="238">
+        <v>348</v>
+      </c>
+      <c r="C13" s="239">
         <f>ROUNDUP(pipeline_length/segment_length,0)</f>
         <v>5834</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C14" s="162">
         <f>C13*C9</f>
@@ -23085,7 +23519,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C18" s="162">
         <f>capex_steel_fbe</f>
@@ -23098,7 +23532,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C19" s="162">
         <f>field_coating_total</f>
@@ -23111,7 +23545,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C20" s="162">
         <f>interior_fbe_capex</f>
@@ -23124,7 +23558,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C21" s="162">
         <f>Dosage_plant_investment</f>
@@ -23137,7 +23571,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C22" s="162">
         <f>SUM(C18:C20)</f>
@@ -23173,7 +23607,7 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1" s="233" t="s">
         <v>78</v>
@@ -23184,7 +23618,7 @@
     </row>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2">
         <v>0.7</v>
@@ -23195,26 +23629,26 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3">
         <f>C2*3600</f>
         <v>2520</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4">
         <f>C3*24*30</f>
         <v>1814400</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -23226,24 +23660,24 @@
         <v>8400</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" s="236">
         <f>C5*C3</f>
         <v>21168000</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7">
         <f>fluid_density</f>
@@ -23263,7 +23697,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="264" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C8" s="273">
         <f>annual_discount_rate</f>
@@ -23273,7 +23707,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="264" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="296">
         <v>0.2</v>
@@ -23281,27 +23715,27 @@
     </row>
     <row r="10" spans="2:12" ht="34">
       <c r="B10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="270" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="270" t="s">
         <v>356</v>
-      </c>
-      <c r="D10" s="270" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="270" t="s">
-        <v>357</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="270" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11" s="271">
         <v>26</v>
@@ -23362,7 +23796,7 @@
     </row>
     <row r="15" spans="2:12">
       <c r="E15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F15" s="263">
         <f>-PV(C8,25,Table9[[#Totals],[Total]])</f>
@@ -23395,7 +23829,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="233" t="s">
         <v>78</v>
@@ -23406,7 +23840,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="162">
         <v>8000</v>
@@ -23417,7 +23851,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="162">
         <v>4000</v>
@@ -23428,7 +23862,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" s="162">
         <f>C3*pipeline_length/1000</f>
@@ -23437,7 +23871,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C6" s="162">
         <f>C4*pipeline_length/1000</f>
@@ -23446,7 +23880,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" s="263">
         <f>-PV(annual_discount_rate,25,C5)</f>
@@ -23455,7 +23889,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" s="263">
         <f>-PV(annual_discount_rate,25,C6)</f>
@@ -23516,7 +23950,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="D3" s="174" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" s="170">
         <f>pipeline_length</f>
@@ -23528,7 +23962,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="D4" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" s="170">
         <f>design_flow_rate</f>
@@ -23540,7 +23974,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="D5" s="174" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E5" s="170">
         <f>fluid_density</f>
@@ -23549,7 +23983,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="D6" s="174" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="170">
         <f>Elevation_change</f>
@@ -23577,25 +24011,25 @@
         <v>8400</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="173"/>
       <c r="B9" s="173"/>
       <c r="D9" s="174" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E9" s="289">
         <v>175</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="D10" s="174" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E10" s="170">
         <f>Projected_MWh/1000</f>
@@ -23607,19 +24041,19 @@
     </row>
     <row r="11" spans="1:24">
       <c r="D11" s="174" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E11" s="170">
         <f>Projected_kWh/1000</f>
         <v>1.75E-4</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="D12" s="174" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E12" s="290">
         <f ca="1">bare_electricity_yr_1+K22</f>
@@ -23801,28 +24235,28 @@
         <v>258</v>
       </c>
       <c r="F21" s="218" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="218" t="s">
         <v>221</v>
       </c>
       <c r="H21" s="218" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I21" s="218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J21" s="286" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="286" t="s">
         <v>284</v>
-      </c>
-      <c r="K21" s="286" t="s">
-        <v>285</v>
       </c>
       <c r="L21" s="219" t="s">
         <v>227</v>
       </c>
       <c r="M21" s="219" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N21" s="175" t="s">
         <v>259</v>
@@ -26602,16 +27036,16 @@
         <v>221</v>
       </c>
       <c r="H49" s="218" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I49" s="218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J49" s="295" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" s="295" t="s">
         <v>284</v>
-      </c>
-      <c r="K49" s="295" t="s">
-        <v>285</v>
       </c>
       <c r="L49" s="219" t="s">
         <v>227</v>
@@ -29142,7 +29576,7 @@
         <v>159</v>
       </c>
       <c r="F1" s="300" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G1" s="300" t="s">
         <v>39</v>
@@ -29157,7 +29591,7 @@
         <v>625</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D2" s="301" t="s">
         <v>167</v>
@@ -29185,7 +29619,7 @@
         <v>625</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" s="303" t="s">
         <v>169</v>
@@ -29213,10 +29647,10 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D4" s="303" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E4" s="304"/>
       <c r="F4" s="304">
@@ -29235,10 +29669,10 @@
         <v>1420</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D5" s="305" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="304">
         <f ca="1">bare_friction_energy_PV</f>
@@ -29256,7 +29690,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="305" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="304">
         <f>bare_elevation_energy_PV</f>
@@ -29271,7 +29705,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D7" s="305" t="s">
         <v>168</v>
@@ -29292,7 +29726,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="D8" s="303" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E8" s="304"/>
       <c r="F8" s="304">
@@ -29358,7 +29792,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="D13" s="303" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="304">
         <f>SUM(E3,E9,E7)</f>
@@ -29375,7 +29809,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="D14" s="305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" s="304">
         <f>SUM(E2,E6,E7)</f>
@@ -29430,7 +29864,7 @@
         <v>159</v>
       </c>
       <c r="F17" s="313" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G17" s="313" t="s">
         <v>39</v>
@@ -29439,7 +29873,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="D18" s="310" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E18" s="314">
         <f>pv_inhibitors</f>
@@ -29453,7 +29887,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="D19" s="310" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E19" s="314">
         <f ca="1">G5</f>
@@ -29483,7 +29917,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="310" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E21" s="314"/>
       <c r="F21" s="314">
@@ -29497,7 +29931,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="D22" s="310" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" s="314">
         <f>extra_inspections</f>
@@ -29511,7 +29945,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="D23" s="310" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E23" s="314"/>
       <c r="F23" s="314">
@@ -29604,7 +30038,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="167" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" s="162" t="s">
         <v>159</v>
@@ -29612,7 +30046,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B48" s="169">
         <f>NPV(discount_rate/100,Electricity!K22:K46)</f>
@@ -29621,7 +30055,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" s="169">
         <f ca="1">NPV(discount_rate/100,Electricity!J22:J46)</f>

--- a/Bare-vs-Coated-Water-Pipelines.xlsx
+++ b/Bare-vs-Coated-Water-Pipelines.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igna/Dropbox/Victaulic/FBE_vs_Bare/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C57F74-4103-EC43-A432-AF8452FED660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338CAE6-1103-A64D-9352-B5177E7B2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32860" yWindow="760" windowWidth="32860" windowHeight="21580" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="8" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="7" xr2:uid="{53D05BF2-39A4-304E-91BF-F60392E00A11}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -32,14 +33,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Charts!$D$1:$G$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$2:$F$25</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">SC!$A$6:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">SC!$B$6:$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">SC!$A$6:$A$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">SC!$B$6:$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">SC!$A$6:$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">SC!$B$6:$B$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">SC!$A$6:$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">SC!$B$6:$B$7</definedName>
     <definedName name="aguasin_price_200_L_s">Data_!$F$108</definedName>
     <definedName name="annual_discount_rate">Parameters!$C$29</definedName>
     <definedName name="annual_discount_rate_percent">Parameters!$C$28</definedName>
@@ -155,7 +148,9 @@
     <definedName name="field_coating_total">FJC!$C$14</definedName>
     <definedName name="field_coating_usd_joint">Parameters!$C$31</definedName>
     <definedName name="field_coating_usd_per_joint">FJC!$C$9</definedName>
-    <definedName name="field_Joint_Coating">FJC!$C$19</definedName>
+    <definedName name="field_Joint_Coating">FJC!$C$22</definedName>
+    <definedName name="FJc_surface">FJC!$C$16</definedName>
+    <definedName name="FJE_vs_SC_Times_per_surface">FJC!$C$19</definedName>
     <definedName name="Flow_m3_h">Data_!$C$33</definedName>
     <definedName name="Flow_rate_m3_s">Data_!$C$32</definedName>
     <definedName name="fluid_density">Parameters!$C$17</definedName>
@@ -187,6 +182,9 @@
     <definedName name="outer_diameter_inch">Data_!$E$57</definedName>
     <definedName name="outside_diameter">Parameters!$C$8</definedName>
     <definedName name="outside_diameter_inches">Parameters!$C$7</definedName>
+    <definedName name="p_fjc_coated">FJC!$D$22</definedName>
+    <definedName name="p_sc_coated">FJC!$D$23</definedName>
+    <definedName name="p_steel_coated">FJC!$D$21</definedName>
     <definedName name="pipe_id_bare_yr_1">Data_!$P$32</definedName>
     <definedName name="pipe_id_fbe_yr_1">Data_!$P$4</definedName>
     <definedName name="pipe_od_in">Data_!$C$5</definedName>
@@ -217,9 +215,10 @@
     <definedName name="roughness_fbe_yr_25_mm">Parameters!$C$22</definedName>
     <definedName name="roughness_FBE_yr1_m">Data_!$E$12</definedName>
     <definedName name="Safety_factor">Data_!$C$26</definedName>
+    <definedName name="Sc_surface">FJC!$C$17</definedName>
     <definedName name="segment_length">Parameters!$C$6</definedName>
     <definedName name="Service_life_yr">Data_!$C$17</definedName>
-    <definedName name="Shop_fbe_coating">FJC!$C$20</definedName>
+    <definedName name="Shop_fbe_coating">FJC!$C$23</definedName>
     <definedName name="SMYS">[1]MAOP!$C$5</definedName>
     <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
@@ -242,8 +241,9 @@
     <definedName name="Steel_pipe_transportation">Data_!$C$77</definedName>
     <definedName name="Steel_price_USD_MT">Data_!#REF!</definedName>
     <definedName name="Supply_contingency">Data_!$C$34</definedName>
-    <definedName name="Total_Field_Shop_Steel">FJC!$C$22</definedName>
-    <definedName name="Total_Steel_cost">FJC!$C$18</definedName>
+    <definedName name="Times_coating_vs_FJC">FJC!$C$18</definedName>
+    <definedName name="Total_Field_Shop_Steel">FJC!$C$24</definedName>
+    <definedName name="Total_Steel_cost">FJC!$C$21</definedName>
     <definedName name="Total_Steel_Price">Data_!$C$80</definedName>
     <definedName name="Utilization_factor">Data_!#REF!</definedName>
     <definedName name="v_kinematic_viscosity">Data_!$C$30</definedName>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="424">
   <si>
     <t>FBE Coated Case</t>
   </si>
@@ -1421,9 +1421,6 @@
     <t>Elevation Energy</t>
   </si>
   <si>
-    <t>Friction  Energy</t>
-  </si>
-  <si>
     <t>Extra Friction Energy</t>
   </si>
   <si>
@@ -1521,9 +1518,6 @@
   </si>
   <si>
     <t>Freight cost</t>
-  </si>
-  <si>
-    <t>Cost per weight</t>
   </si>
   <si>
     <t>$/kg</t>
@@ -1697,9 +1691,6 @@
     <t>Total Field Shop Steel</t>
   </si>
   <si>
-    <t>Dosing plant</t>
-  </si>
-  <si>
     <t>Bare annual Inspection</t>
   </si>
   <si>
@@ -1763,7 +1754,88 @@
     <t>Steel Percentage</t>
   </si>
   <si>
-    <t>Interior FBE</t>
+    <t>NEEDED</t>
+  </si>
+  <si>
+    <t>New commercial steel (0.045–0.09 mm)</t>
+  </si>
+  <si>
+    <t>Field data from carbon steel water mains show roughness growth rates of 0.0055–0.0518 mm/yr, yielding 0.14–1.3 mm over 25 years.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>The 0.015 mm value reflects field conditions with minor surface imperfections, aligning with coated pipe database</t>
+  </si>
+  <si>
+    <t>https://www.imia.com/wp-content/uploads/2023/08/IMIA-WGP-126-22-Coating-Failures.pdf</t>
+  </si>
+  <si>
+    <t>Terminal roughness of 0.035 mm better reflects seawater ageing dynamics while remaining within ISO 21809-2 tolerances</t>
+  </si>
+  <si>
+    <t>https://www.pipeflow.com/pipe-pressure-drop-calculations/pipe-roughness</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/sti/tr/pdf/ADA194321.pdf</t>
+  </si>
+  <si>
+    <t>https://www.steelmains.com/files/TWT%2015140%20Comparison%20of%20Sintakote%20vs%20Epoxy%20coatings%20on%20steel%20water%20pipe.pdf</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyPURL.cgi?Dockey=10003FIW.TXT</t>
+  </si>
+  <si>
+    <t>Confidential Quote</t>
+  </si>
+  <si>
+    <t>The 0.15 mm/year corrosion rate assumption holds validity for industrial water systems with adequate treatment (pH 7–8.5, inhibitor dosing). However, seawater models require adjustment to 0.25–0.35 mm/year baseline rates with additional 0.12–0.18 mm/year biofouling roughness increments.</t>
+  </si>
+  <si>
+    <t>https://gmk.center/en/posts/hot-rolled-coil-prices-have-increased-in-most-markets-since-the-beginning-of-the-year/</t>
+  </si>
+  <si>
+    <t>Reference 1</t>
+  </si>
+  <si>
+    <t>Reference 2</t>
+  </si>
+  <si>
+    <t>Cost per weight (CPW)</t>
+  </si>
+  <si>
+    <t>µm</t>
+  </si>
+  <si>
+    <t>Friction Energy</t>
+  </si>
+  <si>
+    <t>:Friction Energy #197</t>
+  </si>
+  <si>
+    <t>Steel design</t>
+  </si>
+  <si>
+    <t>Steel corrosion</t>
+  </si>
+  <si>
+    <t>Shop coating</t>
+  </si>
+  <si>
+    <t>Cutback 0.5 m uncoated</t>
+  </si>
+  <si>
+    <t>Rest of the pipe coated</t>
+  </si>
+  <si>
+    <t>Times more expensive</t>
+  </si>
+  <si>
+    <t>Times more expensive per surface area</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1891,7 @@
     <numFmt numFmtId="203" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="204" formatCode="#,##0.0\ &quot;kg/month&quot;"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2148,8 +2220,16 @@
       <color theme="0"/>
       <name val="Lantinghei TC Extralight"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2225,6 +2305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2519,7 +2605,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2527,8 +2613,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3155,6 +3242,14 @@
     </xf>
     <xf numFmtId="1" fontId="44" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="193" fontId="44" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="14" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,14 +3274,18 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="44" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="44" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="44" fillId="13" borderId="25" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
@@ -4189,10 +4288,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22720068.308931705</c:v>
+                  <c:v>20320061.093199484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16391991.608976576</c:v>
+                  <c:v>14660443.199577643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4379,7 +4478,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Interior FBE</c:v>
+                  <c:v>Shop coating</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4450,7 +4549,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk2">
                             <a:lumMod val="75000"/>
@@ -4461,25 +4560,25 @@
                         <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{89D7AFFB-161A-2147-9036-D4AD43B26D1F}" type="CELLRANGE">
-                      <a:rPr lang="en-US" sz="2000"/>
+                    <a:fld id="{D49D6D3B-70B4-DB4F-A8AB-452BF717AB3C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="2800" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="2000"/>
+                        <a:defRPr sz="2800"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:rPr lang="en-US" sz="2800" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{038151F5-AC2F-8C4A-8FC7-F35C7BB9BF4F}" type="SERIESNAME">
-                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                    <a:fld id="{E6F2104C-033A-7E40-8501-1BAC42C91E41}" type="SERIESNAME">
+                      <a:rPr lang="en-US" sz="2800" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="2000"/>
+                        <a:defRPr sz="2800"/>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
+                    <a:endParaRPr lang="en-US" sz="2800" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4531,7 +4630,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -4542,7 +4641,7 @@
                       <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="ctr"/>
@@ -4568,8 +4667,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.16401066342918169"/>
-                      <c:h val="0.29965729239412747"/>
+                      <c:w val="0.10507810116207691"/>
+                      <c:h val="0.53276541987197013"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -4602,7 +4701,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk2">
                         <a:lumMod val="75000"/>
@@ -4658,7 +4757,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.4%</c:v>
+                    <c:v>4.9%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4734,6 +4833,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-014F-DC47-9034-EC54DDB0D488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -4744,7 +4848,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx2"/>
                         </a:solidFill>
@@ -4753,25 +4857,25 @@
                         <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{1928784E-77C8-6B46-A436-03C152308E94}" type="CELLRANGE">
-                      <a:rPr lang="en-US" sz="2000"/>
+                    <a:fld id="{6ABD22FD-456A-8D4C-9B4C-C6736FF1CE58}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="2800" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="2000"/>
+                        <a:defRPr sz="2800"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:rPr lang="en-US" sz="2800" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1E8B898F-3752-C749-A8CD-B4E025DB3455}" type="SERIESNAME">
-                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                    <a:fld id="{5D8DE649-6699-AE43-B69A-8DC04E870A69}" type="SERIESNAME">
+                      <a:rPr lang="en-US" sz="2800" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="2000"/>
+                        <a:defRPr sz="2800"/>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
+                    <a:endParaRPr lang="en-US" sz="2800" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4792,7 +4896,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx2"/>
                       </a:solidFill>
@@ -4801,7 +4905,7 @@
                       <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -4814,12 +4918,15 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.16260095620824344"/>
-                      <c:h val="0.26021420369687409"/>
+                      <c:w val="0.10589226507509981"/>
+                      <c:h val="0.60480868333803517"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-014F-DC47-9034-EC54DDB0D488}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4846,7 +4953,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk2">
                         <a:lumMod val="75000"/>
@@ -4890,7 +4997,7 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16391991.608976576</c:v>
+                  <c:v>14660443.199577643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,7 +5009,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>95.6%</c:v>
+                    <c:v>95.1%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4920,7 +5027,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="15"/>
         <c:overlap val="100"/>
         <c:axId val="527415615"/>
         <c:axId val="469377968"/>
@@ -4946,6 +5053,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="527415615"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -4960,6 +5068,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="469377968"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5014,452 +5123,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="6"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22418123880072599"/>
-          <c:y val="0.16666666666666666"/>
-          <c:w val="0.55541556204847753"/>
-          <c:h val="0.68055555555555547"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:explosion val="5"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C024-DC43-A331-E39EC779AB83}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C024-DC43-A331-E39EC779AB83}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C024-DC43-A331-E39EC779AB83}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:tint val="58000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-1CE6-2B45-9FAB-D14C6F8BA4CD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.28102670755191334"/>
-                  <c:y val="-0.18682628505706442"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.30701916871046858"/>
-                      <c:h val="0.11122885067024245"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C024-DC43-A331-E39EC779AB83}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20952987362980224"/>
-                  <c:y val="0.1779026217228464"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.25231883769701152"/>
-                      <c:h val="0.16048748119968151"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C024-DC43-A331-E39EC779AB83}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13511736072191094"/>
-                  <c:y val="-9.7378290805603812E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.33894372172621595"/>
-                      <c:h val="0.16048748119968151"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C024-DC43-A331-E39EC779AB83}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10378586344333772"/>
-                  <c:y val="-5.2434456928838968E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.29373357578303128"/>
-                      <c:h val="0.15494382022471911"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-1CE6-2B45-9FAB-D14C6F8BA4CD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>FJC!$B$18:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Total steel cost</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Field joint coating</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shop FBE coating</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dosing plant</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FJC!$C$18:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16391991.608976576</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5367280</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>761047.67873947392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>272160</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C024-DC43-A331-E39EC779AB83}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="22"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2400">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-CL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5743,7 +5406,7 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7100398.0038222522</c:v>
+                  <c:v>9479670.815946117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5855,7 +5518,7 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6328076.6999551281</c:v>
+                  <c:v>5659617.8936218414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,7 +5656,7 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>5367280</c:v>
+                  <c:v>5834000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,7 +6231,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6685,7 +6348,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32323585.961490624</c:v>
+                  <c:v>34702858.773614489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6854,7 +6517,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7297,7 +6960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7950,7 +7613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8545,7 +8208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9158,8 +8821,42 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -9244,46 +8941,6 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10284,7 +9941,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10341,7 +9998,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10392,13 +10049,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10409,19 +10059,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10459,7 +10102,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11308,511 +10951,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12328,7 +11466,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12831,7 +11969,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13336,7 +12474,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13980,15 +13118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2497667</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
+      <xdr:colOff>2497666</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>702733</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448732</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14047,8 +13185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4459111" y="204611"/>
-          <a:ext cx="3403600" cy="889000"/>
+          <a:off x="4542366" y="412044"/>
+          <a:ext cx="3419122" cy="905934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14062,42 +13200,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>84665</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787401</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917B4475-980B-D04F-916B-D094C43C9A14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -14125,7 +13227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14473,16 +13575,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19537</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9345</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97691</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16467,13 +15569,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401804B6-E255-0D47-B4C0-0EFB54D89CFA}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -16481,35 +15584,48 @@
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="298" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="298" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="326" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="298" t="s">
+      <c r="D2" s="326" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="233" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="233" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="326" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="326" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="298" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="298" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="298" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="298" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="230" t="str">
         <f t="shared" ref="A3:A18" si="0">_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B3&amp;IF(E3,"","_"&amp;D3)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>pipeline_length</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="297">
         <v>70000</v>
@@ -16517,16 +15633,16 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="230" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="230" t="b">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="321">
         <f>pipeline_length/1000</f>
@@ -16535,14 +15651,20 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B5&amp;IF(E5,"","_"&amp;D5)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>elevation_change</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="297">
         <v>1000</v>
@@ -16557,13 +15679,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>segment_length</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="297">
         <v>12</v>
@@ -16578,13 +15700,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B8&amp;IF(E8,"","_"&amp;D8)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>outside_diameter</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="297">
         <v>28</v>
@@ -16599,13 +15721,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B15&amp;IF(E15,"","_"&amp;D15)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>design_flow_rate_m3_s</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8">
         <f>CONVERT(outside_diameter_inches,"in","m")</f>
@@ -16618,16 +15740,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B7&amp;IF(E7,"","_"&amp;D7)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>outside_diameter_inches</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="297">
         <v>0.15</v>
@@ -16641,14 +15763,21 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="327" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="327"/>
+      <c r="J9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B14&amp;IF(E14,"","_"&amp;D14)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>design_flow_rate_l_s</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="297">
         <v>9.5299999999999994</v>
@@ -16660,16 +15789,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B10&amp;IF(E10,"","_"&amp;D10)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>fbe_wall__yr_1_mm</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11">
         <f>fbe_wall__yr_1_mm+wall_corrosion_rate_mm_yr*25</f>
@@ -16685,13 +15814,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B13&amp;IF(E13,"","_"&amp;D13)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>fbe_inside_diameter_yr_1</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12">
         <f>outside_diameter-bare_wall__yr_1_mm/1000*2</f>
@@ -16707,13 +15836,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" t="e">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(#REF!&amp;IF(#REF!,"","_"&amp;#REF!)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>#REF!</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13">
         <f>outside_diameter-fbe_wall__yr_1_mm/1000*2</f>
@@ -16729,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B9&amp;IF(E9,"","_"&amp;D9)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>wall_corrosion_rate_mm_yr</v>
@@ -16747,10 +15876,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B12&amp;IF(E12,"","_"&amp;D12)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>bare_inside_diameter_yr_1</v>
@@ -16772,13 +15901,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B16&amp;IF(E16,"","_"&amp;D16)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>x70_steel_density</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="297">
         <v>7850</v>
@@ -16793,13 +15922,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>fluid_density</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" s="297">
         <v>1030</v>
@@ -16814,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:10">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>dynamic_viscosity_of_water</v>
@@ -16835,16 +15964,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:10">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A24" si="1">_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B19&amp;IF(E19,"","_"&amp;D19)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>roughness_bare_yr_1_mm</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" s="297">
-        <v>0.1</v>
+        <v>297</v>
+      </c>
+      <c r="C19" s="325">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -16855,17 +15984,27 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="327" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="327"/>
+      <c r="I19">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>roughness_bare_yr_25_mm</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="297">
-        <v>0.3</v>
+        <v>298</v>
+      </c>
+      <c r="C20" s="325">
+        <v>0.72</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -16876,17 +16015,27 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="327" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20" s="327"/>
+      <c r="I20">
+        <v>0.72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>roughness_fbe_yr_1_mm</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C21" s="297">
-        <v>0.01</v>
+        <v>295</v>
+      </c>
+      <c r="C21" s="325">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -16897,17 +16046,24 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="327" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" s="327"/>
+      <c r="J21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>roughness_fbe_yr_25_mm</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="297">
-        <v>0.05</v>
+        <v>296</v>
+      </c>
+      <c r="C22" s="325">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -16918,20 +16074,27 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="327" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="327"/>
+      <c r="J22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
-        <v>interior_fbe_thickness_mm</v>
+        <v>interior_fbe_thickness_µm</v>
       </c>
       <c r="B23" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="297">
-        <v>0.3</v>
+      <c r="C23" s="320">
+        <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -16939,29 +16102,32 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>service_life_yr</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" s="297">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B25&amp;IF(E25,"","_"&amp;D25)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2"),"_of","")</f>
         <v>annual_hours_operation_h_yr</v>
@@ -16969,7 +16135,7 @@
       <c r="B25" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="331">
+      <c r="C25" s="329">
         <v>8400</v>
       </c>
       <c r="D25" t="s">
@@ -16979,10 +16145,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B26&amp;IF(E26,"","_"&amp;D26)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>pump_efficiency_percent</v>
@@ -17000,10 +16166,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B29&amp;IF(E29,"","_"&amp;D29)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>annual_discount_rate</v>
@@ -17021,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="A28" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B28&amp;IF(E28,"","_"&amp;D28)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>annual_discount_rate_percent</v>
@@ -17039,10 +16205,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B11&amp;IF(E11,"","_"&amp;D11)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>bare_wall__yr_1_mm</v>
@@ -17064,16 +16230,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:10">
       <c r="A30" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B30&amp;IF(E30,"","_"&amp;D30)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>hrc_price_usd_t</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="297">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="D30" t="s">
         <v>114</v>
@@ -17084,18 +16250,25 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="327" t="s">
+        <v>410</v>
+      </c>
+      <c r="H30" s="327"/>
+      <c r="I30">
+        <f>AVERAGE(725,800)</f>
+        <v>762.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B31&amp;IF(E31,"","_"&amp;D31)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>field_coating_usd_joint</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
-      </c>
-      <c r="C31" s="297">
-        <f>1150*0.8</f>
-        <v>920</v>
+        <v>302</v>
+      </c>
+      <c r="C31" s="338">
+        <v>1000</v>
       </c>
       <c r="D31" t="s">
         <v>264</v>
@@ -17106,20 +16279,23 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="232" t="str">
         <f>_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(_xlfn.REGEXREPLACE(LOWER(B32&amp;IF(E32,"","_"&amp;D32)),"(³)","3"),"[ /]","_"),"\$","usd"),"year","yr"),"%","percent"),"²","2")</f>
         <v>electrical_energy_usd_mwh</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32" s="297">
         <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -17146,10 +16322,18 @@
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{B65FC443-1221-CE48-A9F7-B2A8789A5F5C}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{26E8F0F0-38A1-4E41-9D12-93529C59C0F8}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{FDBA5EFB-C4D2-2A4E-8F5E-A17FF62C9943}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{084B8C38-7F2F-A04D-8866-186EAC8ADB94}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{D05F0AB7-465E-1941-98EC-21F2231C3247}"/>
+    <hyperlink ref="G30" r:id="rId6" xr:uid="{931A2F84-0561-3441-82B8-9E90050F0758}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17161,6 +16345,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -17209,9 +16394,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:56">
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
       <c r="E1" s="115"/>
       <c r="F1" s="2"/>
       <c r="H1" s="2" t="e">
@@ -17482,7 +16667,7 @@
     </row>
     <row r="6" spans="2:56">
       <c r="B6" s="106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="110">
         <v>7850</v>
@@ -17560,7 +16745,7 @@
     </row>
     <row r="7" spans="2:56">
       <c r="B7" s="106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="107">
         <v>625</v>
@@ -18563,10 +17748,10 @@
         <v>#NAME?</v>
       </c>
       <c r="AO19" s="2"/>
-      <c r="AQ19" s="324" t="s">
+      <c r="AQ19" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="AR19" s="324"/>
+      <c r="AR19" s="332"/>
     </row>
     <row r="20" spans="2:52">
       <c r="B20" s="106" t="s">
@@ -18739,7 +17924,7 @@
       <c r="AG21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AO21" s="325" t="s">
+      <c r="AO21" s="333" t="s">
         <v>12</v>
       </c>
       <c r="AP21" s="14" t="s">
@@ -18832,7 +18017,7 @@
       <c r="AE22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AO22" s="326"/>
+      <c r="AO22" s="334"/>
       <c r="AP22" s="18" t="s">
         <v>46</v>
       </c>
@@ -18924,7 +18109,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO23" s="327"/>
+      <c r="AO23" s="335"/>
       <c r="AP23" s="18" t="s">
         <v>47</v>
       </c>
@@ -19091,7 +18276,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO25" s="328" t="s">
+      <c r="AO25" s="336" t="s">
         <v>48</v>
       </c>
       <c r="AP25" s="20" t="s">
@@ -19178,7 +18363,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO26" s="328"/>
+      <c r="AO26" s="336"/>
       <c r="AP26" s="24" t="s">
         <v>52</v>
       </c>
@@ -19287,7 +18472,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO27" s="328"/>
+      <c r="AO27" s="336"/>
       <c r="AP27" s="28" t="s">
         <v>55</v>
       </c>
@@ -19399,7 +18584,7 @@
         <f>Table5[[#This Row],[Friction Head Loss]]</f>
         <v>#NAME?</v>
       </c>
-      <c r="AO28" s="328"/>
+      <c r="AO28" s="336"/>
       <c r="AP28" s="30" t="s">
         <v>58</v>
       </c>
@@ -21424,7 +20609,7 @@
       <c r="D63" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="329" t="s">
+      <c r="G63" s="337" t="s">
         <v>162</v>
       </c>
       <c r="H63" s="93" t="s">
@@ -21447,7 +20632,7 @@
         <f>FBE_coating_capex/1000000/FBE_steel_capex</f>
         <v>#NAME?</v>
       </c>
-      <c r="G64" s="329"/>
+      <c r="G64" s="337"/>
       <c r="H64" s="91" t="s">
         <v>172</v>
       </c>
@@ -21457,7 +20642,7 @@
       </c>
     </row>
     <row r="65" spans="2:10">
-      <c r="G65" s="329"/>
+      <c r="G65" s="337"/>
       <c r="H65" s="91" t="s">
         <v>46</v>
       </c>
@@ -21473,7 +20658,7 @@
       <c r="C66" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="G66" s="322" t="s">
+      <c r="G66" s="330" t="s">
         <v>163</v>
       </c>
       <c r="H66" s="91" t="s">
@@ -21495,7 +20680,7 @@
       <c r="D67" s="135">
         <v>2.3478260869565216E-2</v>
       </c>
-      <c r="G67" s="322"/>
+      <c r="G67" s="330"/>
       <c r="H67" s="95" t="s">
         <v>172</v>
       </c>
@@ -22214,6 +21399,7 @@
     <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -22633,6 +21819,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -22645,9 +21832,10 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -22658,7 +21846,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="233" t="s">
         <v>78</v>
@@ -22667,15 +21855,15 @@
         <v>76</v>
       </c>
       <c r="E2" s="233" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="233" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="236">
         <f>x70_steel_density</f>
@@ -22690,7 +21878,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4">
         <f>bare_wall__yr_1_mm</f>
@@ -22705,7 +21893,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5">
         <f>outside_diameter</f>
@@ -22720,7 +21908,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="236">
         <f>pipeline_length</f>
@@ -22735,14 +21923,14 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="235">
         <f>hrc_price_usd_t/1000</f>
-        <v>0.625</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -22750,7 +21938,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -22764,7 +21952,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C9">
         <v>120</v>
@@ -22778,7 +21966,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -22792,7 +21980,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11">
         <f>SUM(C8:C10)</f>
@@ -22804,14 +21992,14 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12" s="235">
         <f>SUM(C8:C10)/1000</f>
         <v>0.17</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -22819,14 +22007,14 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>320</v>
+        <v>413</v>
       </c>
       <c r="C13" s="237">
         <f>(C7*2+C12)</f>
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -22834,11 +22022,11 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14" s="330">
+        <v>413</v>
+      </c>
+      <c r="C14" s="236">
         <f>cost_per_steel_weight*1000</f>
-        <v>1420</v>
+        <v>1270</v>
       </c>
       <c r="D14" t="s">
         <v>114</v>
@@ -22846,7 +22034,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C15" s="278">
         <f>bare_inside_diameter_yr_1</f>
@@ -22861,14 +22049,14 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C16" s="279">
         <f>PI()/4*(outside_diameter^2-bare_inside_diameter_yr_1^2)</f>
         <v>2.9117466978856206E-2</v>
       </c>
       <c r="D16" s="234" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -22876,7 +22064,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="238" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C17" s="236">
         <f>C18/1000</f>
@@ -22888,14 +22076,14 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="238" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" s="239">
         <f>volume_1_m_bare*C3*C6</f>
         <v>16000048.104881484</v>
       </c>
       <c r="D18" s="238" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -22903,19 +22091,19 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C19" s="163">
         <f>C13*C18</f>
-        <v>22720068.308931705</v>
+        <v>20320061.093199484</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C22" s="233" t="s">
         <v>78</v>
@@ -22924,15 +22112,15 @@
         <v>76</v>
       </c>
       <c r="E22" s="233" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" s="233" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C23" s="236">
         <f>x70_steel_density</f>
@@ -22947,7 +22135,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C24">
         <f>fbe_wall__yr_1_mm</f>
@@ -22962,7 +22150,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C25">
         <f>fbe_inside_diameter_yr_1</f>
@@ -22977,14 +22165,14 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C26">
         <f>PI()*(outside_diameter^2-fbe_inside_diameter_yr_1^2)/4</f>
         <v>2.1007563353338601E-2</v>
       </c>
       <c r="D26" s="234" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -22992,7 +22180,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="238" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C27" s="236">
         <f>C28/1000</f>
@@ -23004,14 +22192,14 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="238" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C28" s="239">
         <f>volume_1_m_fbe*C3*C6</f>
         <v>11543656.062659562</v>
       </c>
       <c r="D28" s="238" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -23019,14 +22207,14 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C29" s="163">
         <f>C13*C28</f>
-        <v>16391991.608976576</v>
+        <v>14660443.199577643</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -23034,18 +22222,18 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E32" t="s">
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="167" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C33">
         <f>bare_wall__yr_1_mm</f>
@@ -23062,7 +22250,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="167" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C34" s="236">
         <f>bare_steel_weight_t</f>
@@ -23076,27 +22264,27 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C35" s="162">
         <f>capex_steel_bare</f>
-        <v>22720068.308931705</v>
+        <v>20320061.093199484</v>
       </c>
       <c r="D35" s="162">
         <f>capex_steel_fbe</f>
-        <v>16391991.608976576</v>
+        <v>14660443.199577643</v>
       </c>
       <c r="E35" s="162"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="240" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="240" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37" s="240" t="s">
         <v>331</v>
-      </c>
-      <c r="C37" s="240" t="s">
-        <v>332</v>
-      </c>
-      <c r="D37" s="240" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -23105,7 +22293,7 @@
       </c>
       <c r="C38" s="242">
         <f>C19</f>
-        <v>22720068.308931705</v>
+        <v>20320061.093199484</v>
       </c>
       <c r="D38" s="241">
         <v>1</v>
@@ -23117,11 +22305,11 @@
       </c>
       <c r="C39" s="242">
         <f>C29</f>
-        <v>16391991.608976576</v>
+        <v>14660443.199577643</v>
       </c>
       <c r="D39" s="243">
         <f>C39/C38</f>
-        <v>0.72147633475787409</v>
+        <v>0.72147633475787398</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -23130,11 +22318,11 @@
       </c>
       <c r="C40" s="242">
         <f>C38-C39</f>
-        <v>6328076.6999551281</v>
+        <v>5659617.8936218414</v>
       </c>
       <c r="D40" s="243">
         <f>C40/C38</f>
-        <v>0.27852366524212591</v>
+        <v>0.27852366524212596</v>
       </c>
     </row>
   </sheetData>
@@ -23152,6 +22340,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -23160,7 +22349,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>78</v>
@@ -23169,15 +22358,15 @@
         <v>76</v>
       </c>
       <c r="D1" s="233" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1" s="233" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="244">
         <v>4.5</v>
@@ -23188,7 +22377,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B3">
         <f>design_flow_rate_l_s/1000</f>
@@ -23200,19 +22389,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B4">
         <f>(24 * 60 * 60)</f>
         <v>86400</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B5" s="162">
         <f>Dosing_investment*B3*B4</f>
@@ -23230,8 +22419,9 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -23243,7 +22433,7 @@
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="16">
       <c r="A1" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>78</v>
@@ -23256,19 +22446,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="247" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2" s="254">
         <v>5</v>
       </c>
       <c r="C2" s="246" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2" s="248"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="276" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B3" s="255">
         <f>fbe_inside_diameter_yr_1</f>
@@ -23280,7 +22470,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="276" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B4" s="246">
         <f>pipeline_length</f>
@@ -23292,7 +22482,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="249" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B5" s="256">
         <f>PI()*fbe_inside_diameter_yr_1*pipeline_length</f>
@@ -23304,7 +22494,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="276" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B6" s="257">
         <f>FBE_cost_per_surface*fbe_inside_surface</f>
@@ -23314,11 +22504,11 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="276" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B7" s="257">
         <f>capex_steel_fbe</f>
-        <v>16391991.608976576</v>
+        <v>14660443.199577643</v>
       </c>
       <c r="F7" s="249"/>
       <c r="G7" s="248"/>
@@ -23328,7 +22518,7 @@
     <row r="8" spans="1:9">
       <c r="B8" s="257">
         <f>SUM(B6:B7)</f>
-        <v>17153039.28771605</v>
+        <v>15421490.878317116</v>
       </c>
       <c r="F8" s="249"/>
       <c r="G8" s="245"/>
@@ -23337,11 +22527,11 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="276" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9" s="280">
         <f>interior_fbe_capex/FBE_plus_bare</f>
-        <v>4.4368095121456952E-2</v>
+        <v>4.9349812203275376E-2</v>
       </c>
       <c r="F9" s="249"/>
       <c r="G9" s="250"/>
@@ -23350,11 +22540,11 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="276" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B10" s="280">
         <f>B7/FBE_plus_bare</f>
-        <v>0.9556319048785431</v>
+        <v>0.95065018779672472</v>
       </c>
       <c r="F10" s="251"/>
       <c r="G10" s="252"/>
@@ -23371,17 +22561,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DA13A2-911B-9D49-B1C9-9DED1E3BE9CB}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:H45"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -23394,11 +22586,11 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C3" s="166">
         <f>C$9*D3</f>
-        <v>22.080000000000002</v>
+        <v>24</v>
       </c>
       <c r="D3" s="259">
         <v>2.4E-2</v>
@@ -23406,11 +22598,11 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C4" s="166">
         <f t="shared" ref="C4:C8" si="0">C$9*D4</f>
-        <v>13.799999999999999</v>
+        <v>15</v>
       </c>
       <c r="D4" s="259">
         <v>1.4999999999999999E-2</v>
@@ -23422,11 +22614,11 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5" s="166">
         <f t="shared" si="0"/>
-        <v>505.08000000000004</v>
+        <v>549</v>
       </c>
       <c r="D5" s="259">
         <v>0.54900000000000004</v>
@@ -23434,11 +22626,11 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" s="166">
         <f t="shared" si="0"/>
-        <v>149.04</v>
+        <v>162</v>
       </c>
       <c r="D6" s="259">
         <v>0.16200000000000001</v>
@@ -23446,11 +22638,11 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" s="166">
         <f t="shared" si="0"/>
-        <v>181.24</v>
+        <v>197</v>
       </c>
       <c r="D7" s="259">
         <v>0.19700000000000001</v>
@@ -23458,11 +22650,11 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="238" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C8" s="262">
         <f t="shared" si="0"/>
-        <v>48.76</v>
+        <v>53</v>
       </c>
       <c r="D8" s="260">
         <v>5.2999999999999999E-2</v>
@@ -23470,11 +22662,11 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C9" s="166">
         <f>field_coating_usd_joint</f>
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="261">
         <f>SUM(D3:D8)</f>
@@ -23483,7 +22675,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11">
         <f>pipeline_length</f>
@@ -23492,7 +22684,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <f>segment_length</f>
@@ -23501,82 +22693,108 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="238" t="s">
-        <v>348</v>
-      </c>
-      <c r="C13" s="239">
+        <v>346</v>
+      </c>
+      <c r="C13" s="328">
         <f>ROUNDUP(pipeline_length/segment_length,0)</f>
         <v>5834</v>
       </c>
+      <c r="E13" s="339"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C14" s="162">
         <f>C13*C9</f>
-        <v>5367280</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>5834000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="342">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D16" s="281"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="341">
+        <f>1-C16</f>
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="162">
+        <v>422</v>
+      </c>
+      <c r="C18">
+        <f>ROUND(field_coating_total/Shop_fbe_coating,1)</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="236">
+        <f>(field_coating_total/C16-Shop_fbe_coating/C17)/(Shop_fbe_coating/C17)</f>
+        <v>1816.5124340943278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="162">
         <f>capex_steel_fbe</f>
-        <v>16391991.608976576</v>
-      </c>
-      <c r="D18" s="281">
+        <v>14660443.199577643</v>
+      </c>
+      <c r="D21" s="164">
         <f>Total_Steel_cost/Total_Field_Shop_Steel</f>
-        <v>0.72787563087161755</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C19" s="162">
+        <v>0.68972498840442531</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" s="162">
         <f>field_coating_total</f>
-        <v>5367280</v>
-      </c>
-      <c r="D19" s="281">
+        <v>5834000</v>
+      </c>
+      <c r="D22" s="164">
         <f>field_Joint_Coating/Total_Field_Shop_Steel</f>
-        <v>0.23833054635809006</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>373</v>
-      </c>
-      <c r="C20" s="162">
+        <v>0.27447025492840094</v>
+      </c>
+      <c r="E22" s="340"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="162">
         <f>interior_fbe_capex</f>
         <v>761047.67873947392</v>
       </c>
-      <c r="D20" s="281">
+      <c r="D23" s="164">
         <f>Shop_fbe_coating/Total_Field_Shop_Steel</f>
-        <v>3.3793822770292407E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="162">
-        <f>Dosage_plant_investment</f>
-        <v>272160</v>
-      </c>
-      <c r="D21" s="281">
-        <f>Dosage_plant_investment/Total_Field_Shop_Steel</f>
-        <v>1.2085086206946124E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" s="162">
-        <f>SUM(C18:C20)</f>
-        <v>22520319.28771605</v>
-      </c>
+        <v>3.5804756667173671E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="162">
+        <f>SUM(C21:C23)</f>
+        <v>21255490.878317118</v>
+      </c>
+      <c r="D24" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23590,8 +22808,9 @@
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -23607,7 +22826,7 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C1" s="233" t="s">
         <v>78</v>
@@ -23618,7 +22837,7 @@
     </row>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2">
         <v>0.7</v>
@@ -23629,26 +22848,26 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C3">
         <f>C2*3600</f>
         <v>2520</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C4">
         <f>C3*24*30</f>
         <v>1814400</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -23660,24 +22879,24 @@
         <v>8400</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" s="236">
         <f>C5*C3</f>
         <v>21168000</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <f>fluid_density</f>
@@ -23697,7 +22916,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="264" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C8" s="273">
         <f>annual_discount_rate</f>
@@ -23707,7 +22926,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="264" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C9" s="296">
         <v>0.2</v>
@@ -23715,27 +22934,27 @@
     </row>
     <row r="10" spans="2:12" ht="34">
       <c r="B10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="D10" s="270" t="s">
-        <v>357</v>
-      </c>
       <c r="E10" s="270" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="270" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C11" s="271">
         <v>26</v>
@@ -23796,7 +23015,7 @@
     </row>
     <row r="15" spans="2:12">
       <c r="E15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F15" s="263">
         <f>-PV(C8,25,Table9[[#Totals],[Total]])</f>
@@ -23819,6 +23038,7 @@
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -23829,7 +23049,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="233" t="s">
         <v>78</v>
@@ -23840,7 +23060,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C3" s="162">
         <v>8000</v>
@@ -23851,7 +23071,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C4" s="162">
         <v>4000</v>
@@ -23862,7 +23082,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C5" s="162">
         <f>C3*pipeline_length/1000</f>
@@ -23871,7 +23091,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C6" s="162">
         <f>C4*pipeline_length/1000</f>
@@ -23880,7 +23100,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C7" s="263">
         <f>-PV(annual_discount_rate,25,C5)</f>
@@ -23889,7 +23109,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C8" s="263">
         <f>-PV(annual_discount_rate,25,C6)</f>
@@ -23908,11 +23128,14 @@
   </sheetPr>
   <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="C21" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="170" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="1">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="170" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.1640625" style="170" customWidth="1"/>
@@ -23950,7 +23173,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="D3" s="174" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" s="170">
         <f>pipeline_length</f>
@@ -23962,7 +23185,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="D4" s="174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E4" s="170">
         <f>design_flow_rate</f>
@@ -23974,7 +23197,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="D5" s="174" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E5" s="170">
         <f>fluid_density</f>
@@ -24011,25 +23234,25 @@
         <v>8400</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16">
       <c r="A9" s="173"/>
       <c r="B9" s="173"/>
       <c r="D9" s="174" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E9" s="289">
         <v>175</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="D10" s="174" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E10" s="170">
         <f>Projected_MWh/1000</f>
@@ -24041,26 +23264,26 @@
     </row>
     <row r="11" spans="1:24">
       <c r="D11" s="174" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E11" s="170">
         <f>Projected_kWh/1000</f>
         <v>1.75E-4</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="D12" s="174" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E12" s="290">
         <f ca="1">bare_electricity_yr_1+K22</f>
-        <v>16089031.593865212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="226" customFormat="1" ht="12">
+        <v>15935029.497243077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="226" customFormat="1">
       <c r="A15" s="222" t="e">
         <f>" Analyzed case: "&amp;B18&amp;". Initial wall thickness = "&amp;ROUND(13.28,2)&amp;" mm; year 25 wall thickness = "&amp;ROUND(D46,2)&amp;" mm. Initial pipe roughness = "&amp;ROUND(B22,2)&amp;" mm; year 25 pipe roughness = "&amp;ROUND(B46,2)&amp;" mm. Fixed parameters: Elevation head = "&amp;Elevation_change_m&amp;" m; pump efficiency = "&amp;pump_efficiency_n&amp;"%; energy cost = "&amp;175&amp;" $/MWh; outside diameter = "&amp;M22&amp;"''; flow rate = "&amp;design_flow_rate_l_s&amp;" L/s; density of water = "&amp;fluid_density&amp;" kg/m3; viscosity of water = "&amp;viscosity_Pa_s&amp;" Pa·s"</f>
         <v>#NAME?</v>
@@ -24089,7 +23312,7 @@
       <c r="W15" s="224"/>
       <c r="X15" s="225"/>
     </row>
-    <row r="16" spans="1:24" s="226" customFormat="1" ht="12">
+    <row r="16" spans="1:24" s="226" customFormat="1">
       <c r="A16" s="222" t="str">
         <f>" Analyzed case: "&amp;J18&amp;". Initial wall thickness = "&amp;ROUND(D50,2)&amp;" mm; year 25 wall thickness = "&amp;ROUND(D74,2)&amp;" mm. Initial pipe roughness = "&amp;ROUND(B50,2)&amp;" mm; year 25 pipe roughness = "&amp;ROUND(B74,2)&amp;" mm. Fixed parameters: Elevation head = "&amp;Elevation_change_m&amp;" m; pump efficiency = "&amp;pump_efficiency&amp;"%; energy cost = "&amp;Energy_cost&amp;" $/kWh; outside diameter = "&amp;M50&amp;"''; flow rate = "&amp;design_flow_rate_l_s&amp;" L/s; density of water = "&amp;water_density&amp;" kg/m3; viscosity of water = "&amp;viscosity_Pa_s&amp;" Pa·s"</f>
         <v xml:space="preserve"> Analyzed case: FBE coated. Initial wall thickness = 9.53 mm; year 25 wall thickness = 9.53 mm. Initial pipe roughness = 0.01 mm; year 25 pipe roughness = 0.05 mm. Fixed parameters: Elevation head = 1000 m; pump efficiency = 0.82%; energy cost = 0.174 $/kWh; outside diameter = 28''; flow rate = 700 L/s; density of water = 1030 kg/m3; viscosity of water = 0.0013 Pa·s</v>
@@ -24118,7 +23341,7 @@
       <c r="W16" s="224"/>
       <c r="X16" s="225"/>
     </row>
-    <row r="17" spans="1:31" s="226" customFormat="1" ht="12">
+    <row r="17" spans="1:31" s="226" customFormat="1">
       <c r="A17" s="223"/>
       <c r="B17" s="222" t="s">
         <v>247</v>
@@ -24168,7 +23391,7 @@
       <c r="W17" s="224"/>
       <c r="X17" s="225"/>
     </row>
-    <row r="18" spans="1:31" s="226" customFormat="1" ht="12">
+    <row r="18" spans="1:31" s="226" customFormat="1">
       <c r="A18" s="223"/>
       <c r="B18" s="222" t="s">
         <v>162</v>
@@ -24309,7 +23532,7 @@
       </c>
       <c r="B22" s="179">
         <f t="shared" ref="B22:B46" si="0">Q22*1000</f>
-        <v>0.1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C22" s="180">
         <f t="shared" ref="C22:C46" si="1">P22*1000</f>
@@ -24325,15 +23548,15 @@
       </c>
       <c r="F22" s="182">
         <f ca="1">1/(-2*LOG10((Q22/P22)/3.7 + 2.51/(R22*SQRT(F22+1E-300))))^2</f>
-        <v>1.4030381561572975E-2</v>
+        <v>1.3397429076855955E-2</v>
       </c>
       <c r="G22" s="183">
         <f t="shared" ref="G22:G46" ca="1" si="4">(F22 * pipeline_length * E22^2 ) / (2*grav_accel * P22)</f>
-        <v>269.31812592585374</v>
+        <v>257.16837958887749</v>
       </c>
       <c r="H22" s="184">
         <f t="shared" ref="H22:H46" ca="1" si="5">(T22*grav_accel*U22*(G22)/(pump_efficiency))/1000</f>
-        <v>2322.2430491699611</v>
+        <v>2217.4797181344952</v>
       </c>
       <c r="I22" s="184">
         <f t="shared" ref="I22:I46" si="6">(T22*grav_accel*U22*(Elevation_change_m)/(pump_efficiency))/1000</f>
@@ -24341,7 +23564,7 @@
       </c>
       <c r="J22" s="291">
         <f t="shared" ref="J22:J46" ca="1" si="7">H22*Projected_kWh*annual_operation_h</f>
-        <v>3413697.2822798425</v>
+        <v>3259695.1856577075</v>
       </c>
       <c r="K22" s="291">
         <f t="shared" ref="K22:K46" si="8">I22*Projected_kWh*annual_operation_h</f>
@@ -24368,8 +23591,8 @@
         <v>0.68213999999885266</v>
       </c>
       <c r="Q22" s="282">
-        <f>k_yr_1/1000</f>
-        <v>1E-4</v>
+        <f>roughness_bare_yr_1_mm/1000</f>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="R22" s="274">
         <f t="shared" ref="R22:R46" si="12">T22*E22*P22/L22</f>
@@ -24389,11 +23612,11 @@
       </c>
       <c r="V22" s="189">
         <f t="shared" ref="V22:V46" ca="1" si="16">1/SQRT(F22)</f>
-        <v>8.4423870509192849</v>
+        <v>8.6395130837844221</v>
       </c>
       <c r="W22" s="189">
         <f t="shared" ref="W22:W46" ca="1" si="17">-2 *LOG10(((Q22) / (3.7 *P22)) + (2.51 / (R22* SQRT(F22))))</f>
-        <v>8.4423870509192849</v>
+        <v>8.6395130837844221</v>
       </c>
       <c r="X22" s="190">
         <f t="shared" ref="X22:X46" ca="1" si="18">W22-V22</f>
@@ -24410,7 +23633,7 @@
       </c>
       <c r="B23" s="179">
         <f t="shared" si="0"/>
-        <v>0.10833333333333334</v>
+        <v>9.5166666666666663E-2</v>
       </c>
       <c r="C23" s="180">
         <f t="shared" si="1"/>
@@ -24426,15 +23649,15 @@
       </c>
       <c r="F23" s="182">
         <f ca="1">1/(-2*LOG10((Q23/P23)/3.7 + 2.51/(R23*SQRT(F23+1E-300))))^2</f>
-        <v>1.4180422436974449E-2</v>
+        <v>1.3940080152670441E-2</v>
       </c>
       <c r="G23" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>271.36841031307051</v>
+        <v>266.76901957471489</v>
       </c>
       <c r="H23" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2339.9219879739039</v>
+        <v>2300.2629299886885</v>
       </c>
       <c r="I23" s="184">
         <f t="shared" si="6"/>
@@ -24442,7 +23665,7 @@
       </c>
       <c r="J23" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3439685.3223216385</v>
+        <v>3381386.5070833717</v>
       </c>
       <c r="K23" s="291">
         <f t="shared" si="8"/>
@@ -24470,7 +23693,7 @@
       </c>
       <c r="Q23" s="187">
         <f t="shared" ref="Q23:Q45" si="20">Q22-(Q$22-Q$46)/24</f>
-        <v>1.0833333333333334E-4</v>
+        <v>9.5166666666666658E-5</v>
       </c>
       <c r="R23" s="274">
         <f t="shared" si="12"/>
@@ -24490,11 +23713,11 @@
       </c>
       <c r="V23" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3976044750867516</v>
+        <v>8.4696870668316606</v>
       </c>
       <c r="W23" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.3976044750867516</v>
+        <v>8.4696870668316606</v>
       </c>
       <c r="X23" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -24522,7 +23745,7 @@
       </c>
       <c r="B24" s="179">
         <f t="shared" si="0"/>
-        <v>0.11666666666666668</v>
+        <v>0.12233333333333332</v>
       </c>
       <c r="C24" s="180">
         <f t="shared" si="1"/>
@@ -24537,16 +23760,16 @@
         <v>1.9107359052384321</v>
       </c>
       <c r="F24" s="182">
-        <f t="shared" ref="F24:F46" ca="1" si="21">1/(-2*LOG10((Q24/P24)/3.7 + 2.51/(R24*SQRT(F24+1E-300))))^2</f>
-        <v>1.4325401424455358E-2</v>
+        <f ca="1">1/(-2*LOG10((Q24/P24)/3.7 + 2.51/(R24*SQRT(F24+1E-300))))^2</f>
+        <v>1.442179528562159E-2</v>
       </c>
       <c r="G24" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>273.30762713117292</v>
+        <v>275.14668048016875</v>
       </c>
       <c r="H24" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2356.6432270705686</v>
+        <v>2372.5007889857816</v>
       </c>
       <c r="I24" s="184">
         <f t="shared" si="6"/>
@@ -24554,7 +23777,7 @@
       </c>
       <c r="J24" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3464265.5437937356</v>
+        <v>3487576.1598090986</v>
       </c>
       <c r="K24" s="291">
         <f t="shared" si="8"/>
@@ -24573,7 +23796,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O24" s="187">
-        <f t="shared" ref="O24:O45" si="22">O23-($O$22-$O$46)/24</f>
+        <f t="shared" ref="O24:O45" si="21">O23-($O$22-$O$46)/24</f>
         <v>1.4113333333333334E-2</v>
       </c>
       <c r="P24" s="188">
@@ -24582,7 +23805,7 @@
       </c>
       <c r="Q24" s="187">
         <f t="shared" si="20"/>
-        <v>1.1666666666666668E-4</v>
+        <v>1.2233333333333332E-4</v>
       </c>
       <c r="R24" s="274">
         <f t="shared" si="12"/>
@@ -24602,11 +23825,11 @@
       </c>
       <c r="V24" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.355002799049366</v>
+        <v>8.3270339770232269</v>
       </c>
       <c r="W24" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.355002799049366</v>
+        <v>8.3270339770232269</v>
       </c>
       <c r="X24" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -24637,7 +23860,7 @@
       </c>
       <c r="B25" s="179">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.14949999999999997</v>
       </c>
       <c r="C25" s="180">
         <f t="shared" si="1"/>
@@ -24652,16 +23875,16 @@
         <v>1.9084066430161393</v>
       </c>
       <c r="F25" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.4465711146041189E-2</v>
+        <f ca="1">1/(-2*LOG10((Q25/P25)/3.7 + 2.51/(R25*SQRT(F25+1E-300))))^2</f>
+        <v>1.4857027527341514E-2</v>
       </c>
       <c r="G25" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>275.14420946144429</v>
+        <v>282.58721971480861</v>
       </c>
       <c r="H25" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2372.4794821909359</v>
+        <v>2436.658151065732</v>
       </c>
       <c r="I25" s="184">
         <f t="shared" si="6"/>
@@ -24669,7 +23892,7 @@
       </c>
       <c r="J25" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3487544.8388206759</v>
+        <v>3581887.4820666257</v>
       </c>
       <c r="K25" s="291">
         <f t="shared" si="8"/>
@@ -24688,7 +23911,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O25" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3905000000000001E-2</v>
       </c>
       <c r="P25" s="188">
@@ -24697,7 +23920,7 @@
       </c>
       <c r="Q25" s="187">
         <f t="shared" si="20"/>
-        <v>1.25E-4</v>
+        <v>1.4949999999999997E-4</v>
       </c>
       <c r="R25" s="274">
         <f t="shared" si="12"/>
@@ -24717,11 +23940,11 @@
       </c>
       <c r="V25" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.314384518410149</v>
+        <v>8.2041583842147752</v>
       </c>
       <c r="W25" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.314384518410149</v>
+        <v>8.2041583842147752</v>
       </c>
       <c r="X25" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -24746,7 +23969,7 @@
       </c>
       <c r="B26" s="179">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.17666666666666664</v>
       </c>
       <c r="C26" s="180">
         <f t="shared" si="1"/>
@@ -24761,16 +23984,16 @@
         <v>1.9060816373926308</v>
       </c>
       <c r="F26" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.4601698399228312E-2</v>
+        <f t="shared" ref="F26:F46" ca="1" si="22">1/(-2*LOG10((Q26/P26)/3.7 + 2.51/(R26*SQRT(F26+1E-300))))^2</f>
+        <v>1.5255488364368051E-2</v>
       </c>
       <c r="G26" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>276.88562361251047</v>
+        <v>289.28315691718996</v>
       </c>
       <c r="H26" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2387.4951328982079</v>
+        <v>2494.3950507729191</v>
       </c>
       <c r="I26" s="184">
         <f t="shared" si="6"/>
@@ -24778,7 +24001,7 @@
       </c>
       <c r="J26" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3509617.8453603652</v>
+        <v>3666760.724636191</v>
       </c>
       <c r="K26" s="291">
         <f t="shared" si="8"/>
@@ -24797,7 +24020,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O26" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3696666666666668E-2</v>
       </c>
       <c r="P26" s="188">
@@ -24806,7 +24029,7 @@
       </c>
       <c r="Q26" s="187">
         <f t="shared" si="20"/>
-        <v>1.3333333333333334E-4</v>
+        <v>1.7666666666666663E-4</v>
       </c>
       <c r="R26" s="274">
         <f t="shared" si="12"/>
@@ -24826,11 +24049,11 @@
       </c>
       <c r="V26" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2755775563729088</v>
+        <v>8.0963065318547418</v>
       </c>
       <c r="W26" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.2755775563729088</v>
+        <v>8.0963065318547418</v>
       </c>
       <c r="X26" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -24855,7 +24078,7 @@
       </c>
       <c r="B27" s="179">
         <f t="shared" si="0"/>
-        <v>0.14166666666666666</v>
+        <v>0.20383333333333328</v>
       </c>
       <c r="C27" s="180">
         <f t="shared" si="1"/>
@@ -24870,16 +24093,16 @@
         <v>1.9037608780026194</v>
       </c>
       <c r="F27" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.4733671118671491E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.5624037887735542E-2</v>
       </c>
       <c r="G27" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>278.5385148211534</v>
+        <v>295.37080566731777</v>
       </c>
       <c r="H27" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2401.7474789187722</v>
+        <v>2546.8868759969841</v>
       </c>
       <c r="I27" s="184">
         <f t="shared" si="6"/>
@@ -24887,7 +24110,7 @@
       </c>
       <c r="J27" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3530568.794010595</v>
+        <v>3743923.7077155663</v>
       </c>
       <c r="K27" s="291">
         <f t="shared" si="8"/>
@@ -24906,7 +24129,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O27" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3488333333333335E-2</v>
       </c>
       <c r="P27" s="188">
@@ -24915,7 +24138,7 @@
       </c>
       <c r="Q27" s="187">
         <f t="shared" si="20"/>
-        <v>1.4166666666666668E-4</v>
+        <v>2.0383333333333329E-4</v>
       </c>
       <c r="R27" s="274">
         <f t="shared" si="12"/>
@@ -24935,11 +24158,11 @@
       </c>
       <c r="V27" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2384311066228868</v>
+        <v>8.0002463121147951</v>
       </c>
       <c r="W27" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.2384311066228868</v>
+        <v>8.0002463121147951</v>
       </c>
       <c r="X27" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -24964,7 +24187,7 @@
       </c>
       <c r="B28" s="179">
         <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.23099999999999996</v>
       </c>
       <c r="C28" s="180">
         <f t="shared" si="1"/>
@@ -24979,16 +24202,16 @@
         <v>1.9014443545123521</v>
       </c>
       <c r="F28" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.4861904056839258E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.5967714271218233E-2</v>
       </c>
       <c r="G28" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>280.10882625699276</v>
+        <v>300.95051652952191</v>
       </c>
       <c r="H28" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2415.2877662810643</v>
+        <v>2594.9989171809443</v>
       </c>
       <c r="I28" s="184">
         <f t="shared" si="6"/>
@@ -24996,7 +24219,7 @@
       </c>
       <c r="J28" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3550473.016433164</v>
+        <v>3814648.4082559878</v>
       </c>
       <c r="K28" s="291">
         <f t="shared" si="8"/>
@@ -25015,7 +24238,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O28" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3280000000000002E-2</v>
       </c>
       <c r="P28" s="188">
@@ -25024,7 +24247,7 @@
       </c>
       <c r="Q28" s="187">
         <f t="shared" si="20"/>
-        <v>1.5000000000000001E-4</v>
+        <v>2.3099999999999995E-4</v>
       </c>
       <c r="R28" s="274">
         <f t="shared" si="12"/>
@@ -25044,11 +24267,11 @@
       </c>
       <c r="V28" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2028122880947976</v>
+        <v>7.9136825262989694</v>
       </c>
       <c r="W28" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.2028122880947976</v>
+        <v>7.9136825262989685</v>
       </c>
       <c r="X28" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25073,7 +24296,7 @@
       </c>
       <c r="B29" s="179">
         <f t="shared" si="0"/>
-        <v>0.15833333333333335</v>
+        <v>0.25816666666666666</v>
       </c>
       <c r="C29" s="180">
         <f t="shared" si="1"/>
@@ -25088,16 +24311,16 @@
         <v>1.8991320566194889</v>
       </c>
       <c r="F29" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.4986643457090181E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.6290334644119674E-2</v>
       </c>
       <c r="G29" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>281.60189701473075</v>
+        <v>306.09850377261063</v>
       </c>
       <c r="H29" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2428.1620322709832</v>
+        <v>2639.3883453019821</v>
       </c>
       <c r="I29" s="184">
         <f t="shared" si="6"/>
@@ -25105,7 +24328,7 @@
       </c>
       <c r="J29" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3569398.187438345</v>
+        <v>3879900.8675939133</v>
       </c>
       <c r="K29" s="291">
         <f t="shared" si="8"/>
@@ -25124,7 +24347,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O29" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3071666666666669E-2</v>
       </c>
       <c r="P29" s="188">
@@ -25133,7 +24356,7 @@
       </c>
       <c r="Q29" s="187">
         <f t="shared" si="20"/>
-        <v>1.5833333333333335E-4</v>
+        <v>2.5816666666666664E-4</v>
       </c>
       <c r="R29" s="274">
         <f t="shared" si="12"/>
@@ -25153,11 +24376,11 @@
       </c>
       <c r="V29" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1686034292986243</v>
+        <v>7.8349277696485853</v>
       </c>
       <c r="W29" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.1686034292986243</v>
+        <v>7.8349277696485844</v>
       </c>
       <c r="X29" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25170,7 +24393,7 @@
       </c>
       <c r="AB29" s="192">
         <f>Q22</f>
-        <v>1E-4</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="AC29" s="173" t="s">
         <v>14</v>
@@ -25182,7 +24405,7 @@
       </c>
       <c r="B30" s="179">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.28533333333333327</v>
       </c>
       <c r="C30" s="180">
         <f t="shared" si="1"/>
@@ -25197,16 +24420,16 @@
         <v>1.8968239740529949</v>
       </c>
       <c r="F30" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5108110926824484E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.6594865623963104E-2</v>
       </c>
       <c r="G30" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>283.02254341243184</v>
+        <v>310.87414563143903</v>
       </c>
       <c r="H30" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2440.4118064406507</v>
+        <v>2680.5671596646021</v>
       </c>
       <c r="I30" s="184">
         <f t="shared" si="6"/>
@@ -25214,7 +24437,7 @@
       </c>
       <c r="J30" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3587405.3554677563</v>
+        <v>3940433.724706965</v>
       </c>
       <c r="K30" s="291">
         <f t="shared" si="8"/>
@@ -25233,7 +24456,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O30" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.2863333333333336E-2</v>
       </c>
       <c r="P30" s="188">
@@ -25242,7 +24465,7 @@
       </c>
       <c r="Q30" s="187">
         <f t="shared" si="20"/>
-        <v>1.6666666666666669E-4</v>
+        <v>2.8533333333333329E-4</v>
       </c>
       <c r="R30" s="274">
         <f t="shared" si="12"/>
@@ -25262,11 +24485,11 @@
       </c>
       <c r="V30" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.135699845752546</v>
+        <v>7.7627058514396827</v>
       </c>
       <c r="W30" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.135699845752546</v>
+        <v>7.7627058514396827</v>
       </c>
       <c r="X30" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25291,7 +24514,7 @@
       </c>
       <c r="B31" s="179">
         <f t="shared" si="0"/>
-        <v>0.17500000000000002</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="C31" s="180">
         <f t="shared" si="1"/>
@@ -25306,16 +24529,16 @@
         <v>1.8945200965730211</v>
       </c>
       <c r="F31" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5226506670053241E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.6883662268239702E-2</v>
       </c>
       <c r="G31" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>284.37512691143576</v>
+        <v>315.3246968789918</v>
       </c>
       <c r="H31" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2452.07469625984</v>
+        <v>2718.9428228847214</v>
       </c>
       <c r="I31" s="184">
         <f t="shared" si="6"/>
@@ -25323,7 +24546,7 @@
       </c>
       <c r="J31" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3604549.803501965</v>
+        <v>3996845.9496405399</v>
       </c>
       <c r="K31" s="291">
         <f t="shared" si="8"/>
@@ -25342,7 +24565,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O31" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.2655000000000003E-2</v>
       </c>
       <c r="P31" s="188">
@@ -25351,7 +24574,7 @@
       </c>
       <c r="Q31" s="187">
         <f t="shared" si="20"/>
-        <v>1.7500000000000003E-4</v>
+        <v>3.1249999999999995E-4</v>
       </c>
       <c r="R31" s="274">
         <f t="shared" si="12"/>
@@ -25371,11 +24594,11 @@
       </c>
       <c r="V31" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1040080072561071</v>
+        <v>7.6960285814608733</v>
       </c>
       <c r="W31" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.1040080072561071</v>
+        <v>7.6960285814608742</v>
       </c>
       <c r="X31" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25400,7 +24623,7 @@
       </c>
       <c r="B32" s="179">
         <f t="shared" si="0"/>
-        <v>0.18333333333333338</v>
+        <v>0.33966666666666662</v>
       </c>
       <c r="C32" s="180">
         <f t="shared" si="1"/>
@@ -25415,16 +24638,16 @@
         <v>1.8922204139707932</v>
       </c>
       <c r="F32" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.534201220284705E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.7158628005167931E-2</v>
       </c>
       <c r="G32" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>285.66361122838265</v>
+        <v>319.48844616165354</v>
       </c>
       <c r="H32" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2463.1848795744909</v>
+        <v>2754.8454855700011</v>
       </c>
       <c r="I32" s="184">
         <f t="shared" si="6"/>
@@ -25432,7 +24655,7 @@
       </c>
       <c r="J32" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3620881.7729745014</v>
+        <v>4049622.8637879011</v>
       </c>
       <c r="K32" s="291">
         <f t="shared" si="8"/>
@@ -25451,7 +24674,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O32" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.244666666666667E-2</v>
       </c>
       <c r="P32" s="188">
@@ -25460,7 +24683,7 @@
       </c>
       <c r="Q32" s="187">
         <f t="shared" si="20"/>
-        <v>1.8333333333333336E-4</v>
+        <v>3.3966666666666661E-4</v>
       </c>
       <c r="R32" s="274">
         <f t="shared" si="12"/>
@@ -25480,11 +24703,11 @@
       </c>
       <c r="V32" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.0734440160341965</v>
+        <v>7.6341153985210974</v>
       </c>
       <c r="W32" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0734440160341965</v>
+        <v>7.6341153985210974</v>
       </c>
       <c r="X32" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25497,16 +24720,16 @@
       </c>
       <c r="AB32" s="173">
         <f ca="1">F22</f>
-        <v>1.4030381561572975E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="14">
+        <v>1.3397429076855955E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="13">
       <c r="A33" s="178">
         <v>12</v>
       </c>
       <c r="B33" s="179">
         <f t="shared" si="0"/>
-        <v>0.19166666666666671</v>
+        <v>0.36683333333333329</v>
       </c>
       <c r="C33" s="180">
         <f t="shared" si="1"/>
@@ -25521,16 +24744,16 @@
         <v>1.8899249160684997</v>
       </c>
       <c r="F33" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5454792648192139E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.7421325084401029E-2</v>
       </c>
       <c r="G33" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>286.89161065022159</v>
+        <v>323.3968987419301</v>
       </c>
       <c r="H33" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2473.7735212113903</v>
+        <v>2788.5468074040036</v>
       </c>
       <c r="I33" s="184">
         <f t="shared" si="6"/>
@@ -25538,7 +24761,7 @@
       </c>
       <c r="J33" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3636447.0761807435</v>
+        <v>4099163.8068838851</v>
       </c>
       <c r="K33" s="291">
         <f t="shared" si="8"/>
@@ -25557,7 +24780,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O33" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.2238333333333337E-2</v>
       </c>
       <c r="P33" s="188">
@@ -25566,7 +24789,7 @@
       </c>
       <c r="Q33" s="187">
         <f t="shared" si="20"/>
-        <v>1.916666666666667E-4</v>
+        <v>3.6683333333333327E-4</v>
       </c>
       <c r="R33" s="274">
         <f t="shared" si="12"/>
@@ -25586,11 +24809,11 @@
       </c>
       <c r="V33" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.0439323347773151</v>
+        <v>7.5763391542026275</v>
       </c>
       <c r="W33" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0439323347773151</v>
+        <v>7.5763391542026284</v>
       </c>
       <c r="X33" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25603,7 +24826,7 @@
       </c>
       <c r="AB33" s="195">
         <f ca="1">G22</f>
-        <v>269.31812592585374</v>
+        <v>257.16837958887749</v>
       </c>
       <c r="AC33" s="173" t="s">
         <v>14</v>
@@ -25615,7 +24838,7 @@
       </c>
       <c r="B34" s="179">
         <f t="shared" si="0"/>
-        <v>0.20000000000000004</v>
+        <v>0.39399999999999991</v>
       </c>
       <c r="C34" s="180">
         <f t="shared" si="1"/>
@@ -25630,16 +24853,16 @@
         <v>1.887633592719175</v>
       </c>
       <c r="F34" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5564998686362791E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.7673052928476332E-2</v>
       </c>
       <c r="G34" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>288.06243113863297</v>
+        <v>327.07632649394549</v>
       </c>
       <c r="H34" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2483.8691274083071</v>
+        <v>2820.2733222557858</v>
       </c>
       <c r="I34" s="184">
         <f t="shared" si="6"/>
@@ -25647,7 +24870,7 @@
       </c>
       <c r="J34" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3651287.6172902114</v>
+        <v>4145801.7837160053</v>
       </c>
       <c r="K34" s="291">
         <f t="shared" si="8"/>
@@ -25666,7 +24889,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O34" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.2030000000000004E-2</v>
       </c>
       <c r="P34" s="188">
@@ -25675,7 +24898,7 @@
       </c>
       <c r="Q34" s="187">
         <f t="shared" si="20"/>
-        <v>2.0000000000000004E-4</v>
+        <v>3.9399999999999993E-4</v>
       </c>
       <c r="R34" s="274">
         <f t="shared" si="12"/>
@@ -25695,11 +24918,11 @@
       </c>
       <c r="V34" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.0154047170725669</v>
+        <v>7.5221884766201814</v>
       </c>
       <c r="W34" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0154047170725669</v>
+        <v>7.5221884766201814</v>
       </c>
       <c r="X34" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25724,7 +24947,7 @@
       </c>
       <c r="B35" s="179">
         <f t="shared" si="0"/>
-        <v>0.20833333333333337</v>
+        <v>0.42116666666666658</v>
       </c>
       <c r="C35" s="180">
         <f t="shared" si="1"/>
@@ -25739,16 +24962,16 @@
         <v>1.8853464338065933</v>
       </c>
       <c r="F35" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5672768221293737E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.7914905017555199E-2</v>
       </c>
       <c r="G35" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>289.17910548535593</v>
+        <v>330.54889440610157</v>
       </c>
       <c r="H35" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2493.4978489470045</v>
+        <v>2850.2161516478009</v>
       </c>
       <c r="I35" s="184">
         <f t="shared" si="6"/>
@@ -25756,7 +24979,7 @@
       </c>
       <c r="J35" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3665441.8379520965</v>
+        <v>4189817.7429222669</v>
       </c>
       <c r="K35" s="291">
         <f t="shared" si="8"/>
@@ -25775,7 +24998,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O35" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1821666666666671E-2</v>
       </c>
       <c r="P35" s="188">
@@ -25784,7 +25007,7 @@
       </c>
       <c r="Q35" s="187">
         <f t="shared" si="20"/>
-        <v>2.0833333333333337E-4</v>
+        <v>4.2116666666666659E-4</v>
       </c>
       <c r="R35" s="274">
         <f t="shared" si="12"/>
@@ -25804,11 +25027,11 @@
       </c>
       <c r="V35" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9877993029014922</v>
+        <v>7.4712409888021973</v>
       </c>
       <c r="W35" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9877993029014913</v>
+        <v>7.4712409888021973</v>
       </c>
       <c r="X35" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25833,7 +25056,7 @@
       </c>
       <c r="B36" s="179">
         <f t="shared" si="0"/>
-        <v>0.2166666666666667</v>
+        <v>0.44833333333333325</v>
       </c>
       <c r="C36" s="180">
         <f t="shared" si="1"/>
@@ -25848,16 +25071,16 @@
         <v>1.8830634292451509</v>
       </c>
       <c r="F36" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5778227811375153E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.8147811034006655E-2</v>
       </c>
       <c r="G36" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>290.24442352895352</v>
+        <v>333.83349605842523</v>
       </c>
       <c r="H36" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2502.6837417026254</v>
+        <v>2878.5382088067049</v>
       </c>
       <c r="I36" s="184">
         <f t="shared" si="6"/>
@@ -25865,7 +25088,7 @@
       </c>
       <c r="J36" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3678945.1003028592</v>
+        <v>4231451.1669458561</v>
       </c>
       <c r="K36" s="291">
         <f t="shared" si="8"/>
@@ -25884,7 +25107,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O36" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1613333333333338E-2</v>
       </c>
       <c r="P36" s="188">
@@ -25893,7 +25116,7 @@
       </c>
       <c r="Q36" s="187">
         <f t="shared" si="20"/>
-        <v>2.1666666666666671E-4</v>
+        <v>4.4833333333333324E-4</v>
       </c>
       <c r="R36" s="274">
         <f t="shared" si="12"/>
@@ -25913,11 +25136,11 @@
       </c>
       <c r="V36" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9610598496489891</v>
+        <v>7.4231438348628647</v>
       </c>
       <c r="W36" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9610598496489882</v>
+        <v>7.4231438348628656</v>
       </c>
       <c r="X36" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -25942,7 +25165,7 @@
       </c>
       <c r="B37" s="179">
         <f t="shared" si="0"/>
-        <v>0.22500000000000006</v>
+        <v>0.47549999999999992</v>
       </c>
       <c r="C37" s="180">
         <f t="shared" si="1"/>
@@ -25957,16 +25180,16 @@
         <v>1.8807845689797582</v>
       </c>
       <c r="F37" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5881493903706714E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.8372568648670925E-2</v>
       </c>
       <c r="G37" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>291.26095824817236</v>
+        <v>336.9463844231467</v>
       </c>
       <c r="H37" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2511.448991638294</v>
+        <v>2905.3796378526154</v>
       </c>
       <c r="I37" s="184">
         <f t="shared" si="6"/>
@@ -25974,7 +25197,7 @@
       </c>
       <c r="J37" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3691830.0177082918</v>
+        <v>4270908.0676433444</v>
       </c>
       <c r="K37" s="291">
         <f t="shared" si="8"/>
@@ -25993,7 +25216,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O37" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1405000000000005E-2</v>
       </c>
       <c r="P37" s="188">
@@ -26002,7 +25225,7 @@
       </c>
       <c r="Q37" s="187">
         <f t="shared" si="20"/>
-        <v>2.2500000000000005E-4</v>
+        <v>4.754999999999999E-4</v>
       </c>
       <c r="R37" s="274">
         <f t="shared" si="12"/>
@@ -26022,11 +25245,11 @@
       </c>
       <c r="V37" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9351350750458574</v>
+        <v>7.3775992479908057</v>
       </c>
       <c r="W37" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9351350750458574</v>
+        <v>7.3775992479908057</v>
       </c>
       <c r="X37" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26051,7 +25274,7 @@
       </c>
       <c r="B38" s="179">
         <f t="shared" si="0"/>
-        <v>0.23333333333333339</v>
+        <v>0.5026666666666666</v>
       </c>
       <c r="C38" s="180">
         <f t="shared" si="1"/>
@@ -26066,16 +25289,16 @@
         <v>1.8785098429857308</v>
       </c>
       <c r="F38" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.5982673903486413E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.8589867877622613E-2</v>
       </c>
       <c r="G38" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>292.23108839374703</v>
+        <v>339.90165574163245</v>
       </c>
       <c r="H38" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2519.8141099518357</v>
+        <v>2930.8619861133275</v>
       </c>
       <c r="I38" s="184">
         <f t="shared" si="6"/>
@@ -26083,7 +25306,7 @@
       </c>
       <c r="J38" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3704126.7416291982</v>
+        <v>4308367.1195865916</v>
       </c>
       <c r="K38" s="291">
         <f t="shared" si="8"/>
@@ -26102,7 +25325,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O38" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1196666666666672E-2</v>
       </c>
       <c r="P38" s="188">
@@ -26111,7 +25334,7 @@
       </c>
       <c r="Q38" s="187">
         <f t="shared" si="20"/>
-        <v>2.3333333333333339E-4</v>
+        <v>5.0266666666666656E-4</v>
       </c>
       <c r="R38" s="274">
         <f t="shared" si="12"/>
@@ -26131,11 +25354,11 @@
       </c>
       <c r="V38" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9099780931058277</v>
+        <v>7.3343536728941645</v>
       </c>
       <c r="W38" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9099780931058277</v>
+        <v>7.3343536728941645</v>
       </c>
       <c r="X38" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26160,7 +25383,7 @@
       </c>
       <c r="B39" s="179">
         <f t="shared" si="0"/>
-        <v>0.24166666666666672</v>
+        <v>0.52983333333333327</v>
       </c>
       <c r="C39" s="180">
         <f t="shared" si="1"/>
@@ -26175,16 +25398,16 @@
         <v>1.8762392412686737</v>
       </c>
       <c r="F39" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6081867104395284E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.8800310012202275E-2</v>
       </c>
       <c r="G39" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>293.15701819933457</v>
+        <v>342.7116259960884</v>
       </c>
       <c r="H39" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2527.7981030367901</v>
+        <v>2955.0914503179797</v>
       </c>
       <c r="I39" s="184">
         <f t="shared" si="6"/>
@@ -26192,7 +25415,7 @@
       </c>
       <c r="J39" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3715863.211464081</v>
+        <v>4343984.4319674298</v>
       </c>
       <c r="K39" s="291">
         <f t="shared" si="8"/>
@@ -26211,7 +25434,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O39" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.098833333333334E-2</v>
       </c>
       <c r="P39" s="188">
@@ -26220,7 +25443,7 @@
       </c>
       <c r="Q39" s="187">
         <f t="shared" si="20"/>
-        <v>2.4166666666666672E-4</v>
+        <v>5.2983333333333322E-4</v>
       </c>
       <c r="R39" s="274">
         <f t="shared" si="12"/>
@@ -26240,11 +25463,11 @@
       </c>
       <c r="V39" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8855459277444222</v>
+        <v>7.2931894427564306</v>
       </c>
       <c r="W39" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8855459277444222</v>
+        <v>7.2931894427564314</v>
       </c>
       <c r="X39" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26269,7 +25492,7 @@
       </c>
       <c r="B40" s="179">
         <f t="shared" si="0"/>
-        <v>0.25000000000000006</v>
+        <v>0.55699999999999983</v>
       </c>
       <c r="C40" s="180">
         <f t="shared" si="1"/>
@@ -26284,16 +25507,16 @@
         <v>1.873972753864378</v>
       </c>
       <c r="F40" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6179165501215065E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.9004422519990762E-2</v>
       </c>
       <c r="G40" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>294.04079461587821</v>
+        <v>345.38712757306962</v>
       </c>
       <c r="H40" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2535.4186210887528</v>
+        <v>2978.161434630505</v>
       </c>
       <c r="I40" s="184">
         <f t="shared" si="6"/>
@@ -26301,7 +25524,7 @@
       </c>
       <c r="J40" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3727065.3730004663</v>
+        <v>4377897.308906842</v>
       </c>
       <c r="K40" s="291">
         <f t="shared" si="8"/>
@@ -26320,7 +25543,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O40" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0780000000000007E-2</v>
       </c>
       <c r="P40" s="188">
@@ -26329,7 +25552,7 @@
       </c>
       <c r="Q40" s="187">
         <f t="shared" si="20"/>
-        <v>2.5000000000000006E-4</v>
+        <v>5.5699999999999988E-4</v>
       </c>
       <c r="R40" s="274">
         <f t="shared" si="12"/>
@@ -26349,11 +25572,11 @@
       </c>
       <c r="V40" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8617990916226868</v>
+        <v>7.2539183239366327</v>
       </c>
       <c r="W40" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8617990916226876</v>
+        <v>7.2539183239366327</v>
       </c>
       <c r="X40" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26368,7 +25591,7 @@
       </c>
       <c r="B41" s="179">
         <f t="shared" si="0"/>
-        <v>0.25833333333333341</v>
+        <v>0.5841666666666665</v>
       </c>
       <c r="C41" s="180">
         <f t="shared" si="1"/>
@@ -26383,16 +25606,16 @@
         <v>1.8717103708387068</v>
       </c>
       <c r="F41" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6274654502214204E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.9202670910110391E-2</v>
       </c>
       <c r="G41" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>294.88432243646952</v>
+        <v>347.93774574618476</v>
       </c>
       <c r="H41" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2542.6920885221666</v>
+        <v>3000.1545897634564</v>
       </c>
       <c r="I41" s="184">
         <f t="shared" si="6"/>
@@ -26400,7 +25623,7 @@
       </c>
       <c r="J41" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3737757.3701275848</v>
+        <v>4410227.2469522804</v>
       </c>
       <c r="K41" s="291">
         <f t="shared" si="8"/>
@@ -26419,7 +25642,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O41" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0571666666666674E-2</v>
       </c>
       <c r="P41" s="188">
@@ -26428,7 +25651,7 @@
       </c>
       <c r="Q41" s="187">
         <f t="shared" si="20"/>
-        <v>2.583333333333334E-4</v>
+        <v>5.8416666666666654E-4</v>
       </c>
       <c r="R41" s="274">
         <f t="shared" si="12"/>
@@ -26448,11 +25671,11 @@
       </c>
       <c r="V41" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8387012200230366</v>
+        <v>7.2163764476164234</v>
       </c>
       <c r="W41" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8387012200230375</v>
+        <v>7.2163764476164234</v>
       </c>
       <c r="X41" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26467,7 +25690,7 @@
       </c>
       <c r="B42" s="179">
         <f t="shared" si="0"/>
-        <v>0.26666666666666672</v>
+        <v>0.61133333333333317</v>
       </c>
       <c r="C42" s="180">
         <f t="shared" si="1"/>
@@ -26482,16 +25705,16 @@
         <v>1.8694520822874869</v>
       </c>
       <c r="F42" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.636841355585664E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.9395468280639396E-2</v>
       </c>
       <c r="G42" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>295.68937761658293</v>
+        <v>350.37200916960194</v>
       </c>
       <c r="H42" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2549.6338188263912</v>
+        <v>3021.1444555418761</v>
       </c>
       <c r="I42" s="184">
         <f t="shared" si="6"/>
@@ -26499,7 +25722,7 @@
       </c>
       <c r="J42" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3747961.7136747949</v>
+        <v>4441082.3496465571</v>
       </c>
       <c r="K42" s="291">
         <f t="shared" si="8"/>
@@ -26518,7 +25741,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O42" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0363333333333341E-2</v>
       </c>
       <c r="P42" s="188">
@@ -26527,7 +25750,7 @@
       </c>
       <c r="Q42" s="187">
         <f t="shared" si="20"/>
-        <v>2.6666666666666673E-4</v>
+        <v>6.1133333333333319E-4</v>
       </c>
       <c r="R42" s="274">
         <f t="shared" si="12"/>
@@ -26547,11 +25770,11 @@
       </c>
       <c r="V42" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8162187513712045</v>
+        <v>7.180420285922585</v>
       </c>
       <c r="W42" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8162187513712063</v>
+        <v>7.180420285922585</v>
       </c>
       <c r="X42" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26566,7 +25789,7 @@
       </c>
       <c r="B43" s="179">
         <f t="shared" si="0"/>
-        <v>0.27500000000000008</v>
+        <v>0.63849999999999985</v>
       </c>
       <c r="C43" s="180">
         <f t="shared" si="1"/>
@@ -26581,16 +25804,16 @@
         <v>1.8671978783364043</v>
       </c>
       <c r="F43" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6460516703973176E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.9583183074615061E-2</v>
       </c>
       <c r="G43" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>296.45761904413678</v>
+        <v>352.69754479848666</v>
       </c>
       <c r="H43" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2556.2581160551363</v>
+        <v>3041.196796732092</v>
       </c>
       <c r="I43" s="184">
         <f t="shared" si="6"/>
@@ -26598,7 +25821,7 @@
       </c>
       <c r="J43" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3757699.4306010501</v>
+        <v>4470559.2911961749</v>
       </c>
       <c r="K43" s="291">
         <f t="shared" si="8"/>
@@ -26617,7 +25840,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O43" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0155000000000008E-2</v>
       </c>
       <c r="P43" s="188">
@@ -26626,7 +25849,7 @@
       </c>
       <c r="Q43" s="187">
         <f t="shared" si="20"/>
-        <v>2.7500000000000007E-4</v>
+        <v>6.3849999999999985E-4</v>
       </c>
       <c r="R43" s="274">
         <f t="shared" si="12"/>
@@ -26646,11 +25869,11 @@
       </c>
       <c r="V43" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7943206474688003</v>
+        <v>7.1459234247267762</v>
       </c>
       <c r="W43" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7943206474688003</v>
+        <v>7.1459234247267762</v>
       </c>
       <c r="X43" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26665,7 +25888,7 @@
       </c>
       <c r="B44" s="179">
         <f t="shared" si="0"/>
-        <v>0.28333333333333338</v>
+        <v>0.66566666666666652</v>
       </c>
       <c r="C44" s="180">
         <f t="shared" si="1"/>
@@ -26680,16 +25903,16 @@
         <v>1.8649477491408901</v>
       </c>
       <c r="F44" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6551033071568605E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.9766145436089344E-2</v>
       </c>
       <c r="G44" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>297.19059897273922</v>
+        <v>354.92120498656806</v>
       </c>
       <c r="H44" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2562.578364788958</v>
+        <v>3060.370698962904</v>
       </c>
       <c r="I44" s="184">
         <f t="shared" si="6"/>
@@ -26697,7 +25920,7 @@
       </c>
       <c r="J44" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3766990.1962397676</v>
+        <v>4498744.9274754683</v>
       </c>
       <c r="K44" s="291">
         <f t="shared" si="8"/>
@@ -26716,7 +25939,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O44" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.9466666666666748E-3</v>
       </c>
       <c r="P44" s="188">
@@ -26725,7 +25948,7 @@
       </c>
       <c r="Q44" s="187">
         <f t="shared" si="20"/>
-        <v>2.8333333333333341E-4</v>
+        <v>6.6566666666666651E-4</v>
       </c>
       <c r="R44" s="274">
         <f t="shared" si="12"/>
@@ -26745,11 +25968,11 @@
       </c>
       <c r="V44" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7729781476722604</v>
+        <v>7.1127739512450772</v>
       </c>
       <c r="W44" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7729781476722595</v>
+        <v>7.1127739512450781</v>
       </c>
       <c r="X44" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26764,7 +25987,7 @@
       </c>
       <c r="B45" s="179">
         <f t="shared" si="0"/>
-        <v>0.29166666666666674</v>
+        <v>0.69283333333333319</v>
       </c>
       <c r="C45" s="180">
         <f t="shared" si="1"/>
@@ -26779,16 +26002,16 @@
         <v>1.8627016848860201</v>
       </c>
       <c r="F45" s="182">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6640027301827582E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.9944652460974023E-2</v>
       </c>
       <c r="G45" s="183">
         <f t="shared" ca="1" si="4"/>
-        <v>297.88977229784263</v>
+        <v>357.04917260001258</v>
       </c>
       <c r="H45" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2568.6071101205421</v>
+        <v>3078.7194750885074</v>
       </c>
       <c r="I45" s="184">
         <f t="shared" si="6"/>
@@ -26796,7 +26019,7 @@
       </c>
       <c r="J45" s="291">
         <f t="shared" ca="1" si="7"/>
-        <v>3775852.4518771968</v>
+        <v>4525717.6283801049</v>
       </c>
       <c r="K45" s="291">
         <f t="shared" si="8"/>
@@ -26815,7 +26038,7 @@
         <v>0.71119999999885264</v>
       </c>
       <c r="O45" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.7383333333333419E-3</v>
       </c>
       <c r="P45" s="188">
@@ -26824,7 +26047,7 @@
       </c>
       <c r="Q45" s="187">
         <f t="shared" si="20"/>
-        <v>2.9166666666666675E-4</v>
+        <v>6.9283333333333317E-4</v>
       </c>
       <c r="R45" s="274">
         <f t="shared" si="12"/>
@@ -26844,11 +26067,11 @@
       </c>
       <c r="V45" s="189">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7521645522049409</v>
+        <v>7.0808723211865434</v>
       </c>
       <c r="W45" s="189">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7521645522049401</v>
+        <v>7.0808723211865425</v>
       </c>
       <c r="X45" s="190">
         <f t="shared" ca="1" si="18"/>
@@ -26863,7 +26086,7 @@
       </c>
       <c r="B46" s="200">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="C46" s="201">
         <f t="shared" si="1"/>
@@ -26878,16 +26101,16 @@
         <v>1.8604596757864</v>
       </c>
       <c r="F46" s="203">
-        <f t="shared" ca="1" si="21"/>
-        <v>1.6727559943557582E-2</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>2.0118972567150301E-2</v>
       </c>
       <c r="G46" s="204">
         <f t="shared" ca="1" si="4"/>
-        <v>298.55650482780317</v>
+        <v>359.08704859779846</v>
       </c>
       <c r="H46" s="184">
         <f t="shared" ca="1" si="5"/>
-        <v>2574.3561289733711</v>
+        <v>3096.2914203657119</v>
       </c>
       <c r="I46" s="184">
         <f t="shared" si="6"/>
@@ -26895,7 +26118,7 @@
       </c>
       <c r="J46" s="292">
         <f t="shared" ca="1" si="7"/>
-        <v>3784303.5095908553</v>
+        <v>4551548.3879375961</v>
       </c>
       <c r="K46" s="292">
         <f t="shared" si="8"/>
@@ -26922,8 +26145,8 @@
         <v>0.69213999999885267</v>
       </c>
       <c r="Q46" s="283">
-        <f>k_yr_25/1000</f>
-        <v>2.9999999999999997E-4</v>
+        <f>roughness_bare_yr_25_mm/1000</f>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="R46" s="275">
         <f t="shared" si="12"/>
@@ -26943,11 +26166,11 @@
       </c>
       <c r="V46" s="210">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7318550305652476</v>
+        <v>7.0501296036575383</v>
       </c>
       <c r="W46" s="210">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7318550305652476</v>
+        <v>7.0501296036575383</v>
       </c>
       <c r="X46" s="211">
         <f t="shared" ca="1" si="18"/>
@@ -26968,7 +26191,7 @@
       <c r="I47" s="184"/>
       <c r="J47" s="293">
         <f ca="1">NPV(discount_rate/100,J22:J46)</f>
-        <v>32323585.961490624</v>
+        <v>34702858.773614489</v>
       </c>
       <c r="K47" s="293">
         <f>NPV(discount_rate/100,K22:K46)</f>
@@ -28176,15 +27399,15 @@
       </c>
       <c r="F61" s="182">
         <f t="shared" ca="1" si="27"/>
-        <v>1.2455728065327076E-2</v>
+        <v>1.2455728065327071E-2</v>
       </c>
       <c r="G61" s="183">
         <f t="shared" ca="1" si="28"/>
-        <v>222.31207951533025</v>
+        <v>222.31207951533017</v>
       </c>
       <c r="H61" s="184">
         <f t="shared" ca="1" si="29"/>
-        <v>1916.9251220139863</v>
+        <v>1916.9251220139854</v>
       </c>
       <c r="I61" s="184">
         <f t="shared" si="30"/>
@@ -28192,7 +27415,7 @@
       </c>
       <c r="J61" s="291">
         <f t="shared" ca="1" si="31"/>
-        <v>2817879.9293605597</v>
+        <v>2817879.9293605583</v>
       </c>
       <c r="K61" s="291">
         <f t="shared" si="32"/>
@@ -28240,7 +27463,7 @@
       </c>
       <c r="V61" s="189">
         <f t="shared" ca="1" si="40"/>
-        <v>8.9601533173779604</v>
+        <v>8.9601533173779622</v>
       </c>
       <c r="W61" s="189">
         <f t="shared" ca="1" si="41"/>
@@ -29547,11 +28770,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C17EE-927F-F041-B032-C0FE3D7D286E}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E24"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -29561,11 +28785,15 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -29576,13 +28804,13 @@
         <v>159</v>
       </c>
       <c r="F1" s="300" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G1" s="300" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -29591,7 +28819,7 @@
         <v>625</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D2" s="301" t="s">
         <v>167</v>
@@ -29605,12 +28833,9 @@
         <f>E2</f>
         <v>9475188.9113527965</v>
       </c>
-      <c r="H2" s="163">
-        <f>G2+extra_steel</f>
-        <v>15803265.611307925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="163"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -29619,26 +28844,26 @@
         <v>625</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D3" s="303" t="s">
         <v>169</v>
       </c>
       <c r="E3" s="304">
         <f>capex_steel_bare</f>
-        <v>22720068.308931705</v>
+        <v>20320061.093199484</v>
       </c>
       <c r="F3" s="304">
         <f>capex_steel_fbe</f>
-        <v>16391991.608976576</v>
+        <v>14660443.199577643</v>
       </c>
       <c r="G3" s="304">
         <f>E3-F3</f>
-        <v>6328076.6999551281</v>
-      </c>
-      <c r="H3" s="163"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>5659617.8936218414</v>
+      </c>
+      <c r="H3" s="162"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -29647,36 +28872,36 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D4" s="303" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E4" s="304"/>
       <c r="F4" s="304">
         <f>field_coating_total</f>
-        <v>5367280</v>
+        <v>5834000</v>
       </c>
       <c r="G4" s="304">
         <f>F4</f>
-        <v>5367280</v>
+        <v>5834000</v>
       </c>
       <c r="H4" s="163"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="B5" s="162">
         <f>SUM(B2:B4)</f>
         <v>1420</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D5" s="305" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="E5" s="304">
         <f ca="1">bare_friction_energy_PV</f>
-        <v>32323585.961490624</v>
+        <v>34702858.773614489</v>
       </c>
       <c r="F5" s="304">
         <f ca="1">fbe_friction_energy_PV</f>
@@ -29684,11 +28909,12 @@
       </c>
       <c r="G5" s="304">
         <f ca="1">Charts!$E5-Charts!$F5</f>
-        <v>7100398.0038222522</v>
+        <v>9479670.815946117</v>
       </c>
       <c r="H5" s="163"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="323"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="D6" s="305" t="s">
         <v>285</v>
       </c>
@@ -29702,10 +28928,11 @@
       </c>
       <c r="G6" s="304"/>
       <c r="H6" s="163"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="323"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D7" s="305" t="s">
         <v>168</v>
@@ -29723,10 +28950,17 @@
         <v>2541571.2051042202</v>
       </c>
       <c r="H7" s="163"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="323"/>
+      <c r="K7" s="163" t="s">
+        <v>417</v>
+      </c>
+      <c r="M7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="D8" s="303" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E8" s="304"/>
       <c r="F8" s="304">
@@ -29737,9 +28971,23 @@
         <f>F8</f>
         <v>761047.67873947392</v>
       </c>
-      <c r="H8" s="163"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="323" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="323" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="D9" s="303" t="s">
         <v>186</v>
       </c>
@@ -29752,62 +29000,125 @@
         <f>E9</f>
         <v>272160</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="164"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H9" s="271">
+        <f>E3/1000000</f>
+        <v>20.320061093199485</v>
+      </c>
+      <c r="I9" s="322">
+        <f>E2/1000000</f>
+        <v>9.4751889113527969</v>
+      </c>
+      <c r="J9" s="322"/>
+      <c r="K9" s="322">
+        <f>F3/1000000</f>
+        <v>14.660443199577642</v>
+      </c>
+      <c r="L9" s="322">
+        <f ca="1">F5/1000000</f>
+        <v>25.223187957668372</v>
+      </c>
+      <c r="M9" s="322">
+        <f ca="1">L9-K9</f>
+        <v>10.56274475809073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="D10" s="306" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="307">
         <f ca="1">SUBTOTAL(109,Charts!$E$2:$E$9)</f>
-        <v>184928662.38267955</v>
+        <v>184907927.97907123</v>
       </c>
       <c r="F10" s="307">
         <f ca="1">SUBTOTAL(109,Charts!$F$2:$F$9)</f>
-        <v>165339595.24118468</v>
+        <v>164074766.83178574</v>
       </c>
       <c r="G10" s="319">
         <f ca="1">1-fbe_total_usd/bare_total_usd</f>
-        <v>0.10592769605913499</v>
-      </c>
-      <c r="H10" s="163"/>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1126677551091454</v>
+      </c>
+      <c r="H10" s="271">
+        <f>E9/1000000</f>
+        <v>0.27216000000000001</v>
+      </c>
+      <c r="I10" s="322">
+        <f ca="1">E5/1000000</f>
+        <v>34.702858773614487</v>
+      </c>
+      <c r="J10" s="322"/>
+      <c r="K10" s="322">
+        <f>F4/1000000</f>
+        <v>5.8339999999999996</v>
+      </c>
+      <c r="L10" s="322">
+        <f>F6/1000000</f>
+        <v>115.05451679069601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="D11" s="308"/>
       <c r="E11" s="309"/>
       <c r="F11" s="309"/>
       <c r="G11" s="309">
         <f ca="1">bare_total_usd-fbe_total_usd</f>
-        <v>19589067.14149487</v>
-      </c>
-      <c r="H11" s="164"/>
-    </row>
-    <row r="12" spans="1:9">
+        <v>20833161.147285491</v>
+      </c>
+      <c r="H11" s="324"/>
+      <c r="I11" s="322">
+        <f>E6/1000000</f>
+        <v>115.05451679069601</v>
+      </c>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322">
+        <f>F8/1000000</f>
+        <v>0.76104767873947388</v>
+      </c>
+      <c r="L11" s="322">
+        <f>F7/1000000</f>
+        <v>2.5415712051042201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="D12" s="310"/>
       <c r="E12" s="304"/>
       <c r="F12" s="304"/>
       <c r="G12" s="304"/>
-      <c r="H12" s="164"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="324"/>
+      <c r="I12" s="322">
+        <f>E7/1000000</f>
+        <v>5.0831424102084402</v>
+      </c>
+      <c r="J12" s="322"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="D13" s="303" t="s">
         <v>274</v>
       </c>
       <c r="E13" s="304">
         <f>SUM(E3,E9,E7)</f>
-        <v>28075370.719140146</v>
+        <v>25675363.503407925</v>
       </c>
       <c r="F13" s="304">
         <f>SUM(F3,F4,F8)</f>
-        <v>22520319.28771605</v>
+        <v>21255490.878317118</v>
       </c>
       <c r="G13" s="311">
         <f>1-F13/E13</f>
-        <v>0.197862086559626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.17214450048600682</v>
+      </c>
+      <c r="H13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322">
+        <f>SUM(K9:K11)</f>
+        <v>21.255490878317115</v>
+      </c>
+      <c r="L13" s="322">
+        <f ca="1">SUM(L9:L11)</f>
+        <v>142.8192759534686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="D14" s="305" t="s">
         <v>275</v>
       </c>
@@ -29823,9 +29134,16 @@
         <f>1-F14/E14</f>
         <v>9.2712723248310591E-2</v>
       </c>
-      <c r="H14" s="165"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="322">
+        <f>SUM(H9:H12)</f>
+        <v>20.592221093199484</v>
+      </c>
+      <c r="I14" s="322">
+        <f ca="1">SUM(I9:I12)</f>
+        <v>164.31570688587175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -29834,8 +29152,9 @@
       <c r="F15" s="310"/>
       <c r="G15" s="310"/>
       <c r="H15" s="165"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="323"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -29848,8 +29167,24 @@
       <c r="F16" s="312"/>
       <c r="G16" s="312"/>
       <c r="H16" s="165"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="323" t="str">
+        <f>"OPEX [ "&amp;ROUND(I11,2)&amp;" ] "&amp;D6</f>
+        <v>OPEX [ 115.05 ] Elevation Energy</v>
+      </c>
+      <c r="J16" t="str">
+        <f>":"&amp;D6&amp;" #197"</f>
+        <v>:Elevation Energy #197</v>
+      </c>
+      <c r="L16" s="323" t="str">
+        <f>"OPEX [ "&amp;ROUND(L10,2)&amp;" ] "&amp;D6</f>
+        <v>OPEX [ 115.05 ] Elevation Energy</v>
+      </c>
+      <c r="M16" t="str">
+        <f>":"&amp;D6&amp;" #d74"</f>
+        <v>:Elevation Energy #d74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -29864,16 +29199,24 @@
         <v>159</v>
       </c>
       <c r="F17" s="313" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G17" s="313" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="165"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="str">
+        <f>J16</f>
+        <v>:Elevation Energy #197</v>
+      </c>
+      <c r="L17" t="str">
+        <f>M16</f>
+        <v>:Elevation Energy #d74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="D18" s="310" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E18" s="314">
         <f>pv_inhibitors</f>
@@ -29884,52 +29227,91 @@
         <v>1</v>
       </c>
       <c r="H18" s="165"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="323"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="D19" s="310" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" s="314">
         <f ca="1">G5</f>
-        <v>7100398.0038222522</v>
+        <v>9479670.815946117</v>
       </c>
       <c r="F19" s="314"/>
       <c r="G19" s="315">
         <f ca="1">1-F5/E5</f>
-        <v>0.21966615994529382</v>
+        <v>0.27316685572756805</v>
       </c>
       <c r="H19" s="165"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="323" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="D20" s="310" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="314">
         <f>extra_steel</f>
-        <v>6328076.6999551281</v>
+        <v>5659617.8936218414</v>
       </c>
       <c r="F20" s="314"/>
       <c r="G20" s="315">
         <f>1-F3/E3</f>
-        <v>0.27852366524212591</v>
+        <v>0.27852366524212602</v>
       </c>
       <c r="H20" s="165"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="323" t="str">
+        <f>"CAPEX [ "&amp;ROUND(K9,2)&amp;" ] "&amp;K7</f>
+        <v>CAPEX [ 14.66 ] Steel design</v>
+      </c>
+      <c r="J20" t="str">
+        <f>":"&amp;K7&amp;" #d74"</f>
+        <v>:Steel design #d74</v>
+      </c>
+      <c r="L20" s="323" t="str">
+        <f>"CAPEX [ "&amp;ROUND(K9,2)&amp;" ] "&amp;D3</f>
+        <v>CAPEX [ 14.66 ] Steel</v>
+      </c>
+      <c r="M20" t="str">
+        <f>":"&amp;D3&amp;" #d74"</f>
+        <v>:Steel #d74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="D21" s="310" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E21" s="314"/>
       <c r="F21" s="314">
         <f>field_coating_total</f>
-        <v>5367280</v>
+        <v>5834000</v>
       </c>
       <c r="G21" s="315">
         <v>1</v>
       </c>
       <c r="H21" s="166"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="323" t="str">
+        <f ca="1">"CAPEX [ "&amp;ROUND(M9,2)&amp;" ] "&amp;M7</f>
+        <v>CAPEX [ 10.56 ] Steel corrosion</v>
+      </c>
+      <c r="J21" t="str">
+        <f>":"&amp;M7&amp;" #d74"</f>
+        <v>:Steel corrosion #d74</v>
+      </c>
+      <c r="L21" s="323" t="str">
+        <f>"CAPEX [ "&amp;ROUND(K10,2)&amp;" ] "&amp;D4</f>
+        <v>CAPEX [ 5.83 ] Field Joint Coating</v>
+      </c>
+      <c r="M21" t="str">
+        <f>":"&amp;D4&amp;" #d74"</f>
+        <v>:Field Joint Coating #d74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="D22" s="310" t="s">
         <v>273</v>
       </c>
@@ -29942,10 +29324,26 @@
         <f>1-F7/E7</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="323" t="str">
+        <f>"CAPEX [ "&amp;ROUND(H10,2)&amp;" ] "&amp;D9</f>
+        <v>CAPEX [ 0.27 ] Dosing Plant</v>
+      </c>
+      <c r="J22" t="str">
+        <f>":"&amp;D9&amp;" #d74"</f>
+        <v>:Dosing Plant #d74</v>
+      </c>
+      <c r="L22" s="323" t="str">
+        <f>"CAPEX [ "&amp;ROUND(K11,2)&amp;" ] "&amp;D8</f>
+        <v>CAPEX [ 0.76 ] Shop Coating</v>
+      </c>
+      <c r="M22" t="str">
+        <f>":"&amp;D8&amp;" #d74"</f>
+        <v>:Shop Coating #d74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="D23" s="310" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E23" s="314"/>
       <c r="F23" s="314">
@@ -29956,8 +29354,23 @@
         <v>1</v>
       </c>
       <c r="H23" s="162"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="323" t="str">
+        <f ca="1">"OPEX [ "&amp;ROUND(I10,2)&amp;" ] "&amp;D5</f>
+        <v>OPEX [ 34.7 ] Friction Energy</v>
+      </c>
+      <c r="J23" t="s">
+        <v>416</v>
+      </c>
+      <c r="L23" s="323" t="str">
+        <f ca="1">"OPEX [ "&amp;ROUND(L9,2)&amp;" ] "&amp;D5</f>
+        <v>OPEX [ 25.22 ] Friction Energy</v>
+      </c>
+      <c r="M23" t="str">
+        <f>":"&amp;D5&amp;" #d74"</f>
+        <v>:Friction Energy #d74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="D24" s="310" t="s">
         <v>186</v>
       </c>
@@ -29969,38 +29382,90 @@
       <c r="G24" s="315">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="323" t="str">
+        <f>"OPEX [ "&amp;ROUND(I9,2)&amp;" ] "&amp;D2</f>
+        <v>OPEX [ 9.48 ] Inhibitors</v>
+      </c>
+      <c r="J24" t="str">
+        <f>":"&amp;D2&amp;" #197"</f>
+        <v>:Inhibitors #197</v>
+      </c>
+      <c r="L24" s="323" t="str">
+        <f>"OPEX [ "&amp;ROUND(L11,2)&amp;" ] "&amp;D7</f>
+        <v>OPEX [ 2.54 ] Inspections</v>
+      </c>
+      <c r="M24" t="str">
+        <f>":"&amp;D7&amp;" #d74"</f>
+        <v>:Inspections #d74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="D25" s="316" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="317">
         <f ca="1">SUBTOTAL(109,Charts!$E$18:$E$24)</f>
-        <v>25717394.820234399</v>
+        <v>27428208.826024976</v>
       </c>
       <c r="F25" s="317">
         <f>SUBTOTAL(109,Charts!$F$18:$F$24)</f>
-        <v>6128327.6787394742</v>
+        <v>6595047.6787394742</v>
       </c>
       <c r="G25" s="318">
         <f ca="1">Charts!$E$25-Charts!$F$25</f>
-        <v>19589067.141494926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>20833161.147285502</v>
+      </c>
+      <c r="I25" s="323" t="str">
+        <f>"OPEX [ "&amp;ROUND(I12,2)&amp;" ] "&amp;D7</f>
+        <v>OPEX [ 5.08 ] Inspections</v>
+      </c>
+      <c r="J25" t="str">
+        <f>":"&amp;D7&amp;" #197"</f>
+        <v>:Inspections #197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="E26" s="166"/>
       <c r="F26">
         <f ca="1">diff_total_fbe_usd/diff_total_diff</f>
-        <v>0.31284428372589645</v>
+        <v>0.31656490496636841</v>
       </c>
       <c r="G26" s="281"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="27" spans="1:13">
+      <c r="I27" t="str">
+        <f>J20</f>
+        <v>:Steel design #d74</v>
+      </c>
+      <c r="L27" t="str">
+        <f>M20</f>
+        <v>:Steel #d74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="I28" t="str">
+        <f>J21</f>
+        <v>:Steel corrosion #d74</v>
+      </c>
+      <c r="L28" t="str">
+        <f>M21</f>
+        <v>:Field Joint Coating #d74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="str">
+        <f>J22</f>
+        <v>:Dosing Plant #d74</v>
+      </c>
+      <c r="L29" t="str">
+        <f>M22</f>
+        <v>:Shop Coating #d74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>207</v>
       </c>
@@ -30008,8 +29473,16 @@
         <f>FBE_coating_capex</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="str">
+        <f t="shared" ref="I30:I33" si="0">J23</f>
+        <v>:Friction Energy #197</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ref="L30:L32" si="1">M23</f>
+        <v>:Friction Energy #d74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -30017,8 +29490,16 @@
         <f>FBE_steel_capex*1000000</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>:Inhibitors #197</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>:Inspections #d74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>209</v>
       </c>
@@ -30026,8 +29507,46 @@
         <f>robotic_internal_coating_service_CAPEX</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>:Inspections #197</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="162">
+        <f>SUM(E3:E4,E8:E9)</f>
+        <v>20592221.093199484</v>
+      </c>
+      <c r="F33" s="323"/>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="162">
+        <f ca="1">SUM(E2,E5:E7)</f>
+        <v>164315706.88587174</v>
+      </c>
+      <c r="F34" s="323"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -30036,7 +29555,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:9">
       <c r="A47" s="167" t="s">
         <v>280</v>
       </c>
@@ -30044,7 +29563,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:9">
       <c r="A48" s="158" t="s">
         <v>279</v>
       </c>
@@ -30059,14 +29578,14 @@
       </c>
       <c r="B49" s="169">
         <f ca="1">NPV(discount_rate/100,Electricity!J22:J46)</f>
-        <v>32323585.961490624</v>
+        <v>34702858.773614489</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="157"/>
       <c r="B50" s="168">
         <f ca="1">bare_electricity_pv+B48</f>
-        <v>147378102.75218663</v>
+        <v>149757375.56431049</v>
       </c>
     </row>
   </sheetData>

--- a/Bare-vs-Coated-Water-Pipelines.xlsx
+++ b/Bare-vs-Coated-Water-Pipelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igna/Dropbox/Victaulic/FBE_vs_Bare/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B39992-C5B1-DD4C-AC6B-CDCD3BDF2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5A049-9DF2-C149-AB00-E863279B418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
   </bookViews>
@@ -23,10 +23,9 @@
     <sheet name="Charts" sheetId="3" r:id="rId8"/>
     <sheet name="SRAII AMSA" sheetId="2" r:id="rId9"/>
     <sheet name="Chilean_Projects" sheetId="18" r:id="rId10"/>
-    <sheet name="Dosging" sheetId="11" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_bare_CAPEX">Charts!$D$12</definedName>
@@ -52,7 +51,7 @@
     <definedName name="annual_operation_h">#REF!</definedName>
     <definedName name="Bare_annual_Inspection">Inspections!$B$5</definedName>
     <definedName name="Bare_annual_Inspection_usd">Inspections!$C$5</definedName>
-    <definedName name="bare_capex">Charts!$D$18</definedName>
+    <definedName name="bare_capex">Charts!#REF!</definedName>
     <definedName name="bare_cost_electricity_yr_1">Electricity!$E$12</definedName>
     <definedName name="bare_dosing_plant_CAPEX">#REF!</definedName>
     <definedName name="bare_electricity_pv">Charts!#REF!</definedName>
@@ -67,7 +66,7 @@
     <definedName name="bare_inspect_per_km_per_yr">#REF!</definedName>
     <definedName name="bare_inspection_per_km">Inspections!$C$3</definedName>
     <definedName name="bare_inspections_PV">Inspections!$C$7</definedName>
-    <definedName name="bare_opex">Charts!$D$19</definedName>
+    <definedName name="bare_opex">Charts!#REF!</definedName>
     <definedName name="bare_opex_NPV">#REF!</definedName>
     <definedName name="bare_re_yr_1">Electricity!$Q$20</definedName>
     <definedName name="bare_roughness_yr_1">Electricity!$P$20</definedName>
@@ -96,8 +95,8 @@
     <definedName name="chem_opex_pv">#REF!</definedName>
     <definedName name="chile_inland">Steel!$C$10</definedName>
     <definedName name="china_inland">Steel!$C$8</definedName>
-    <definedName name="coated_capex">Charts!$E$18</definedName>
-    <definedName name="coated_opex">Charts!$E$19</definedName>
+    <definedName name="coated_capex">Charts!#REF!</definedName>
+    <definedName name="coated_opex">Charts!#REF!</definedName>
     <definedName name="corrosion_opex_PV">#REF!</definedName>
     <definedName name="corrosion_opex_yr">#REF!</definedName>
     <definedName name="corrosion_rate">#REF!</definedName>
@@ -108,19 +107,19 @@
     <definedName name="design_flow_rate">Parameters!$C$16</definedName>
     <definedName name="design_flow_rate_l_s">Parameters!$C$15</definedName>
     <definedName name="diameter_mm">#REF!</definedName>
-    <definedName name="diff_friction_bare">Charts!$Y$4</definedName>
-    <definedName name="diff_inhibitors_bare">Charts!$Y$3</definedName>
-    <definedName name="diff_JFC">Charts!$Z$6</definedName>
-    <definedName name="diff_percent_usd">Charts!$F$16</definedName>
-    <definedName name="diff_shop_coating">Charts!$Z$8</definedName>
-    <definedName name="diff_steel_bare">Charts!$Y$5</definedName>
-    <definedName name="diff_total_diff">Charts!$AA$10</definedName>
-    <definedName name="diff_total_fbe_usd">Charts!$Z$10</definedName>
+    <definedName name="diff_friction_bare">Charts!$D$18</definedName>
+    <definedName name="diff_inhibitors_bare">Charts!$D$17</definedName>
+    <definedName name="diff_JFC">Charts!$E$20</definedName>
+    <definedName name="diff_percent_usd">Charts!#REF!</definedName>
+    <definedName name="diff_shop_coating">Charts!$E$22</definedName>
+    <definedName name="diff_steel_bare">Charts!$D$19</definedName>
+    <definedName name="diff_total_diff">Charts!$F$24</definedName>
+    <definedName name="diff_total_fbe_usd">Charts!$E$24</definedName>
     <definedName name="diff_total_usd">Charts!$F$14</definedName>
     <definedName name="discount_rate">#REF!</definedName>
-    <definedName name="Dosage_plant_investment">Dosging!$B$5</definedName>
+    <definedName name="Dosage_plant_investment">#REF!</definedName>
     <definedName name="Dosage_plant_upfront_investment_m3_day">#REF!</definedName>
-    <definedName name="Dosing_investment">Dosging!$B$2</definedName>
+    <definedName name="Dosing_investment">#REF!</definedName>
     <definedName name="Dosing_plant_capex">#REF!</definedName>
     <definedName name="Dosing_plant_service_yr">Inhibitors!$F$13</definedName>
     <definedName name="dynamic_viscosity_of_water">Parameters!$C$19</definedName>
@@ -134,10 +133,12 @@
     <definedName name="Energy_cost_w_h">#REF!</definedName>
     <definedName name="Energy_table_text_bare">Electricity!$A$15</definedName>
     <definedName name="Energy_table_text_fbe">Electricity!$A$16</definedName>
+    <definedName name="extra_fjc">Charts!$F$7</definedName>
     <definedName name="extra_friction_energy">Charts!$F$10</definedName>
     <definedName name="extra_inspections">Charts!$F$11</definedName>
-    <definedName name="extra_inspections_bare">Charts!$Y$7</definedName>
-    <definedName name="extra_steel">Charts!$F$29</definedName>
+    <definedName name="extra_inspections_bare">Charts!$D$21</definedName>
+    <definedName name="extra_shop_fbe">Charts!$F$8</definedName>
+    <definedName name="extra_steel">Charts!#REF!</definedName>
     <definedName name="extra_steel_percentage">Steel!$D$41</definedName>
     <definedName name="extra_wall_mm">Parameters!$C$12</definedName>
     <definedName name="F_Design_Factor">[1]MAOP!$C$4</definedName>
@@ -355,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="440">
   <si>
     <t>km</t>
   </si>
@@ -534,9 +535,6 @@
     <t>$/t</t>
   </si>
   <si>
-    <t>m³/day</t>
-  </si>
-  <si>
     <t>Cost Component</t>
   </si>
   <si>
@@ -556,9 +554,6 @@
   </si>
   <si>
     <t>Inspections</t>
-  </si>
-  <si>
-    <t>Dosing Plant</t>
   </si>
   <si>
     <t>Item</t>
@@ -899,19 +894,7 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Seconds in a day</t>
-  </si>
-  <si>
-    <t>s/day</t>
-  </si>
-  <si>
     <t>Flow rate</t>
-  </si>
-  <si>
-    <t>Dosage plant upfront investment per flow rate</t>
-  </si>
-  <si>
-    <t>Dosage plant investment</t>
   </si>
   <si>
     <t>$/m²</t>
@@ -1777,7 +1760,7 @@
     <numFmt numFmtId="182" formatCode="0.0\ &quot;m³&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1989,6 +1972,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2289,7 +2285,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2483,7 +2479,6 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2758,60 +2753,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4429,7 +4409,7 @@
           <c:x val="0"/>
           <c:y val="0"/>
           <c:w val="1"/>
-          <c:h val="0.94584259822682748"/>
+          <c:h val="0.9452655869710288"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4441,11 +4421,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$X$13</c:f>
+              <c:f>Charts!$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Item</c:v>
+                  <c:v>Extra Inhibitors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4453,7 +4433,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:shade val="45000"/>
+                <a:shade val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4465,115 +4445,26 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>Bare</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="inEnd"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
+              <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.29629065480116812"/>
-                      <c:h val="3.7989570241636003E-2"/>
+                      <c:w val="0.32295382445942211"/>
+                      <c:h val="0.20151479768041178"/>
                     </c:manualLayout>
                   </c15:layout>
-                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-1138-DA43-8824-98E0DC7CD9A1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-FBDD-5045-BBC5-16AB47077F44}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4589,7 +4480,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4608,6 +4499,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -4617,7 +4510,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
+              <c:f>Charts!$D$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4631,15 +4524,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
+              <c:f>Charts!$D$28:$E$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.223564573747916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,11 +4545,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$X$14</c:f>
+              <c:f>Charts!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Extra Inhibitors</c:v>
+                  <c:v>Extra Friction Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4667,7 +4557,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:shade val="61000"/>
+                <a:shade val="70000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4679,6 +4569,37 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.4573910967773398"/>
+                      <c:h val="0.28816852371469592"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-1138-DA43-8824-98E0DC7CD9A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16486700581614244"/>
+                  <c:y val="0.14343590589332531"/>
+                </c:manualLayout>
+              </c:layout>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4690,13 +4611,13 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.32295382445942211"/>
-                      <c:h val="0.20151479768041178"/>
+                      <c:w val="0.32973401163228488"/>
+                      <c:h val="0.28687181178665061"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-1138-DA43-8824-98E0DC7CD9A1}"/>
+                  <c16:uniqueId val="{00000000-8E1A-9D44-A3C6-718FC13C464C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4712,7 +4633,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4754,7 +4675,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
+              <c:f>Charts!$D$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4768,12 +4689,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$Y$14:$Z$14</c:f>
+              <c:f>Charts!$D$29:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.223564573747916</c:v>
+                  <c:v>13.007877001694776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,11 +4710,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$X$15</c:f>
+              <c:f>Charts!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Extra Friction Energy</c:v>
+                  <c:v>Extra Steel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4801,7 +4722,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:shade val="76000"/>
+                <a:shade val="90000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4826,42 +4747,13 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.3302609400945809"/>
-                      <c:h val="0.28816848228204045"/>
+                      <c:w val="0.3257141610444545"/>
+                      <c:h val="0.13700716727706308"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-1138-DA43-8824-98E0DC7CD9A1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.16486700581614244"/>
-                  <c:y val="0.14343590589332531"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32973401163228488"/>
-                      <c:h val="0.28687181178665061"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-1C7B-C344-9C7A-88C489C2270E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4877,7 +4769,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4893,7 +4785,7 @@
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
@@ -4919,7 +4811,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
+              <c:f>Charts!$D$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4933,12 +4825,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$Y$15:$Z$15</c:f>
+              <c:f>Charts!$D$30:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.007877001694776</c:v>
+                  <c:v>5.8697049470408764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4954,11 +4846,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$X$16</c:f>
+              <c:f>Charts!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Extra Steel</c:v>
+                  <c:v>Joint Field Coating</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4966,7 +4858,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:shade val="92000"/>
+                <a:tint val="90000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4977,25 +4869,27 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="inBase"/>
+              <c:idx val="1"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.34482000705930721"/>
-                      <c:h val="0.16959281072066915"/>
+                      <c:w val="0.42059032265102331"/>
+                      <c:h val="0.13166952794027861"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1C7B-C344-9C7A-88C489C2270E}"/>
+                  <c16:uniqueId val="{00000001-8E1A-9D44-A3C6-718FC13C464C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5011,419 +4905,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Bare</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Coated</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$Y$16:$Z$16</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1138-DA43-8824-98E0DC7CD9A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$X$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Joint Field Coating</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:tint val="93000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-3.6789636209573311E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.34118041401020377"/>
-                      <c:h val="0.13166950063408836"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1C7B-C344-9C7A-88C489C2270E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Bare</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Coated</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$Y$17:$Z$17</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>8.3339999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1138-DA43-8824-98E0DC7CD9A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$X$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Extra Inspections</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="inBase"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.42325287533168615"/>
-                      <c:h val="7.0924851026919131E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1C7B-C344-9C7A-88C489C2270E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="3175">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Bare</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Coated</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$Y$18:$Z$18</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3.630816007291743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1138-DA43-8824-98E0DC7CD9A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$X$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shop Coating</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:tint val="62000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="inBase"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.34118024915873618"/>
-                      <c:h val="7.6931569393020455E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-1C7B-C344-9C7A-88C489C2270E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="3175">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5465,7 +4947,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
+              <c:f>Charts!$D$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5479,32 +4961,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$Y$19:$Z$19</c:f>
+              <c:f>Charts!$D$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>1.304653163553384</c:v>
+                  <c:v>8.3339999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1138-DA43-8824-98E0DC7CD9A1}"/>
+              <c16:uniqueId val="{00000003-1138-DA43-8824-98E0DC7CD9A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$X$20</c:f>
+              <c:f>Charts!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dosing Plant</c:v>
+                  <c:v>Extra Inspections</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5512,7 +4994,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:tint val="46000"/>
+                <a:tint val="70000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -5524,33 +5006,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-CL"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="inBase"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -5563,33 +5019,31 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.46038956454051672"/>
-                      <c:h val="6.8631133259626775E-2"/>
+                      <c:w val="0.42325279356674339"/>
+                      <c:h val="0.13742724310016732"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1C7B-C344-9C7A-88C489C2270E}"/>
+                  <c16:uniqueId val="{00000002-8E1A-9D44-A3C6-718FC13C464C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="3175">
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
@@ -5603,9 +5057,11 @@
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -5629,7 +5085,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$Y$13:$Z$13</c:f>
+              <c:f>Charts!$D$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5643,19 +5099,179 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$Y$20:$Z$20</c:f>
+              <c:f>Charts!$D$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.27216000000000001</c:v>
+                  <c:v>3.630816007291743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBDD-5045-BBC5-16AB47077F44}"/>
+              <c16:uniqueId val="{00000004-1138-DA43-8824-98E0DC7CD9A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shop Coating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="3175">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CL"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.48295408891976271"/>
+                      <c:h val="0.13604462262906025"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1808-4749-99AC-833ED213AB13}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Bare</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>1.304653163553384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1138-DA43-8824-98E0DC7CD9A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5668,7 +5284,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="15"/>
+        <c:gapWidth val="10"/>
         <c:overlap val="100"/>
         <c:axId val="792460480"/>
         <c:axId val="792462192"/>
@@ -5678,17 +5294,47 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CL"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="792462192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -5707,7 +5353,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00\ &quot;MM&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -5747,7 +5393,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="800" b="0" i="0">
+        <a:defRPr sz="1600" b="0" i="0">
           <a:solidFill>
             <a:schemeClr val="bg1"/>
           </a:solidFill>
@@ -7846,16 +7492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>677383</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>77981</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1454649</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>778932</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>202772</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555191</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8305,34 +7951,34 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="128" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="128" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2" s="128" t="s">
-        <v>234</v>
+      <c r="E2" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="127" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="127" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8341,9 +7987,9 @@
         <v>pipeline_length</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="127">
+        <v>138</v>
+      </c>
+      <c r="C3" s="126">
         <v>100000</v>
       </c>
       <c r="D3" t="s">
@@ -8362,9 +8008,9 @@
         <v>pipeline_length_km</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="142">
+        <v>138</v>
+      </c>
+      <c r="C4" s="141">
         <f>pipeline_length/1000</f>
         <v>100</v>
       </c>
@@ -8384,9 +8030,9 @@
         <v>elevation_change</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="127">
+        <v>142</v>
+      </c>
+      <c r="C5" s="126">
         <v>1000</v>
       </c>
       <c r="D5" t="s">
@@ -8405,9 +8051,9 @@
         <v>segment_length</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="127">
+        <v>128</v>
+      </c>
+      <c r="C6" s="126">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -8426,9 +8072,9 @@
         <v>outside_diameter_inches</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="127">
+        <v>127</v>
+      </c>
+      <c r="C7" s="126">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -8447,7 +8093,7 @@
         <v>outside_diameter</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <f>CONVERT(outside_diameter_inches,"in","m")</f>
@@ -8469,9 +8115,9 @@
         <v>wall_corrosion_rate_mm_yr</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="127">
+        <v>146</v>
+      </c>
+      <c r="C9" s="126">
         <v>0.15</v>
       </c>
       <c r="D9" t="s">
@@ -8483,12 +8129,12 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="148"/>
+      <c r="G9" s="147" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="147"/>
       <c r="J9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8497,9 +8143,9 @@
         <v>fbe_wall__yr_1_mm</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="127">
+        <v>134</v>
+      </c>
+      <c r="C10" s="126">
         <v>9.5299999999999994</v>
       </c>
       <c r="D10" t="s">
@@ -8518,7 +8164,7 @@
         <v>bare_wall__yr_1_mm</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <f>fbe_wall__yr_1_mm+wall_corrosion_rate_mm_yr*25</f>
@@ -8536,7 +8182,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C12">
         <f>bare_wall__yr_1_mm-fbe_wall__yr_1_mm</f>
@@ -8552,7 +8198,7 @@
         <v>bare_inside_diameter_yr_1</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <f>outside_diameter-bare_wall__yr_1_mm/1000*2</f>
@@ -8574,7 +8220,7 @@
         <v>fbe_inside_diameter_yr_1</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <f>outside_diameter-fbe_wall__yr_1_mm/1000*2</f>
@@ -8598,7 +8244,7 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="126">
         <v>700</v>
       </c>
       <c r="D15" t="s">
@@ -8639,9 +8285,9 @@
         <v>x70_steel_density</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="127">
+        <v>126</v>
+      </c>
+      <c r="C17" s="126">
         <v>7850</v>
       </c>
       <c r="D17" t="s">
@@ -8660,9 +8306,9 @@
         <v>fluid_density</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="127">
+        <v>147</v>
+      </c>
+      <c r="C18" s="126">
         <v>1030</v>
       </c>
       <c r="D18" t="s">
@@ -8681,13 +8327,13 @@
         <v>dynamic_viscosity_of_water</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="127">
+        <v>106</v>
+      </c>
+      <c r="C19" s="126">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -8702,9 +8348,9 @@
         <v>roughness_bare_yr_1_mm</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="146">
+        <v>132</v>
+      </c>
+      <c r="C20" s="145">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D20" t="s">
@@ -8716,15 +8362,15 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="148" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="148"/>
+      <c r="G20" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="147"/>
       <c r="I20">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8733,9 +8379,9 @@
         <v>roughness_bare_yr_25_mm</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="146">
+        <v>133</v>
+      </c>
+      <c r="C21" s="145">
         <v>0.72</v>
       </c>
       <c r="D21" t="s">
@@ -8747,15 +8393,15 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="148" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="148"/>
+      <c r="G21" s="147" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="147"/>
       <c r="I21">
         <v>0.72</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8764,9 +8410,9 @@
         <v>roughness_fbe_yr_1_mm</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="146">
+        <v>130</v>
+      </c>
+      <c r="C22" s="145">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D22" t="s">
@@ -8778,12 +8424,12 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="148" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="148"/>
+      <c r="G22" s="147" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="147"/>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8792,9 +8438,9 @@
         <v>roughness_fbe_yr_25_mm</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="146">
+        <v>131</v>
+      </c>
+      <c r="C23" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D23" t="s">
@@ -8806,12 +8452,12 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="148" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="148"/>
+      <c r="G23" s="147" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="147"/>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8820,13 +8466,13 @@
         <v>interior_fbe_thickness_µm</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="141">
+        <v>68</v>
+      </c>
+      <c r="C24" s="140">
         <v>500</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -8835,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8844,13 +8490,13 @@
         <v>service_life_yr</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="127">
+        <v>145</v>
+      </c>
+      <c r="C25" s="126">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -8865,9 +8511,9 @@
         <v>annual_hours_of_operation_h_yr</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="141">
+        <v>81</v>
+      </c>
+      <c r="C26" s="140">
         <v>8400</v>
       </c>
       <c r="D26" t="s">
@@ -8888,7 +8534,7 @@
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="141">
+      <c r="C27" s="140">
         <v>82</v>
       </c>
       <c r="D27" t="s">
@@ -8909,7 +8555,7 @@
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="103">
+      <c r="C28" s="102">
         <v>0.82</v>
       </c>
       <c r="E28" t="b">
@@ -8925,9 +8571,9 @@
         <v>annual_discount_rate_percent</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="127">
+        <v>67</v>
+      </c>
+      <c r="C29" s="126">
         <v>10</v>
       </c>
       <c r="D29" t="s">
@@ -8946,7 +8592,7 @@
         <v>annual_discount_rate</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <f>annual_discount_rate_percent/100</f>
@@ -8968,9 +8614,9 @@
         <v>hrc_price_usd_t</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="127">
+        <v>129</v>
+      </c>
+      <c r="C31" s="126">
         <v>470</v>
       </c>
       <c r="D31" t="s">
@@ -8982,8 +8628,8 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="str">
@@ -8991,13 +8637,13 @@
         <v>field_internal_joint_coating_service_usd_joint</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
-      </c>
-      <c r="C32" s="150">
+        <v>426</v>
+      </c>
+      <c r="C32" s="149">
         <v>1000</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -9006,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9015,13 +8661,13 @@
         <v>electrical_energy_usd_mwh</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="127">
+        <v>137</v>
+      </c>
+      <c r="C33" s="126">
         <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -9038,7 +8684,7 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="129">
+      <c r="C34" s="128">
         <v>9.8066499999999994</v>
       </c>
       <c r="D34" t="s">
@@ -9053,21 +8699,21 @@
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>420</v>
-      </c>
-      <c r="C35" s="186">
+        <v>414</v>
+      </c>
+      <c r="C35" s="185">
         <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="214">
+        <v>192</v>
+      </c>
+      <c r="C36" s="213">
         <v>9</v>
       </c>
-      <c r="D36" s="83" t="s">
-        <v>172</v>
+      <c r="D36" s="82" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9092,1219 +8738,1139 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="197"/>
-    <col min="2" max="2" width="8.5" style="197" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="197" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="197" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="197" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="197" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.83203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.83203125" style="197" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="68.83203125" style="197" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="197"/>
+    <col min="1" max="1" width="10.83203125" style="196"/>
+    <col min="2" max="2" width="8.5" style="196" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="196" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="196" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="196" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="196" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="196" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="196" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="196" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="196" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="196" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" style="196" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.83203125" style="196" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="68.83203125" style="196" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="196"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="12" thickBot="1"/>
     <row r="2" spans="2:19" ht="13" thickBot="1">
-      <c r="B2" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="198" t="s">
+      <c r="B2" s="197" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="198" t="s">
-        <v>387</v>
-      </c>
-      <c r="E2" s="198" t="s">
-        <v>386</v>
-      </c>
-      <c r="F2" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="198" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="198" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="198" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="198" t="s">
-        <v>382</v>
-      </c>
-      <c r="K2" s="198" t="s">
+      <c r="D2" s="197" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="197" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="197" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="197" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="197" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="197" t="s">
+        <v>376</v>
+      </c>
+      <c r="K2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="198" t="s">
-        <v>381</v>
-      </c>
-      <c r="M2" s="198" t="s">
-        <v>380</v>
-      </c>
-      <c r="N2" s="198" t="s">
-        <v>379</v>
-      </c>
-      <c r="O2" s="198" t="s">
-        <v>378</v>
-      </c>
-      <c r="P2" s="199" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q2" s="200" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="201" t="s">
+      <c r="L2" s="197" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="202">
+      <c r="M2" s="197" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="197" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="197" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="198" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q2" s="199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="200" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="201">
         <v>1998</v>
       </c>
-      <c r="D3" s="202" t="s">
+      <c r="D3" s="201" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="202">
+        <v>90</v>
+      </c>
+      <c r="G3" s="201" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="201" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="201" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="201"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="186" t="s">
+        <v>368</v>
+      </c>
+      <c r="R3" s="187" t="s">
+        <v>367</v>
+      </c>
+      <c r="S3" s="188" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="203" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="204">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="204" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="204">
+        <v>32</v>
+      </c>
+      <c r="F4" s="204">
+        <v>50</v>
+      </c>
+      <c r="G4" s="204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="204" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204" t="s">
+        <v>364</v>
+      </c>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O4" s="204"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="190" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="203" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="205">
+        <v>2008</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="204" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="204">
+        <v>130</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I5" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O5" s="204" t="s">
+        <v>301</v>
+      </c>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="203" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="204">
+        <v>2011</v>
+      </c>
+      <c r="D6" s="204" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="204" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="204">
+        <v>160</v>
+      </c>
+      <c r="G6" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="204" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O6" s="204"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="192"/>
+    </row>
+    <row r="7" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="203" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="204">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="204" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="204" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="204">
+        <v>80</v>
+      </c>
+      <c r="G7" s="204" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I7" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O7" s="204"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="192"/>
+    </row>
+    <row r="8" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="203" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="205">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="204" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="205">
+        <v>24</v>
+      </c>
+      <c r="F8" s="205">
+        <v>90</v>
+      </c>
+      <c r="G8" s="205" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I8" s="201"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O8" s="204" t="s">
+        <v>335</v>
+      </c>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="191" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="203" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="205">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="204" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="205" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="205">
+        <v>50</v>
+      </c>
+      <c r="G9" s="205" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I9" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="205"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O9" s="204"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="191"/>
+    </row>
+    <row r="10" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="203" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="204">
+        <v>2014</v>
+      </c>
+      <c r="D10" s="204" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="204" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="204">
+        <v>140</v>
+      </c>
+      <c r="G10" s="205" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="204" t="s">
+        <v>421</v>
+      </c>
+      <c r="I10" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="205"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O10" s="204"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="190" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="203" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="205">
+        <v>2014</v>
+      </c>
+      <c r="D11" s="204" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="204" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="205">
+        <v>160</v>
+      </c>
+      <c r="G11" s="204" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I11" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="204" t="s">
+        <v>295</v>
+      </c>
+      <c r="N11" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O11" s="204" t="s">
+        <v>294</v>
+      </c>
+      <c r="P11" s="194" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q11" s="190" t="s">
+        <v>313</v>
+      </c>
+      <c r="R11" s="188" t="s">
+        <v>340</v>
+      </c>
+      <c r="S11" s="188" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="203" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="204">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="204" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="205" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="205">
+        <v>160</v>
+      </c>
+      <c r="G12" s="204" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I12" s="201"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204" t="s">
+        <v>336</v>
+      </c>
+      <c r="L12" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M12" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="N12" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O12" s="204" t="s">
+        <v>335</v>
+      </c>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="190"/>
+    </row>
+    <row r="13" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="203" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="205">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="204" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="204" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="205">
+        <v>160</v>
+      </c>
+      <c r="G13" s="204" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I13" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+    </row>
+    <row r="14" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="204">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="204" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="204" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="204">
+        <v>60</v>
+      </c>
+      <c r="G14" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I14" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" s="204"/>
+      <c r="N14" s="201" t="s">
+        <v>315</v>
+      </c>
+      <c r="O14" s="204" t="s">
+        <v>314</v>
+      </c>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="204">
+        <v>2023</v>
+      </c>
+      <c r="D15" s="204" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="206" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="206">
+        <v>160</v>
+      </c>
+      <c r="G15" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I15" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="204"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O15" s="204" t="s">
+        <v>310</v>
+      </c>
+      <c r="P15" s="194"/>
+    </row>
+    <row r="16" spans="2:19" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="203" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="204">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="204" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="204" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="204">
+        <v>120</v>
+      </c>
+      <c r="G16" s="204" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I16" s="201"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O16" s="204" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" s="207"/>
+      <c r="Q16" s="193"/>
+    </row>
+    <row r="17" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="203" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="205">
+        <v>2026</v>
+      </c>
+      <c r="D17" s="204" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="204" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="205">
+        <v>60</v>
+      </c>
+      <c r="G17" s="204" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="204" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="204" t="s">
+        <v>303</v>
+      </c>
+      <c r="M17" s="204" t="s">
+        <v>302</v>
+      </c>
+      <c r="N17" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17" s="204" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="207"/>
+    </row>
+    <row r="18" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="203" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="204">
+        <v>2026</v>
+      </c>
+      <c r="D18" s="204" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="204" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="204">
+        <v>194</v>
+      </c>
+      <c r="G18" s="204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I18" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="204" t="s">
+        <v>296</v>
+      </c>
+      <c r="M18" s="204" t="s">
+        <v>295</v>
+      </c>
+      <c r="N18" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O18" s="204" t="s">
+        <v>294</v>
+      </c>
+      <c r="P18" s="207"/>
+    </row>
+    <row r="19" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="203" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="204">
+        <v>2026</v>
+      </c>
+      <c r="D19" s="204" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="204" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="204">
+        <v>160</v>
+      </c>
+      <c r="G19" s="204" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I19" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M19" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="N19" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O19" s="204"/>
+      <c r="P19" s="207"/>
+    </row>
+    <row r="20" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="203" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="204">
+        <v>2026</v>
+      </c>
+      <c r="D20" s="204" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="204" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="204">
+        <v>24</v>
+      </c>
+      <c r="G20" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="204" t="s">
+        <v>418</v>
+      </c>
+      <c r="I20" s="204"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O20" s="204" t="s">
+        <v>283</v>
+      </c>
+      <c r="P20" s="207"/>
+    </row>
+    <row r="21" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="203" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="204">
+        <v>2026</v>
+      </c>
+      <c r="D21" s="204" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="204" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="204">
+        <v>90</v>
+      </c>
+      <c r="G21" s="204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="204" t="s">
+        <v>420</v>
+      </c>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="207"/>
+    </row>
+    <row r="22" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="208" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="209">
+        <v>2027</v>
+      </c>
+      <c r="D22" s="209" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="209" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="209">
+        <v>120</v>
+      </c>
+      <c r="G22" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="O22" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="P22" s="211"/>
+    </row>
+    <row r="23" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="203" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="204">
+        <v>2026</v>
+      </c>
+      <c r="D23" s="204" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="207"/>
+    </row>
+    <row r="24" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="203" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="204">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="204" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="204" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" s="204">
+        <v>70</v>
+      </c>
+      <c r="G24" s="204" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="201" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J24" s="204"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O24" s="204" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="203" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="204">
+        <v>2009</v>
+      </c>
+      <c r="D25" s="204" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="204" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" s="204">
+        <v>60</v>
+      </c>
+      <c r="G25" s="204" t="s">
+        <v>358</v>
+      </c>
+      <c r="H25" s="204" t="s">
+        <v>419</v>
+      </c>
+      <c r="I25" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="186" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B26" s="203" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="204">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="204" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="204" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="204">
+        <v>20</v>
+      </c>
+      <c r="G26" s="204" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" s="204" t="s">
+        <v>421</v>
+      </c>
+      <c r="I26" s="201"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O26" s="204" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B27" s="203" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="205">
+        <v>2008</v>
+      </c>
+      <c r="D27" s="204" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="204" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="204">
+        <v>20</v>
+      </c>
+      <c r="G27" s="204" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" s="204" t="s">
+        <v>416</v>
+      </c>
+      <c r="I27" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J27" s="204"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O27" s="204" t="s">
+        <v>301</v>
+      </c>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B28" s="203" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="203" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" s="203">
-        <v>90</v>
-      </c>
-      <c r="G3" s="202" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="202" t="s">
-        <v>421</v>
-      </c>
-      <c r="I3" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" s="202" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="202" t="s">
-        <v>303</v>
-      </c>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O3" s="202"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="187" t="s">
-        <v>374</v>
-      </c>
-      <c r="R3" s="188" t="s">
-        <v>373</v>
-      </c>
-      <c r="S3" s="189" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="204" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="205">
-        <v>2007</v>
-      </c>
-      <c r="D4" s="205" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="205">
-        <v>32</v>
-      </c>
-      <c r="F4" s="205">
-        <v>50</v>
-      </c>
-      <c r="G4" s="205" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="205" t="s">
-        <v>425</v>
-      </c>
-      <c r="I4" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205" t="s">
-        <v>370</v>
-      </c>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O4" s="205"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="191" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="204" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" s="206">
-        <v>2008</v>
-      </c>
-      <c r="D5" s="205" t="s">
+      <c r="C28" s="205">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="204" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="205" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="205">
+        <v>30</v>
+      </c>
+      <c r="G28" s="205" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="204" t="s">
+        <v>422</v>
+      </c>
+      <c r="I28" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J28" s="205"/>
+      <c r="K28" s="204" t="s">
+        <v>333</v>
+      </c>
+      <c r="L28" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="N28" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" s="204" t="s">
+        <v>301</v>
+      </c>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="190" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" s="189" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B29" s="203" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="205" t="s">
+      <c r="C29" s="205">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="204" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="205" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="205">
+        <v>30</v>
+      </c>
+      <c r="G29" s="205" t="s">
+        <v>328</v>
+      </c>
+      <c r="H29" s="201" t="s">
+        <v>418</v>
+      </c>
+      <c r="I29" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="J29" s="205"/>
+      <c r="K29" s="204" t="s">
+        <v>327</v>
+      </c>
+      <c r="L29" s="204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" s="204"/>
+      <c r="N29" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" s="204" t="s">
+        <v>301</v>
+      </c>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="191" t="s">
         <v>322</v>
-      </c>
-      <c r="F5" s="205">
-        <v>130</v>
-      </c>
-      <c r="G5" s="205" t="s">
-        <v>369</v>
-      </c>
-      <c r="H5" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I5" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O5" s="205" t="s">
-        <v>307</v>
-      </c>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="191" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="204" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="205">
-        <v>2011</v>
-      </c>
-      <c r="D6" s="205" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" s="205" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="205">
-        <v>160</v>
-      </c>
-      <c r="G6" s="205" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="205" t="s">
-        <v>426</v>
-      </c>
-      <c r="I6" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O6" s="205"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="193"/>
-    </row>
-    <row r="7" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="204" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="205">
-        <v>2012</v>
-      </c>
-      <c r="D7" s="205" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="205" t="s">
-        <v>359</v>
-      </c>
-      <c r="F7" s="205">
-        <v>80</v>
-      </c>
-      <c r="G7" s="205" t="s">
-        <v>358</v>
-      </c>
-      <c r="H7" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I7" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O7" s="205"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="193"/>
-    </row>
-    <row r="8" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="204" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="206">
-        <v>2013</v>
-      </c>
-      <c r="D8" s="205" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="206">
-        <v>24</v>
-      </c>
-      <c r="F8" s="206">
-        <v>90</v>
-      </c>
-      <c r="G8" s="206" t="s">
-        <v>355</v>
-      </c>
-      <c r="H8" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I8" s="202"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O8" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="192" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="204" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="206">
-        <v>2013</v>
-      </c>
-      <c r="D9" s="205" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="206" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" s="206">
-        <v>50</v>
-      </c>
-      <c r="G9" s="206" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I9" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="206"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O9" s="205"/>
-      <c r="P9" s="195"/>
-      <c r="Q9" s="192"/>
-    </row>
-    <row r="10" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="204" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="205">
-        <v>2014</v>
-      </c>
-      <c r="D10" s="205" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" s="205" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="205">
-        <v>140</v>
-      </c>
-      <c r="G10" s="206" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" s="205" t="s">
-        <v>427</v>
-      </c>
-      <c r="I10" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J10" s="206"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O10" s="205"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="191" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="204" t="s">
-        <v>348</v>
-      </c>
-      <c r="C11" s="206">
-        <v>2014</v>
-      </c>
-      <c r="D11" s="205" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="205" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="206">
-        <v>160</v>
-      </c>
-      <c r="G11" s="205" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I11" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205" t="s">
-        <v>303</v>
-      </c>
-      <c r="L11" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="M11" s="205" t="s">
-        <v>301</v>
-      </c>
-      <c r="N11" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O11" s="205" t="s">
-        <v>300</v>
-      </c>
-      <c r="P11" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="191" t="s">
-        <v>319</v>
-      </c>
-      <c r="R11" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="S11" s="189" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="204" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12" s="205">
-        <v>2018</v>
-      </c>
-      <c r="D12" s="205" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12" s="206" t="s">
-        <v>286</v>
-      </c>
-      <c r="F12" s="206">
-        <v>160</v>
-      </c>
-      <c r="G12" s="205" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I12" s="202"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205" t="s">
-        <v>342</v>
-      </c>
-      <c r="L12" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="M12" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="N12" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O12" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="191"/>
-    </row>
-    <row r="13" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="204" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="206">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="205" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13" s="205" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="206">
-        <v>160</v>
-      </c>
-      <c r="G13" s="205" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I13" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="205"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="189"/>
-      <c r="S13" s="189"/>
-    </row>
-    <row r="14" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="204" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="205">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="205" t="s">
-        <v>312</v>
-      </c>
-      <c r="E14" s="205" t="s">
-        <v>322</v>
-      </c>
-      <c r="F14" s="205">
-        <v>60</v>
-      </c>
-      <c r="G14" s="205" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I14" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="M14" s="205"/>
-      <c r="N14" s="202" t="s">
-        <v>321</v>
-      </c>
-      <c r="O14" s="205" t="s">
-        <v>320</v>
-      </c>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="191" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="204" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" s="205">
-        <v>2023</v>
-      </c>
-      <c r="D15" s="205" t="s">
-        <v>317</v>
-      </c>
-      <c r="E15" s="207" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="207">
-        <v>160</v>
-      </c>
-      <c r="G15" s="205" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I15" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O15" s="205" t="s">
-        <v>316</v>
-      </c>
-      <c r="P15" s="195"/>
-    </row>
-    <row r="16" spans="2:19" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="204" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="205">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="205" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" s="205" t="s">
-        <v>290</v>
-      </c>
-      <c r="F16" s="205">
-        <v>120</v>
-      </c>
-      <c r="G16" s="205" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I16" s="202"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O16" s="205" t="s">
-        <v>280</v>
-      </c>
-      <c r="P16" s="208"/>
-      <c r="Q16" s="194"/>
-    </row>
-    <row r="17" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="204" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="206">
-        <v>2026</v>
-      </c>
-      <c r="D17" s="205" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" s="205" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="206">
-        <v>60</v>
-      </c>
-      <c r="G17" s="205" t="s">
-        <v>311</v>
-      </c>
-      <c r="H17" s="205" t="s">
-        <v>423</v>
-      </c>
-      <c r="I17" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205" t="s">
-        <v>310</v>
-      </c>
-      <c r="L17" s="205" t="s">
-        <v>309</v>
-      </c>
-      <c r="M17" s="205" t="s">
-        <v>308</v>
-      </c>
-      <c r="N17" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O17" s="205" t="s">
-        <v>307</v>
-      </c>
-      <c r="P17" s="208"/>
-    </row>
-    <row r="18" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="204" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="205">
-        <v>2026</v>
-      </c>
-      <c r="D18" s="205" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" s="205" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="205">
-        <v>194</v>
-      </c>
-      <c r="G18" s="205" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I18" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="205" t="s">
-        <v>302</v>
-      </c>
-      <c r="M18" s="205" t="s">
-        <v>301</v>
-      </c>
-      <c r="N18" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O18" s="205" t="s">
-        <v>300</v>
-      </c>
-      <c r="P18" s="208"/>
-    </row>
-    <row r="19" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="204" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19" s="205">
-        <v>2026</v>
-      </c>
-      <c r="D19" s="205" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" s="205" t="s">
-        <v>297</v>
-      </c>
-      <c r="F19" s="205">
-        <v>160</v>
-      </c>
-      <c r="G19" s="205" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I19" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205" t="s">
-        <v>294</v>
-      </c>
-      <c r="L19" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="M19" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="N19" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O19" s="205"/>
-      <c r="P19" s="208"/>
-    </row>
-    <row r="20" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="204" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="205">
-        <v>2026</v>
-      </c>
-      <c r="D20" s="205" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="205" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" s="205">
-        <v>24</v>
-      </c>
-      <c r="G20" s="205" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="205" t="s">
-        <v>424</v>
-      </c>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O20" s="205" t="s">
-        <v>289</v>
-      </c>
-      <c r="P20" s="208"/>
-    </row>
-    <row r="21" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="204" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="205">
-        <v>2026</v>
-      </c>
-      <c r="D21" s="205" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" s="205" t="s">
-        <v>286</v>
-      </c>
-      <c r="F21" s="205">
-        <v>90</v>
-      </c>
-      <c r="G21" s="205" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="205" t="s">
-        <v>426</v>
-      </c>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="208"/>
-    </row>
-    <row r="22" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="209" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="210">
-        <v>2027</v>
-      </c>
-      <c r="D22" s="210" t="s">
-        <v>283</v>
-      </c>
-      <c r="E22" s="210" t="s">
-        <v>282</v>
-      </c>
-      <c r="F22" s="210">
-        <v>120</v>
-      </c>
-      <c r="G22" s="210" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="210" t="s">
-        <v>422</v>
-      </c>
-      <c r="I22" s="210"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="211" t="s">
-        <v>281</v>
-      </c>
-      <c r="O22" s="210" t="s">
-        <v>280</v>
-      </c>
-      <c r="P22" s="212"/>
-    </row>
-    <row r="23" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="204" t="s">
-        <v>285</v>
-      </c>
-      <c r="C23" s="205">
-        <v>2026</v>
-      </c>
-      <c r="D23" s="205" t="s">
-        <v>285</v>
-      </c>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="208"/>
-    </row>
-    <row r="24" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="204" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="205">
-        <v>2021</v>
-      </c>
-      <c r="D24" s="205" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="205" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24" s="205">
-        <v>70</v>
-      </c>
-      <c r="G24" s="205" t="s">
-        <v>329</v>
-      </c>
-      <c r="H24" s="202" t="s">
-        <v>427</v>
-      </c>
-      <c r="I24" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O24" s="205" t="s">
-        <v>300</v>
-      </c>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="192" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="204" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="205">
-        <v>2009</v>
-      </c>
-      <c r="D25" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E25" s="205" t="s">
-        <v>365</v>
-      </c>
-      <c r="F25" s="205">
-        <v>60</v>
-      </c>
-      <c r="G25" s="205" t="s">
-        <v>364</v>
-      </c>
-      <c r="H25" s="205" t="s">
-        <v>425</v>
-      </c>
-      <c r="I25" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J25" s="205"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="187" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="204" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="205">
-        <v>2021</v>
-      </c>
-      <c r="D26" s="205" t="s">
-        <v>326</v>
-      </c>
-      <c r="E26" s="205" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="205">
-        <v>20</v>
-      </c>
-      <c r="G26" s="205" t="s">
-        <v>324</v>
-      </c>
-      <c r="H26" s="205" t="s">
-        <v>427</v>
-      </c>
-      <c r="I26" s="202"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O26" s="205" t="s">
-        <v>300</v>
-      </c>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="191" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="204" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="206">
-        <v>2008</v>
-      </c>
-      <c r="D27" s="205" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" s="205" t="s">
-        <v>322</v>
-      </c>
-      <c r="F27" s="205">
-        <v>20</v>
-      </c>
-      <c r="G27" s="205" t="s">
-        <v>367</v>
-      </c>
-      <c r="H27" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="I27" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J27" s="205"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O27" s="205" t="s">
-        <v>307</v>
-      </c>
-      <c r="P27" s="195"/>
-      <c r="Q27" s="191" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B28" s="204" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="206">
-        <v>2018</v>
-      </c>
-      <c r="D28" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E28" s="206" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" s="206">
-        <v>30</v>
-      </c>
-      <c r="G28" s="206" t="s">
-        <v>340</v>
-      </c>
-      <c r="H28" s="205" t="s">
-        <v>428</v>
-      </c>
-      <c r="I28" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J28" s="206"/>
-      <c r="K28" s="205" t="s">
-        <v>339</v>
-      </c>
-      <c r="L28" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="M28" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="N28" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O28" s="205" t="s">
-        <v>307</v>
-      </c>
-      <c r="P28" s="195"/>
-      <c r="Q28" s="191" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" s="190" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B29" s="204" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29" s="206">
-        <v>2018</v>
-      </c>
-      <c r="D29" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E29" s="206" t="s">
-        <v>335</v>
-      </c>
-      <c r="F29" s="206">
-        <v>30</v>
-      </c>
-      <c r="G29" s="206" t="s">
-        <v>334</v>
-      </c>
-      <c r="H29" s="202" t="s">
-        <v>424</v>
-      </c>
-      <c r="I29" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="J29" s="206"/>
-      <c r="K29" s="205" t="s">
-        <v>333</v>
-      </c>
-      <c r="L29" s="205" t="s">
-        <v>293</v>
-      </c>
-      <c r="M29" s="205"/>
-      <c r="N29" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="O29" s="205" t="s">
-        <v>307</v>
-      </c>
-      <c r="P29" s="195"/>
-      <c r="Q29" s="192" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D8109-15E4-A940-B9BB-5B54D77C876A}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="81">
-        <v>4.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3">
-        <f>design_flow_rate_l_s/1000</f>
-        <v>0.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4">
-        <f>(24 * 60 * 60)</f>
-        <v>86400</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="8">
-        <f>Dosing_investment*B3*B4</f>
-        <v>272160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10332,7 +9898,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>24</v>
@@ -10341,15 +9907,15 @@
         <v>23</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="74">
         <f>x70_steel_density</f>
@@ -10364,7 +9930,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <f>bare_wall__yr_1_mm</f>
@@ -10379,7 +9945,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <f>outside_diameter</f>
@@ -10394,7 +9960,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="74">
         <f>pipeline_length</f>
@@ -10409,14 +9975,14 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="73">
         <f>hrc_price_usd_t/1000</f>
         <v>0.47</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -10424,7 +9990,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -10438,7 +10004,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>120</v>
@@ -10452,7 +10018,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -10466,7 +10032,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <f>SUM(C8:C10)</f>
@@ -10478,14 +10044,14 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="73">
         <f>SUM(C8:C10)/1000</f>
         <v>0.17</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -10493,14 +10059,14 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="185">
+        <v>240</v>
+      </c>
+      <c r="C13" s="184">
         <f>(C7*hrc_to_X70_multiplier+C12)</f>
         <v>0.92200000000000004</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -10508,9 +10074,9 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="171">
+        <v>240</v>
+      </c>
+      <c r="C14" s="170">
         <f>cost_per_steel_weight*1000</f>
         <v>922</v>
       </c>
@@ -10520,9 +10086,9 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="109">
+        <v>194</v>
+      </c>
+      <c r="C15" s="108">
         <f>bare_inside_diameter_yr_1</f>
         <v>0.68464000000000003</v>
       </c>
@@ -10535,26 +10101,26 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="110">
+        <v>193</v>
+      </c>
+      <c r="C16" s="109">
         <f>PI()/4*(outside_diameter^2-bare_inside_diameter_yr_1^2)</f>
         <v>2.9117466978856206E-2</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="215" t="s">
-        <v>390</v>
-      </c>
-      <c r="I16" s="215"/>
+      <c r="H16" s="228" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="228"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="75" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C17" s="74">
         <f>C18/1000</f>
@@ -10564,73 +10130,73 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H17">
         <v>0.8</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J17" s="73"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="75" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C18" s="76">
         <f>volume_1_m_bare*C3*C6</f>
         <v>22857211.578402121</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H18">
         <v>0.1</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18" s="73"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="9">
         <f>C13*C18</f>
         <v>21074349.075286757</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H19">
         <v>0.1</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J19" s="73"/>
     </row>
     <row r="20" spans="2:10">
       <c r="G20" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H20">
         <f>freight_cost</f>
         <v>0.17</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J20" s="73"/>
     </row>
@@ -10642,7 +10208,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>24</v>
@@ -10651,15 +10217,15 @@
         <v>23</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="74">
         <f>x70_steel_density</f>
@@ -10674,7 +10240,7 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24">
         <f>fbe_wall__yr_1_mm</f>
@@ -10689,7 +10255,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C25">
         <f>fbe_inside_diameter_yr_1</f>
@@ -10704,14 +10270,14 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C26">
         <f>PI()*(outside_diameter^2-fbe_inside_diameter_yr_1^2)/4</f>
         <v>2.1007563353338601E-2</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -10719,7 +10285,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C27" s="74">
         <f>C28/1000</f>
@@ -10731,14 +10297,14 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="75" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C28" s="76">
         <f>volume_1_m_fbe*C3*C6</f>
         <v>16490937.232370803</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -10746,14 +10312,14 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" s="9">
         <f>C13*C28</f>
         <v>15204644.128245881</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -10761,18 +10327,18 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C33">
         <f>bare_wall__yr_1_mm</f>
@@ -10789,7 +10355,7 @@
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C34" s="74">
         <f>bare_steel_weight_t</f>
@@ -10803,7 +10369,7 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C35" s="8">
         <f>Steel_c2</f>
@@ -10820,7 +10386,7 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C36" s="8">
         <f>capex_steel_bare-C28</f>
@@ -10833,13 +10399,13 @@
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="77" t="s">
         <v>164</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:14">
@@ -10881,505 +10447,505 @@
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="174" t="s">
-        <v>417</v>
-      </c>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174">
+      <c r="B45" s="173" t="s">
+        <v>411</v>
+      </c>
+      <c r="C45" s="173"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="173"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173">
         <v>0.35295940879288684</v>
       </c>
-      <c r="K45" s="174">
+      <c r="K45" s="173">
         <f>O47*J45</f>
         <v>0</v>
       </c>
-      <c r="L45" s="177">
+      <c r="L45" s="176">
         <f>K45-J47</f>
         <v>-2441015.5559999999</v>
       </c>
-      <c r="M45" s="174"/>
+      <c r="M45" s="173"/>
     </row>
     <row r="46" spans="2:14" ht="31">
-      <c r="B46" s="174" t="s">
-        <v>416</v>
-      </c>
-      <c r="C46" s="174" t="s">
-        <v>418</v>
-      </c>
-      <c r="D46" s="174" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="174" t="s">
+      <c r="B46" s="173" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" s="173" t="s">
+        <v>412</v>
+      </c>
+      <c r="D46" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="173" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="178" t="s">
+        <v>407</v>
+      </c>
+      <c r="G46" s="173" t="s">
+        <v>388</v>
+      </c>
+      <c r="H46" s="173" t="s">
         <v>409</v>
       </c>
-      <c r="F46" s="179" t="s">
+      <c r="I46" s="173" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" s="173" t="s">
+        <v>408</v>
+      </c>
+      <c r="K46" s="173" t="s">
+        <v>404</v>
+      </c>
+      <c r="L46" s="173" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="N46" s="173" t="s">
         <v>413</v>
       </c>
-      <c r="G46" s="174" t="s">
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="179">
+        <v>45715</v>
+      </c>
+      <c r="C47" s="174">
+        <v>15.88</v>
+      </c>
+      <c r="D47" s="173">
+        <v>1</v>
+      </c>
+      <c r="E47" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="F47" s="175">
+        <v>19644</v>
+      </c>
+      <c r="G47" s="173" t="s">
         <v>394</v>
       </c>
-      <c r="H46" s="174" t="s">
-        <v>415</v>
-      </c>
-      <c r="I46" s="174" t="s">
-        <v>395</v>
-      </c>
-      <c r="J46" s="174" t="s">
-        <v>414</v>
-      </c>
-      <c r="K46" s="174" t="s">
-        <v>410</v>
-      </c>
-      <c r="L46" s="174" t="s">
-        <v>411</v>
-      </c>
-      <c r="M46" s="174" t="s">
-        <v>412</v>
-      </c>
-      <c r="N46" s="174" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="180">
-        <v>45715</v>
-      </c>
-      <c r="C47" s="175">
-        <v>15.88</v>
-      </c>
-      <c r="D47" s="174">
-        <v>1</v>
-      </c>
-      <c r="E47" s="174" t="s">
-        <v>397</v>
-      </c>
-      <c r="F47" s="176">
-        <v>19644</v>
-      </c>
-      <c r="G47" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H47" s="174" t="s">
-        <v>396</v>
-      </c>
-      <c r="I47" s="174">
+      <c r="H47" s="173" t="s">
+        <v>390</v>
+      </c>
+      <c r="I47" s="173">
         <v>28</v>
       </c>
-      <c r="J47" s="177">
+      <c r="J47" s="176">
         <v>2441015.5559999999</v>
       </c>
-      <c r="K47" s="182">
+      <c r="K47" s="181">
         <f>PI()/4*(CONVERT(I47,"in","m")^2-(CONVERT(I47,"in","m")-C47/1000)^2)*F47</f>
         <v>344.60074887609795</v>
       </c>
-      <c r="L47" s="181">
+      <c r="L47" s="180">
         <f>K47*x70_steel_density</f>
         <v>2705115.8786773691</v>
       </c>
-      <c r="M47" s="184">
+      <c r="M47" s="183">
         <f t="shared" ref="M47:M57" si="0">J47/L47</f>
         <v>0.90237005196003006</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="180">
+      <c r="B48" s="179">
         <v>45715</v>
       </c>
-      <c r="C48" s="175">
+      <c r="C48" s="174">
         <v>12.7</v>
       </c>
-      <c r="D48" s="174">
+      <c r="D48" s="173">
         <v>2</v>
       </c>
-      <c r="E48" s="174" t="s">
-        <v>398</v>
-      </c>
-      <c r="F48" s="176">
+      <c r="E48" s="173" t="s">
+        <v>392</v>
+      </c>
+      <c r="F48" s="175">
         <v>25836</v>
       </c>
-      <c r="G48" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H48" s="174" t="s">
-        <v>396</v>
-      </c>
-      <c r="I48" s="174">
+      <c r="G48" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H48" s="173" t="s">
+        <v>390</v>
+      </c>
+      <c r="I48" s="173">
         <v>28</v>
       </c>
-      <c r="J48" s="177">
+      <c r="J48" s="176">
         <v>2579293.7694999995</v>
       </c>
-      <c r="K48" s="182">
+      <c r="K48" s="181">
         <f t="shared" ref="K48:K49" si="1">PI()/4*(CONVERT(I48,"in","m")^2-(CONVERT(I48,"in","m")-C48/1000)^2)*F48</f>
         <v>363.28342043147217</v>
       </c>
-      <c r="L48" s="181">
+      <c r="L48" s="180">
         <f>K48*x70_steel_density</f>
         <v>2851774.8503870564</v>
       </c>
-      <c r="M48" s="184">
+      <c r="M48" s="183">
         <f t="shared" si="0"/>
         <v>0.9044521060805083</v>
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="180">
+      <c r="B49" s="179">
         <v>45715</v>
       </c>
-      <c r="C49" s="175">
+      <c r="C49" s="174">
         <v>9.5299999999999994</v>
       </c>
-      <c r="D49" s="174">
+      <c r="D49" s="173">
         <v>3</v>
       </c>
-      <c r="E49" s="174" t="s">
-        <v>399</v>
-      </c>
-      <c r="F49" s="176">
+      <c r="E49" s="173" t="s">
+        <v>393</v>
+      </c>
+      <c r="F49" s="175">
         <v>24540</v>
       </c>
-      <c r="G49" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H49" s="174" t="s">
-        <v>396</v>
-      </c>
-      <c r="I49" s="174">
+      <c r="G49" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H49" s="173" t="s">
+        <v>390</v>
+      </c>
+      <c r="I49" s="173">
         <v>28</v>
       </c>
-      <c r="J49" s="177">
+      <c r="J49" s="176">
         <v>1846740.0559999999</v>
       </c>
-      <c r="K49" s="182">
+      <c r="K49" s="181">
         <f t="shared" si="1"/>
         <v>259.51325448561124</v>
       </c>
-      <c r="L49" s="181">
+      <c r="L49" s="180">
         <f>K49*x70_steel_density</f>
         <v>2037179.0477120483</v>
       </c>
-      <c r="M49" s="184">
+      <c r="M49" s="183">
         <f t="shared" si="0"/>
         <v>0.90651828472027041</v>
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="180">
+      <c r="B50" s="179">
         <v>45715</v>
       </c>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174">
+      <c r="C50" s="173"/>
+      <c r="D50" s="173">
         <v>4</v>
       </c>
-      <c r="E50" s="174"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="178">
+      <c r="E50" s="173"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="177">
         <f>SUM(J47:J49)</f>
         <v>6867049.3814999992</v>
       </c>
-      <c r="K50" s="183"/>
-      <c r="L50" s="174"/>
-      <c r="M50" s="174"/>
+      <c r="K50" s="182"/>
+      <c r="L50" s="173"/>
+      <c r="M50" s="173"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="180">
+      <c r="B51" s="179">
         <v>45715</v>
       </c>
-      <c r="C51" s="175">
+      <c r="C51" s="174">
         <v>15.88</v>
       </c>
-      <c r="D51" s="174">
+      <c r="D51" s="173">
         <v>5</v>
       </c>
-      <c r="E51" s="174" t="s">
-        <v>402</v>
-      </c>
-      <c r="F51" s="176">
+      <c r="E51" s="173" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="175">
         <v>19644</v>
       </c>
-      <c r="G51" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H51" s="174" t="s">
-        <v>404</v>
-      </c>
-      <c r="I51" s="174">
+      <c r="G51" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H51" s="173" t="s">
+        <v>398</v>
+      </c>
+      <c r="I51" s="173">
         <v>28</v>
       </c>
-      <c r="J51" s="177">
+      <c r="J51" s="176">
         <v>2725760.142</v>
       </c>
-      <c r="K51" s="182">
+      <c r="K51" s="181">
         <f>PI()/4*(CONVERT(I51,"in","m")^2-(CONVERT(I51,"in","m")-C51/1000)^2)*F51</f>
         <v>344.60074887609795</v>
       </c>
-      <c r="L51" s="181">
+      <c r="L51" s="180">
         <f>K51*x70_steel_density</f>
         <v>2705115.8786773691</v>
       </c>
-      <c r="M51" s="177">
+      <c r="M51" s="176">
         <f t="shared" si="0"/>
         <v>1.0076315633963617</v>
       </c>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="180">
+      <c r="B52" s="179">
         <v>45715</v>
       </c>
-      <c r="C52" s="175">
+      <c r="C52" s="174">
         <v>12.7</v>
       </c>
-      <c r="D52" s="174">
+      <c r="D52" s="173">
         <v>6</v>
       </c>
-      <c r="E52" s="174" t="s">
-        <v>401</v>
-      </c>
-      <c r="F52" s="176">
+      <c r="E52" s="173" t="s">
+        <v>395</v>
+      </c>
+      <c r="F52" s="175">
         <v>25836</v>
       </c>
-      <c r="G52" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H52" s="174" t="s">
-        <v>404</v>
-      </c>
-      <c r="I52" s="174">
+      <c r="G52" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H52" s="173" t="s">
+        <v>398</v>
+      </c>
+      <c r="I52" s="173">
         <v>28</v>
       </c>
-      <c r="J52" s="177">
+      <c r="J52" s="176">
         <v>2880168.5184999998</v>
       </c>
-      <c r="K52" s="182">
+      <c r="K52" s="181">
         <f t="shared" ref="K52:K53" si="2">PI()/4*(CONVERT(I52,"in","m")^2-(CONVERT(I52,"in","m")-C52/1000)^2)*F52</f>
         <v>363.28342043147217</v>
       </c>
-      <c r="L52" s="181">
+      <c r="L52" s="180">
         <f>K52*x70_steel_density</f>
         <v>2851774.8503870564</v>
       </c>
-      <c r="M52" s="177">
+      <c r="M52" s="176">
         <f t="shared" si="0"/>
         <v>1.009956490116704</v>
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="180">
+      <c r="B53" s="179">
         <v>45715</v>
       </c>
-      <c r="C53" s="175">
+      <c r="C53" s="174">
         <v>9.5299999999999994</v>
       </c>
-      <c r="D53" s="174">
+      <c r="D53" s="173">
         <v>7</v>
       </c>
-      <c r="E53" s="174" t="s">
-        <v>403</v>
-      </c>
-      <c r="F53" s="176">
+      <c r="E53" s="173" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="175">
         <v>24540</v>
       </c>
-      <c r="G53" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H53" s="174" t="s">
-        <v>404</v>
-      </c>
-      <c r="I53" s="174">
+      <c r="G53" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H53" s="173" t="s">
+        <v>398</v>
+      </c>
+      <c r="I53" s="173">
         <v>28</v>
       </c>
-      <c r="J53" s="177">
+      <c r="J53" s="176">
         <v>2062162.3784999999</v>
       </c>
-      <c r="K53" s="182">
+      <c r="K53" s="181">
         <f t="shared" si="2"/>
         <v>259.51325448561124</v>
       </c>
-      <c r="L53" s="181">
+      <c r="L53" s="180">
         <f>K53*x70_steel_density</f>
         <v>2037179.0477120483</v>
       </c>
-      <c r="M53" s="177">
+      <c r="M53" s="176">
         <f t="shared" si="0"/>
         <v>1.0122636892500982</v>
       </c>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="180">
+      <c r="B54" s="179">
         <v>45715</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174">
+      <c r="C54" s="173"/>
+      <c r="D54" s="173">
         <v>8</v>
       </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="178">
+      <c r="E54" s="173"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="177">
         <f>SUM(J51:J53)</f>
         <v>7668091.0389999989</v>
       </c>
-      <c r="K54" s="183"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="153">
+      <c r="K54" s="182"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="152">
         <f>1-J54/J50</f>
         <v>-0.11665005055271993</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="180">
+      <c r="B55" s="179">
         <v>45715</v>
       </c>
-      <c r="C55" s="175">
+      <c r="C55" s="174">
         <v>15.88</v>
       </c>
-      <c r="D55" s="174">
+      <c r="D55" s="173">
         <v>9</v>
       </c>
-      <c r="E55" s="174" t="s">
-        <v>405</v>
-      </c>
-      <c r="F55" s="176">
+      <c r="E55" s="173" t="s">
+        <v>399</v>
+      </c>
+      <c r="F55" s="175">
         <v>19644</v>
       </c>
-      <c r="G55" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H55" s="174" t="s">
-        <v>408</v>
-      </c>
-      <c r="I55" s="174">
+      <c r="G55" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H55" s="173" t="s">
+        <v>402</v>
+      </c>
+      <c r="I55" s="173">
         <v>28</v>
       </c>
-      <c r="J55" s="177">
+      <c r="J55" s="176">
         <v>3066666.9739999999</v>
       </c>
-      <c r="K55" s="182">
+      <c r="K55" s="181">
         <f>PI()/4*(CONVERT(I55,"in","m")^2-(CONVERT(I55,"in","m")-C55/1000)^2)*F55</f>
         <v>344.60074887609795</v>
       </c>
-      <c r="L55" s="181">
+      <c r="L55" s="180">
         <f>K55*x70_steel_density</f>
         <v>2705115.8786773691</v>
       </c>
-      <c r="M55" s="177">
+      <c r="M55" s="176">
         <f t="shared" si="0"/>
         <v>1.1336545684317991</v>
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="180">
+      <c r="B56" s="179">
         <v>45715</v>
       </c>
-      <c r="C56" s="175">
+      <c r="C56" s="174">
         <v>12.7</v>
       </c>
-      <c r="D56" s="174">
+      <c r="D56" s="173">
         <v>10</v>
       </c>
-      <c r="E56" s="174" t="s">
-        <v>406</v>
-      </c>
-      <c r="F56" s="176">
+      <c r="E56" s="173" t="s">
+        <v>400</v>
+      </c>
+      <c r="F56" s="175">
         <v>25836</v>
       </c>
-      <c r="G56" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H56" s="174" t="s">
-        <v>408</v>
-      </c>
-      <c r="I56" s="174">
+      <c r="G56" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H56" s="173" t="s">
+        <v>402</v>
+      </c>
+      <c r="I56" s="173">
         <v>28</v>
       </c>
-      <c r="J56" s="177">
+      <c r="J56" s="176">
         <v>3240386.9784999997</v>
       </c>
-      <c r="K56" s="182">
+      <c r="K56" s="181">
         <f t="shared" ref="K56:K57" si="3">PI()/4*(CONVERT(I56,"in","m")^2-(CONVERT(I56,"in","m")-C56/1000)^2)*F56</f>
         <v>363.28342043147217</v>
       </c>
-      <c r="L56" s="181">
+      <c r="L56" s="180">
         <f>K56*x70_steel_density</f>
         <v>2851774.8503870564</v>
       </c>
-      <c r="M56" s="177">
+      <c r="M56" s="176">
         <f t="shared" si="0"/>
         <v>1.1362702697445415</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="180">
+      <c r="B57" s="179">
         <v>45715</v>
       </c>
-      <c r="C57" s="175">
+      <c r="C57" s="174">
         <v>9.5299999999999994</v>
       </c>
-      <c r="D57" s="174">
+      <c r="D57" s="173">
         <v>11</v>
       </c>
-      <c r="E57" s="174" t="s">
-        <v>407</v>
-      </c>
-      <c r="F57" s="176">
+      <c r="E57" s="173" t="s">
+        <v>401</v>
+      </c>
+      <c r="F57" s="175">
         <v>24540</v>
       </c>
-      <c r="G57" s="174" t="s">
-        <v>400</v>
-      </c>
-      <c r="H57" s="174" t="s">
-        <v>408</v>
-      </c>
-      <c r="I57" s="174">
+      <c r="G57" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="H57" s="173" t="s">
+        <v>402</v>
+      </c>
+      <c r="I57" s="173">
         <v>28</v>
       </c>
-      <c r="J57" s="177">
+      <c r="J57" s="176">
         <v>2320074.0079999999</v>
       </c>
-      <c r="K57" s="182">
+      <c r="K57" s="181">
         <f t="shared" si="3"/>
         <v>259.51325448561124</v>
       </c>
-      <c r="L57" s="181">
+      <c r="L57" s="180">
         <f>K57*x70_steel_density</f>
         <v>2037179.0477120483</v>
       </c>
-      <c r="M57" s="177">
+      <c r="M57" s="176">
         <f t="shared" si="0"/>
         <v>1.1388660268255117</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="180">
+      <c r="B58" s="179">
         <v>45715</v>
       </c>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174">
+      <c r="C58" s="173"/>
+      <c r="D58" s="173">
         <v>12</v>
       </c>
-      <c r="E58" s="174"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="174"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="178">
+      <c r="E58" s="173"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="173"/>
+      <c r="J58" s="177">
         <f>SUM(J55:J57)</f>
         <v>8627127.9605</v>
       </c>
-      <c r="K58" s="174"/>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11402,15 +10968,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="83"/>
+    <col min="1" max="1" width="34" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="16">
       <c r="A1" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="71" t="s">
         <v>24</v>
@@ -11422,109 +10988,109 @@
       <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="213">
+      <c r="A2" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="212">
         <v>6</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="85"/>
+      <c r="C2" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="89">
+      <c r="A3" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="88">
         <f>fbe_inside_diameter_yr_1</f>
         <v>0.69214000000000009</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="83">
+      <c r="A4" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="82">
         <f>pipeline_length</f>
         <v>100000</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="82" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="90">
+      <c r="A5" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="89">
         <f>PI()*fbe_inside_diameter_yr_1*pipeline_length</f>
         <v>217442.19392556397</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>61</v>
+      <c r="C5" s="83" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="91">
+      <c r="A6" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="90">
         <f>FBE_cost_per_surface*fbe_inside_surface</f>
         <v>1304653.1635533839</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="91"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="91">
+      <c r="A7" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="90">
         <f>capex_steel_fbe</f>
         <v>15204644.128245881</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="91">
+      <c r="B8" s="90">
         <f>SUM(B6:B7)</f>
         <v>16509297.291799264</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="111">
+      <c r="A9" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="110">
         <f>interior_fbe_capex/FBE_plus_bare</f>
         <v>7.9025360104300141E-2</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="111">
+      <c r="A10" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="110">
         <f>B7/FBE_plus_bare</f>
         <v>0.92097463989569994</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="88"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11551,34 +11117,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>62</v>
+      <c r="B2" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C3" s="12">
         <f>C$9*D3</f>
         <v>24</v>
       </c>
-      <c r="D3" s="93">
+      <c r="D3" s="92">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" ref="C4:C8" si="0">C$9*D4</f>
         <v>15</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="92">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G4">
@@ -11588,68 +11154,68 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="92">
         <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="92">
         <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="92">
         <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="96">
+        <v>172</v>
+      </c>
+      <c r="C8" s="95">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="93">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C9" s="12">
         <f>field_coating_usd_joint</f>
         <v>1000</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="94">
         <f>SUM(D3:D8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <f>pipeline_length</f>
@@ -11658,7 +11224,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <f>segment_length</f>
@@ -11667,17 +11233,17 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="149">
+        <v>175</v>
+      </c>
+      <c r="C13" s="148">
         <f>ROUNDUP(pipeline_length/segment_length,0)</f>
         <v>8334</v>
       </c>
-      <c r="E13" s="151"/>
+      <c r="E13" s="150"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C14" s="8">
         <f>C13*C9</f>
@@ -11686,25 +11252,25 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="154">
+        <v>246</v>
+      </c>
+      <c r="C16" s="153">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="111"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="153">
+        <v>247</v>
+      </c>
+      <c r="C17" s="152">
         <f>1-C16</f>
         <v>0.99580000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C18">
         <f>ROUND(field_coating_total/Shop_fbe_coating,1)</f>
@@ -11713,7 +11279,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C19" s="74">
         <f>(field_coating_total/C16-Shop_fbe_coating/C17)/(Shop_fbe_coating/C17)</f>
@@ -11722,7 +11288,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C21" s="8">
         <f>capex_steel_fbe</f>
@@ -11735,7 +11301,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C22" s="8">
         <f>field_coating_total</f>
@@ -11745,11 +11311,11 @@
         <f>field_Joint_Coating/Total_Field_Shop_Steel</f>
         <v>0.33546271664796445</v>
       </c>
-      <c r="E22" s="152"/>
+      <c r="E22" s="151"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C23" s="8">
         <f>interior_fbe_capex</f>
@@ -11762,7 +11328,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C24" s="8">
         <f>SUM(C21:C23)</f>
@@ -11799,7 +11365,7 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>24</v>
@@ -11810,7 +11376,7 @@
     </row>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2">
         <v>0.7</v>
@@ -11821,55 +11387,55 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <f>C2*3600</f>
         <v>2520</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <f>C3*24*30</f>
         <v>1814400</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <f>annual_hours_operation_h_yr</f>
         <v>8400</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="171">
+        <v>178</v>
+      </c>
+      <c r="C6" s="170">
         <f>C5*C3</f>
         <v>21168000</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7">
         <f>fluid_density</f>
@@ -11878,72 +11444,72 @@
       <c r="D7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="99"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="98"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="104">
+      <c r="B8" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="103">
         <f>annual_discount_rate</f>
         <v>0.1</v>
       </c>
-      <c r="D8" s="98"/>
+      <c r="D8" s="97"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="126">
+      <c r="B9" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="125">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="34">
       <c r="B10" s="71" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="161" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="160" t="s">
+        <v>183</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="161" t="s">
-        <v>192</v>
+      <c r="G10" s="160" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="162" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="163">
+      <c r="B11" s="161" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="162">
         <v>26</v>
       </c>
-      <c r="D11" s="164">
+      <c r="D11" s="163">
         <f>C11*$C$6/1000</f>
         <v>550368</v>
       </c>
-      <c r="E11" s="165">
+      <c r="E11" s="164">
         <v>1.8</v>
       </c>
-      <c r="F11" s="166">
+      <c r="F11" s="165">
         <f>E11*D11</f>
         <v>990662.4</v>
       </c>
-      <c r="G11" s="167">
+      <c r="G11" s="166">
         <f>D11/12</f>
         <v>45864</v>
       </c>
@@ -11952,56 +11518,56 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="102">
         <v>0.456349206349206</v>
       </c>
       <c r="D12" s="74">
         <f>C12*$C$6/1000</f>
         <v>9659.9999999999927</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="101">
         <f>16*(1-C9)</f>
         <v>12.8</v>
       </c>
-      <c r="F12" s="168">
+      <c r="F12" s="167">
         <f>E12*D12</f>
         <v>123647.99999999991</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="100">
         <f>D12/12</f>
         <v>804.99999999999943</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="103"/>
+        <v>259</v>
+      </c>
+      <c r="C13" s="102"/>
       <c r="D13" s="74"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="168">
+      <c r="E13" s="101"/>
+      <c r="F13" s="167">
         <v>12000</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="169">
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="168">
         <f>SUBTOTAL(109,Inhibitors!$F$11:$F$13)</f>
         <v>1126310.3999999999</v>
       </c>
-      <c r="G14" s="170"/>
+      <c r="G14" s="169"/>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="158">
+        <v>188</v>
+      </c>
+      <c r="F15" s="157">
         <f>-PV(C8,25,Inhibitors!$F$14)</f>
         <v>10223564.573747916</v>
       </c>
@@ -12029,7 +11595,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>24</v>
@@ -12040,29 +11606,29 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C3" s="8">
         <v>8000</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C4" s="8">
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C5" s="8">
         <f>C3*pipeline_length/1000</f>
@@ -12071,7 +11637,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C6" s="8">
         <f>C4*pipeline_length/1000</f>
@@ -12080,18 +11646,18 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="97">
+        <v>208</v>
+      </c>
+      <c r="C7" s="96">
         <f>-PV(annual_discount_rate,25,C5)</f>
         <v>7261632.0145834861</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="97">
+        <v>209</v>
+      </c>
+      <c r="C8" s="96">
         <f>-PV(annual_discount_rate,25,C6)</f>
         <v>3630816.0072917431</v>
       </c>
@@ -12149,7 +11715,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="D3" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" s="14">
         <f>pipeline_length</f>
@@ -12161,7 +11727,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="D4" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" s="14">
         <f>design_flow_rate</f>
@@ -12173,7 +11739,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="D5" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E5" s="14">
         <f>fluid_density</f>
@@ -12182,7 +11748,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="D6" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="14">
         <f>Elevation_change</f>
@@ -12203,59 +11769,59 @@
     </row>
     <row r="8" spans="1:23">
       <c r="D8" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="14">
         <f>annual_hours_operation_h_yr</f>
         <v>8400</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E9" s="14">
         <f>electrical_energy_usd_mwh</f>
         <v>175</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="D10" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E10" s="14">
         <f>Projected_MWh/1000</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="D11" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E11" s="14">
         <f>Projected_kWh/1000</f>
         <v>1.75E-4</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="D12" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="120">
+        <v>216</v>
+      </c>
+      <c r="E12" s="119">
         <f ca="1">bare_electricity_yr_1+K20</f>
         <v>17247241.911456712</v>
       </c>
@@ -12318,77 +11884,77 @@
     </row>
     <row r="19" spans="1:30" s="20" customFormat="1" ht="43" customHeight="1">
       <c r="A19" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="C19" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="D19" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="R19" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="V19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="S19" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="U19" s="19" t="s">
+      <c r="W19" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="X19" s="64"/>
       <c r="Y19" s="64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Z19" s="20" t="s">
         <v>1</v>
@@ -12434,11 +12000,11 @@
         <f t="shared" ref="I20:I44" si="7">(S20*gravitational_acceleration*T20*(Elevation_change)/(pump_efficiency))/1000</f>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="120">
         <f t="shared" ref="J20:J44" ca="1" si="8">H20*Projected_kWh*annual_hours_operation_h_yr</f>
         <v>4571907.599871343</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="120">
         <f t="shared" ref="K20:K44" si="9">I20*Projected_kWh*annual_hours_operation_h_yr</f>
         <v>12675334.311585369</v>
       </c>
@@ -12450,19 +12016,19 @@
         <f t="shared" ref="M20:M44" si="11">outside_diameter</f>
         <v>0.71120000000000005</v>
       </c>
-      <c r="N20" s="113">
+      <c r="N20" s="112">
         <f>bare_wall__yr_1_mm/1000</f>
         <v>1.328E-2</v>
       </c>
-      <c r="O20" s="115">
+      <c r="O20" s="114">
         <f t="shared" ref="O20:O44" si="12">M20-2*N20</f>
         <v>0.68464000000000003</v>
       </c>
-      <c r="P20" s="113">
+      <c r="P20" s="112">
         <f>roughness_bare_yr_1_mm/1000</f>
         <v>6.7999999999999999E-5</v>
       </c>
-      <c r="Q20" s="105">
+      <c r="Q20" s="104">
         <f t="shared" ref="Q20:Q44" si="13">S20*E20*O20/L20</f>
         <v>1031430.0067346479</v>
       </c>
@@ -12531,11 +12097,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J21" s="121">
+      <c r="J21" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>4745696.18643058</v>
       </c>
-      <c r="K21" s="121">
+      <c r="K21" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -12559,7 +12125,7 @@
         <f t="shared" ref="P21:P43" si="20">P20-(P$20-P$44)/24</f>
         <v>9.5166666666666658E-5</v>
       </c>
-      <c r="Q21" s="105">
+      <c r="Q21" s="104">
         <f t="shared" si="13"/>
         <v>1030959.4312172149</v>
       </c>
@@ -12590,17 +12156,17 @@
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA21" s="17">
         <f>S20</f>
         <v>1030</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -12639,11 +12205,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>4898138.8955706414</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -12667,7 +12233,7 @@
         <f t="shared" si="20"/>
         <v>1.2233333333333332E-4</v>
       </c>
-      <c r="Q22" s="105">
+      <c r="Q22" s="104">
         <f t="shared" si="13"/>
         <v>1030489.2848909684</v>
       </c>
@@ -12701,17 +12267,17 @@
         <v>0.7</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA22" s="36">
         <f>T20</f>
         <v>0.7</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -12750,11 +12316,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J23" s="121">
+      <c r="J23" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5034225.479216584</v>
       </c>
-      <c r="K23" s="121">
+      <c r="K23" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -12778,7 +12344,7 @@
         <f t="shared" si="20"/>
         <v>1.4949999999999997E-4</v>
       </c>
-      <c r="Q23" s="105">
+      <c r="Q23" s="104">
         <f t="shared" si="13"/>
         <v>1030019.5671690061</v>
       </c>
@@ -12809,14 +12375,14 @@
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA23" s="36">
         <f>L20</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -12855,11 +12421,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5157318.8886542572</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -12883,7 +12449,7 @@
         <f t="shared" si="20"/>
         <v>1.7666666666666663E-4</v>
       </c>
-      <c r="Q24" s="105">
+      <c r="Q24" s="104">
         <f t="shared" si="13"/>
         <v>1029550.2774654964</v>
       </c>
@@ -12914,7 +12480,7 @@
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA24" s="36">
         <f>M20</f>
@@ -12960,11 +12526,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J25" s="121">
+      <c r="J25" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5269801.1517721685</v>
       </c>
-      <c r="K25" s="121">
+      <c r="K25" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -12988,7 +12554,7 @@
         <f t="shared" si="20"/>
         <v>2.0383333333333329E-4</v>
       </c>
-      <c r="Q25" s="105">
+      <c r="Q25" s="104">
         <f t="shared" si="13"/>
         <v>1029081.4151956741</v>
       </c>
@@ -13019,7 +12585,7 @@
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA25" s="17">
         <f>O20</f>
@@ -13065,11 +12631,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J26" s="121">
+      <c r="J26" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5373426.0888965232</v>
       </c>
-      <c r="K26" s="121">
+      <c r="K26" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13093,7 +12659,7 @@
         <f t="shared" si="20"/>
         <v>2.3099999999999995E-4</v>
       </c>
-      <c r="Q26" s="105">
+      <c r="Q26" s="104">
         <f t="shared" si="13"/>
         <v>1028612.9797758377</v>
       </c>
@@ -13124,7 +12690,7 @@
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
       <c r="Z26" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA26" s="17">
         <f>N20</f>
@@ -13170,11 +12736,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J27" s="121">
+      <c r="J27" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5469525.6400249749</v>
       </c>
-      <c r="K27" s="121">
+      <c r="K27" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13198,7 +12764,7 @@
         <f t="shared" si="20"/>
         <v>2.5816666666666664E-4</v>
       </c>
-      <c r="Q27" s="105">
+      <c r="Q27" s="104">
         <f t="shared" si="13"/>
         <v>1028144.9706233508</v>
       </c>
@@ -13229,7 +12795,7 @@
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="36">
         <f>P20</f>
@@ -13275,11 +12841,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5559137.3426763592</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13303,7 +12869,7 @@
         <f t="shared" si="20"/>
         <v>2.8533333333333329E-4</v>
       </c>
-      <c r="Q28" s="105">
+      <c r="Q28" s="104">
         <f t="shared" si="13"/>
         <v>1027677.387156634</v>
       </c>
@@ -13334,7 +12900,7 @@
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA28" s="36">
         <f>E20</f>
@@ -13380,11 +12946,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J29" s="121">
+      <c r="J29" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5643086.6808592295</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13408,7 +12974,7 @@
         <f t="shared" si="20"/>
         <v>3.1249999999999995E-4</v>
       </c>
-      <c r="Q29" s="105">
+      <c r="Q29" s="104">
         <f t="shared" si="13"/>
         <v>1027210.2287951668</v>
       </c>
@@ -13439,7 +13005,7 @@
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA29" s="37">
         <f>Q20</f>
@@ -13485,11 +13051,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J30" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5722042.2864563037</v>
       </c>
-      <c r="K30" s="121">
+      <c r="K30" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13513,7 +13079,7 @@
         <f t="shared" si="20"/>
         <v>3.3966666666666661E-4</v>
       </c>
-      <c r="Q30" s="105">
+      <c r="Q30" s="104">
         <f t="shared" si="13"/>
         <v>1026743.4949594839</v>
       </c>
@@ -13544,7 +13110,7 @@
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA30" s="17">
         <f ca="1">F20</f>
@@ -13587,11 +13153,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5796554.1163866883</v>
       </c>
-      <c r="K31" s="121">
+      <c r="K31" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13615,7 +13181,7 @@
         <f t="shared" si="20"/>
         <v>3.6683333333333327E-4</v>
       </c>
-      <c r="Q31" s="105">
+      <c r="Q31" s="104">
         <f t="shared" si="13"/>
         <v>1026277.1850711721</v>
       </c>
@@ -13646,7 +13212,7 @@
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA31" s="39">
         <f ca="1">G20</f>
@@ -13692,11 +13258,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J32" s="121">
+      <c r="J32" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5867080.5706542833</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13720,7 +13286,7 @@
         <f t="shared" si="20"/>
         <v>3.9399999999999993E-4</v>
       </c>
-      <c r="Q32" s="105">
+      <c r="Q32" s="104">
         <f t="shared" si="13"/>
         <v>1025811.298552869</v>
       </c>
@@ -13751,7 +13317,7 @@
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
       <c r="Z32" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AA32" s="40">
         <f>Elevation_change</f>
@@ -13797,11 +13363,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J33" s="121">
+      <c r="J33" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5934008.2052780362</v>
       </c>
-      <c r="K33" s="121">
+      <c r="K33" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13825,7 +13391,7 @@
         <f t="shared" si="20"/>
         <v>4.2116666666666659E-4</v>
       </c>
-      <c r="Q33" s="105">
+      <c r="Q33" s="104">
         <f t="shared" si="13"/>
         <v>1025345.8348282593</v>
       </c>
@@ -13856,7 +13422,7 @@
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA33" s="17">
         <f>annual_hours_operation_h_yr</f>
@@ -13902,11 +13468,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>5997666.354582062</v>
       </c>
-      <c r="K34" s="121">
+      <c r="K34" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -13930,7 +13496,7 @@
         <f t="shared" si="20"/>
         <v>4.4833333333333324E-4</v>
       </c>
-      <c r="Q34" s="105">
+      <c r="Q34" s="104">
         <f t="shared" si="13"/>
         <v>1024880.7933220748</v>
       </c>
@@ -13961,7 +13527,7 @@
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA34" s="17">
         <f>pump_efficiency</f>
@@ -14007,11 +13573,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J35" s="121">
+      <c r="J35" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6058338.1722470308</v>
       </c>
-      <c r="K35" s="121">
+      <c r="K35" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14035,7 +13601,7 @@
         <f t="shared" si="20"/>
         <v>4.754999999999999E-4</v>
       </c>
-      <c r="Q35" s="105">
+      <c r="Q35" s="104">
         <f t="shared" si="13"/>
         <v>1024416.1734600889</v>
       </c>
@@ -14066,14 +13632,14 @@
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA35" s="41">
         <f ca="1">(fluid_density*gravitational_acceleration*design_flow_rate*(bare_hf_yr1_m+Elevation_change))/pump_efficiency</f>
         <v>11732817.626841299</v>
       </c>
       <c r="AB35" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -14112,11 +13678,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J36" s="121">
+      <c r="J36" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6116269.1010630615</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14140,7 +13706,7 @@
         <f t="shared" si="20"/>
         <v>5.0266666666666656E-4</v>
       </c>
-      <c r="Q36" s="105">
+      <c r="Q36" s="104">
         <f t="shared" si="13"/>
         <v>1023951.9746691164</v>
       </c>
@@ -14171,14 +13737,14 @@
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
       <c r="Z36" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA36" s="42">
         <f>Projected_kWh</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -14217,11 +13783,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J37" s="121">
+      <c r="J37" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6171673.4626741083</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14245,7 +13811,7 @@
         <f t="shared" si="20"/>
         <v>5.2983333333333322E-4</v>
       </c>
-      <c r="Q37" s="105">
+      <c r="Q37" s="104">
         <f t="shared" si="13"/>
         <v>1023488.1963770107</v>
       </c>
@@ -14276,11 +13842,11 @@
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AA37" s="41"/>
       <c r="AB37" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -14319,11 +13885,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J38" s="121">
+      <c r="J38" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6224739.6501937667</v>
       </c>
-      <c r="K38" s="121">
+      <c r="K38" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14347,7 +13913,7 @@
         <f t="shared" si="20"/>
         <v>5.5699999999999988E-4</v>
       </c>
-      <c r="Q38" s="105">
+      <c r="Q38" s="104">
         <f t="shared" si="13"/>
         <v>1023024.8380126611</v>
       </c>
@@ -14414,11 +13980,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J39" s="121">
+      <c r="J39" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6275634.2671981938</v>
       </c>
-      <c r="K39" s="121">
+      <c r="K39" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14442,7 +14008,7 @@
         <f t="shared" si="20"/>
         <v>5.8416666666666654E-4</v>
       </c>
-      <c r="Q39" s="105">
+      <c r="Q39" s="104">
         <f t="shared" si="13"/>
         <v>1022561.8990059905</v>
       </c>
@@ -14509,11 +14075,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6324505.4615125423</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14537,7 +14103,7 @@
         <f t="shared" si="20"/>
         <v>6.1133333333333319E-4</v>
       </c>
-      <c r="Q40" s="105">
+      <c r="Q40" s="104">
         <f t="shared" si="13"/>
         <v>1022099.3787879539</v>
       </c>
@@ -14604,11 +14170,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J41" s="121">
+      <c r="J41" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6371485.636145073</v>
       </c>
-      <c r="K41" s="121">
+      <c r="K41" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14632,7 +14198,7 @@
         <f t="shared" si="20"/>
         <v>6.3849999999999985E-4</v>
       </c>
-      <c r="Q41" s="105">
+      <c r="Q41" s="104">
         <f t="shared" si="13"/>
         <v>1021637.2767905345</v>
       </c>
@@ -14699,11 +14265,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J42" s="121">
+      <c r="J42" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6416693.6730664689</v>
       </c>
-      <c r="K42" s="121">
+      <c r="K42" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14727,7 +14293,7 @@
         <f t="shared" si="20"/>
         <v>6.6566666666666651E-4</v>
       </c>
-      <c r="Q42" s="105">
+      <c r="Q42" s="104">
         <f t="shared" si="13"/>
         <v>1021175.5924467429</v>
       </c>
@@ -14794,11 +14360,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J43" s="121">
+      <c r="J43" s="120">
         <f t="shared" ca="1" si="8"/>
         <v>6460236.7720799996</v>
       </c>
-      <c r="K43" s="121">
+      <c r="K43" s="120">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14822,7 +14388,7 @@
         <f t="shared" si="20"/>
         <v>6.9283333333333317E-4</v>
       </c>
-      <c r="Q43" s="105">
+      <c r="Q43" s="104">
         <f t="shared" si="13"/>
         <v>1020714.325190614</v>
       </c>
@@ -14893,11 +14459,11 @@
         <f t="shared" si="7"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J44" s="122">
+      <c r="J44" s="121">
         <f t="shared" ca="1" si="8"/>
         <v>6502211.9827117678</v>
       </c>
-      <c r="K44" s="122">
+      <c r="K44" s="121">
         <f t="shared" si="9"/>
         <v>12675334.311585369</v>
       </c>
@@ -14909,19 +14475,19 @@
         <f t="shared" si="11"/>
         <v>0.71120000000000005</v>
       </c>
-      <c r="N44" s="114">
+      <c r="N44" s="113">
         <f>fbe_wall__yr_1_mm/1000</f>
         <v>9.5299999999999985E-3</v>
       </c>
-      <c r="O44" s="116">
+      <c r="O44" s="115">
         <f t="shared" si="12"/>
         <v>0.69214000000000009</v>
       </c>
-      <c r="P44" s="114">
+      <c r="P44" s="113">
         <f>roughness_bare_yr_25_mm/1000</f>
         <v>7.1999999999999994E-4</v>
       </c>
-      <c r="Q44" s="106">
+      <c r="Q44" s="105">
         <f t="shared" si="13"/>
         <v>1020253.4744572043</v>
       </c>
@@ -14962,11 +14528,11 @@
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="123">
+      <c r="J45" s="122">
         <f ca="1">NPV(annual_discount_rate,J20:J44)</f>
         <v>48965594.081127092</v>
       </c>
-      <c r="K45" s="123">
+      <c r="K45" s="122">
         <f>NPV(annual_discount_rate,K20:K44)</f>
         <v>115054516.79069601</v>
       </c>
@@ -14993,8 +14559,8 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -15009,73 +14575,73 @@
     </row>
     <row r="47" spans="1:28" s="63" customFormat="1" ht="42" customHeight="1">
       <c r="A47" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="C47" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="D47" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="N47" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="P47" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="R47" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="S47" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="T47" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="U47" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="V47" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="K47" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="L47" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="M47" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="O47" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="P47" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q47" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="R47" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="S47" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="T47" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="U47" s="62" t="s">
+      <c r="W47" s="62" t="s">
         <v>102</v>
-      </c>
-      <c r="V47" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="W47" s="62" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -15114,11 +14680,11 @@
         <f t="shared" ref="I48:I72" si="28">(S48*gravitational_acceleration*T48*(Elevation_change)/(pump_efficiency))/1000</f>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J48" s="121">
+      <c r="J48" s="120">
         <f t="shared" ref="J48:J72" ca="1" si="29">H48*Projected_kWh*annual_hours_operation_h_yr</f>
         <v>3904264.6308437074</v>
       </c>
-      <c r="K48" s="121">
+      <c r="K48" s="120">
         <f t="shared" ref="K48:K72" si="30">I48*Projected_kWh*annual_hours_operation_h_yr</f>
         <v>12675334.311585369</v>
       </c>
@@ -15138,7 +14704,7 @@
         <f t="shared" ref="O48:O72" si="34">M48-2*N48</f>
         <v>0.69214000000000009</v>
       </c>
-      <c r="P48" s="118">
+      <c r="P48" s="117">
         <f>roughness_fbe_yr_1_mm/1000</f>
         <v>1.4999999999999999E-5</v>
       </c>
@@ -15207,11 +14773,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J49" s="121">
+      <c r="J49" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3912222.6826866814</v>
       </c>
-      <c r="K49" s="121">
+      <c r="K49" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15300,11 +14866,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J50" s="121">
+      <c r="J50" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3920126.5901813828</v>
       </c>
-      <c r="K50" s="121">
+      <c r="K50" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15393,11 +14959,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J51" s="121">
+      <c r="J51" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3927977.2133296267</v>
       </c>
-      <c r="K51" s="121">
+      <c r="K51" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15486,11 +15052,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J52" s="121">
+      <c r="J52" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3935775.3914443823</v>
       </c>
-      <c r="K52" s="121">
+      <c r="K52" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15579,11 +15145,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J53" s="121">
+      <c r="J53" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3943521.9438047921</v>
       </c>
-      <c r="K53" s="121">
+      <c r="K53" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15672,11 +15238,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J54" s="121">
+      <c r="J54" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3951217.6702858103</v>
       </c>
-      <c r="K54" s="121">
+      <c r="K54" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15765,11 +15331,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J55" s="121">
+      <c r="J55" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3958863.3519636225</v>
       </c>
-      <c r="K55" s="121">
+      <c r="K55" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15858,11 +15424,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J56" s="121">
+      <c r="J56" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3966459.7516979286</v>
       </c>
-      <c r="K56" s="121">
+      <c r="K56" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -15951,11 +15517,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J57" s="121">
+      <c r="J57" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3974007.6146921222</v>
       </c>
-      <c r="K57" s="121">
+      <c r="K57" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16044,11 +15610,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J58" s="121">
+      <c r="J58" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3981507.66903236</v>
       </c>
-      <c r="K58" s="121">
+      <c r="K58" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16137,11 +15703,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J59" s="121">
+      <c r="J59" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3988960.6262064315</v>
       </c>
-      <c r="K59" s="121">
+      <c r="K59" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16230,11 +15796,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J60" s="121">
+      <c r="J60" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>3996367.1816033451</v>
       </c>
-      <c r="K60" s="121">
+      <c r="K60" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16323,11 +15889,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J61" s="121">
+      <c r="J61" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4003728.0149944434</v>
       </c>
-      <c r="K61" s="121">
+      <c r="K61" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16416,11 +15982,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J62" s="121">
+      <c r="J62" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4011043.7909968658</v>
       </c>
-      <c r="K62" s="121">
+      <c r="K62" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16509,11 +16075,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J63" s="121">
+      <c r="J63" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4018315.1595201055</v>
       </c>
-      <c r="K63" s="121">
+      <c r="K63" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16602,11 +16168,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J64" s="121">
+      <c r="J64" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4025542.7561964076</v>
       </c>
-      <c r="K64" s="121">
+      <c r="K64" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16695,11 +16261,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J65" s="121">
+      <c r="J65" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4032727.2027956629</v>
       </c>
-      <c r="K65" s="121">
+      <c r="K65" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16788,11 +16354,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J66" s="121">
+      <c r="J66" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4039869.1076254798</v>
       </c>
-      <c r="K66" s="121">
+      <c r="K66" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16881,11 +16447,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J67" s="121">
+      <c r="J67" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4046969.0659170533</v>
       </c>
-      <c r="K67" s="121">
+      <c r="K67" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -16974,11 +16540,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J68" s="121">
+      <c r="J68" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4054027.6601974056</v>
       </c>
-      <c r="K68" s="121">
+      <c r="K68" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -17067,11 +16633,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J69" s="121">
+      <c r="J69" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4061045.4606485851</v>
       </c>
-      <c r="K69" s="121">
+      <c r="K69" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -17160,11 +16726,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J70" s="121">
+      <c r="J70" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4068023.0254543559</v>
       </c>
-      <c r="K70" s="121">
+      <c r="K70" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -17253,11 +16819,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J71" s="121">
+      <c r="J71" s="120">
         <f t="shared" ca="1" si="29"/>
         <v>4074960.9011348905</v>
       </c>
-      <c r="K71" s="121">
+      <c r="K71" s="120">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -17346,11 +16912,11 @@
         <f t="shared" si="28"/>
         <v>8622.6764024390268</v>
       </c>
-      <c r="J72" s="122">
+      <c r="J72" s="121">
         <f t="shared" ca="1" si="29"/>
         <v>4081859.6228699391</v>
       </c>
-      <c r="K72" s="122">
+      <c r="K72" s="121">
         <f t="shared" si="30"/>
         <v>12675334.311585369</v>
       </c>
@@ -17370,7 +16936,7 @@
         <f t="shared" si="34"/>
         <v>0.69214000000000009</v>
       </c>
-      <c r="P72" s="119">
+      <c r="P72" s="118">
         <f>roughness_fbe_yr_25_mm/1000</f>
         <v>3.5000000000000004E-5</v>
       </c>
@@ -17433,10 +16999,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C17EE-927F-F041-B032-C0FE3D7D286E}">
-  <dimension ref="B1:AA43"/>
+  <dimension ref="B1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="183" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17467,134 +17033,111 @@
     <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="135"/>
+    <row r="1" spans="2:22">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="134"/>
       <c r="H1" t="s">
-        <v>279</v>
-      </c>
-      <c r="M1" t="str">
-        <f>"TOTAL [ "&amp;ROUND(E29/1000000,1)&amp;" ] CAPEX"</f>
-        <v>TOTAL [ 0 ] CAPEX</v>
-      </c>
-      <c r="N1" s="144" t="str">
-        <f>"CAPEX [ "&amp;ROUND(E29/1000000,1)&amp;" ] "&amp;K2</f>
-        <v>CAPEX [ 0 ] Steel design</v>
+        <v>273</v>
+      </c>
+      <c r="M1" t="e">
+        <f>"TOTAL [ "&amp;ROUND(#REF!/1000000,1)&amp;" ] CAPEX"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N1" s="143" t="e">
+        <f>"CAPEX [ "&amp;ROUND(#REF!/1000000,1)&amp;" ] "&amp;K2</f>
+        <v>#REF!</v>
       </c>
       <c r="O1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27">
-      <c r="H2" s="148" t="s">
-        <v>277</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="H2" s="147" t="s">
+        <v>271</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" t="e">
+        <f>"TOTAL [ "&amp;ROUND(#REF!/1000000,1)&amp;" ] CAPEX"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N2" s="143" t="e">
+        <f>"CAPEX [ "&amp;ROUND(#REF!/1000000,1)&amp;" ] "&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" t="s">
         <v>250</v>
       </c>
-      <c r="M2" t="str">
-        <f>"TOTAL [ "&amp;ROUND(E29/1000000,1)&amp;" ] CAPEX"</f>
-        <v>TOTAL [ 0 ] CAPEX</v>
-      </c>
-      <c r="N2" s="144" t="str">
-        <f>"CAPEX [ "&amp;ROUND(E29/1000000,1)&amp;" ] "&amp;C29</f>
-        <v xml:space="preserve">CAPEX [ 0 ] </v>
-      </c>
-      <c r="O2" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q2" t="str">
+      <c r="Q2" t="e">
         <f>M4</f>
-        <v>Bare [ 0 ] CAPEX</v>
+        <v>#REF!</v>
       </c>
       <c r="R2" t="str">
         <f>M11</f>
         <v>Coated [ 8.3 ] CAPEX</v>
       </c>
-      <c r="V2" s="135"/>
-      <c r="X2" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA2" s="135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27">
-      <c r="H3" s="131" t="str">
+      <c r="V2" s="134"/>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="H3" s="130" t="str">
         <f>"Field Joint\nCoating [ "&amp;ROUND(E7/1000000,1)&amp;" ] Coated\nCAPEX"</f>
         <v>Field Joint\nCoating [ 8.3 ] Coated\nCAPEX</v>
       </c>
-      <c r="I3" s="173"/>
-      <c r="J3" s="135">
+      <c r="I3" s="172"/>
+      <c r="J3" s="134">
         <f>IF(I3=H3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="138"/>
-      <c r="Q3" t="str">
+      <c r="P3" s="137"/>
+      <c r="Q3" t="e">
         <f t="shared" ref="Q3:Q6" si="0">M5</f>
-        <v>Bare [ 0 ] CAPEX</v>
+        <v>#REF!</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R5" si="1">M12</f>
         <v>Coated [ 1.3 ] CAPEX</v>
       </c>
-      <c r="V3" s="137"/>
-      <c r="X3" s="132" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y3" s="136">
-        <f>pv_inhibitors</f>
-        <v>10223564.573747916</v>
-      </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27">
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="236" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="235" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="226"/>
+      <c r="V3" s="136"/>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="220" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="221" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="219"/>
       <c r="H4" t="str">
         <f>"Shop Coating [ "&amp;ROUND(E8/1000000,1)&amp;" ] Coated\nCAPEX"</f>
         <v>Shop Coating [ 1.3 ] Coated\nCAPEX</v>
       </c>
-      <c r="J4" s="135">
+      <c r="J4" s="134">
         <f t="shared" ref="J4:J39" si="2">IF(I4=H4,1,0)</f>
         <v>0</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" t="e">
         <f>"Bare [ "&amp;ROUND(extra_steel/1000000,1)&amp;" ] CAPEX"</f>
-        <v>Bare [ 0 ] CAPEX</v>
-      </c>
-      <c r="N4" s="144" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="143" t="e">
         <f>"CAPEX [ "&amp;ROUND(extra_steel/1000000,1)&amp;" ] "&amp;L2</f>
-        <v>CAPEX [ 0 ] Steel corrosion</v>
+        <v>#REF!</v>
       </c>
       <c r="O4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17604,56 +17147,44 @@
         <f t="shared" ca="1" si="1"/>
         <v>Coated [ 36 ] OPEX</v>
       </c>
-      <c r="V4" s="137"/>
-      <c r="X4" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y4" s="136">
-        <f ca="1">extra_friction_energy</f>
-        <v>13007877.001694776</v>
-      </c>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="137">
-        <f ca="1">1-E10/D10</f>
-        <v>0.26565340921102865</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
-      <c r="B5" s="227" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="227" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" s="227" t="s">
+      <c r="V4" s="136"/>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="222" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="222" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="227" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="227" t="s">
-        <v>439</v>
-      </c>
-      <c r="G5" s="135"/>
+      <c r="E5" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="222" t="s">
+        <v>433</v>
+      </c>
+      <c r="G5" s="134"/>
       <c r="H5" t="str">
         <f ca="1">"Coated\nFriction\nEnergy [ "&amp;ROUND(E10/1000000,1)&amp;" ] Coated\nOPEX"</f>
         <v>Coated\nFriction\nEnergy [ 36 ] Coated\nOPEX</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="135">
+      <c r="I5" s="130"/>
+      <c r="J5" s="134">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" t="str">
-        <f>"Bare [ "&amp;ROUND(D27/1000000,1)&amp;" ] CAPEX"</f>
-        <v>Bare [ 0 ] CAPEX</v>
-      </c>
-      <c r="N5" s="144" t="str">
-        <f>"CAPEX [ "&amp;ROUND(D27/1000000,1)&amp;" ] "&amp;C27</f>
-        <v xml:space="preserve">CAPEX [ 0 ] </v>
+      <c r="M5" t="e">
+        <f>"Bare [ "&amp;ROUND(#REF!/1000000,1)&amp;" ] CAPEX"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="143" t="e">
+        <f>"CAPEX [ "&amp;ROUND(#REF!/1000000,1)&amp;" ] "&amp;#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="O5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
@@ -17663,35 +17194,23 @@
         <f t="shared" si="1"/>
         <v>Coated [ 3.6 ] OPEX</v>
       </c>
-      <c r="V5" s="137"/>
-      <c r="X5" s="132" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="136">
-        <f>extra_steel</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="137" t="e">
-        <f>1-E29/D29</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="228" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="228" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" s="229">
+      <c r="V5" s="136"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="223" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="224">
         <f>capex_steel_bare-capex_steel_fbe</f>
         <v>5869704.9470408764</v>
       </c>
-      <c r="E6" s="234">
+      <c r="E6" s="225">
         <v>0</v>
       </c>
-      <c r="F6" s="230">
+      <c r="F6" s="226">
         <f>_bare_corrosion_steel</f>
         <v>5869704.9470408764</v>
       </c>
@@ -17699,8 +17218,8 @@
         <f>"Coated\nInspections [ "&amp;ROUND(E11/1000000,1)&amp;" ] Coated\nOPEX"</f>
         <v>Coated\nInspections [ 3.6 ] Coated\nOPEX</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="135">
+      <c r="I6" s="130"/>
+      <c r="J6" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17708,94 +17227,71 @@
         <f ca="1">"Bare [ "&amp;ROUND(D10/1000000,1)&amp;" ] OPEX"</f>
         <v>Bare [ 49 ] OPEX</v>
       </c>
-      <c r="N6" s="144" t="str">
+      <c r="N6" s="143" t="str">
         <f ca="1">"OPEX [ "&amp;ROUND(D10/1000000,1)&amp;" ] "&amp;C10</f>
         <v>OPEX [ 49 ] Friction Energy</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
         <v>Bare [ 7.3 ] OPEX</v>
       </c>
-      <c r="V6" s="137"/>
-      <c r="X6" s="132" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136">
+      <c r="V6" s="136"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="223" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="223" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="224">
+        <v>0</v>
+      </c>
+      <c r="E7" s="224">
         <f>field_coating_total</f>
         <v>8334000</v>
       </c>
-      <c r="AA6" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="228" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="228" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="229">
-        <v>0</v>
-      </c>
-      <c r="E7" s="229">
-        <f>field_coating_total</f>
-        <v>8334000</v>
-      </c>
-      <c r="F7" s="230">
+      <c r="F7" s="226">
         <f>-_coated_FJC</f>
         <v>-8334000</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="135"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="134"/>
       <c r="M7" t="str">
         <f>"Bare [ "&amp;ROUND(D9/1000000,1)&amp;" ] OPEX"</f>
         <v>Bare [ 10.2 ] OPEX</v>
       </c>
-      <c r="N7" s="144" t="str">
+      <c r="N7" s="143" t="str">
         <f>"OPEX [ "&amp;ROUND(D9/1000000,1)&amp;" ] "&amp;C9</f>
         <v>OPEX [ 10.2 ] Corrosion Inhibitors</v>
       </c>
       <c r="O7" t="s">
-        <v>264</v>
-      </c>
-      <c r="R7" s="144" t="str">
+        <v>258</v>
+      </c>
+      <c r="R7" s="143" t="str">
         <f>N11</f>
         <v>CAPEX [ 8.3 ] Field Joint Coating</v>
       </c>
-      <c r="V7" s="137"/>
-      <c r="X7" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y7" s="136">
-        <f>extra_inspections</f>
-        <v>3630816.0072917431</v>
-      </c>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="137">
-        <f>1-E11/D11</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="228" t="s">
-        <v>433</v>
-      </c>
-      <c r="C8" s="228" t="s">
-        <v>442</v>
-      </c>
-      <c r="D8" s="229">
+      <c r="V7" s="136"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="223" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="224">
         <v>0</v>
       </c>
-      <c r="E8" s="229">
+      <c r="E8" s="224">
         <f>interior_fbe_capex</f>
         <v>1304653.1635533839</v>
       </c>
-      <c r="F8" s="230">
+      <c r="F8" s="226">
         <f>-_coated_SC</f>
         <v>-1304653.1635533839</v>
       </c>
@@ -17803,8 +17299,8 @@
         <f>"Coated\nCAPEX [ "&amp;ROUND(E7/1000000,1)&amp;" ] Coated\nPipe"</f>
         <v>Coated\nCAPEX [ 8.3 ] Coated\nPipe</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="135">
+      <c r="I8" s="135"/>
+      <c r="J8" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17812,99 +17308,77 @@
         <f>"Bare [ "&amp;ROUND(D11/1000000,1)&amp;" ] OPEX"</f>
         <v>Bare [ 7.3 ] OPEX</v>
       </c>
-      <c r="N8" s="144" t="str">
+      <c r="N8" s="143" t="str">
         <f>"OPEX [ "&amp;ROUND(D11/1000000,1)&amp;" ] "&amp;C11</f>
         <v>OPEX [ 7.3 ] Inspections</v>
       </c>
       <c r="O8" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="144" t="str">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="143" t="e">
         <f>N4</f>
-        <v>CAPEX [ 0 ] Steel corrosion</v>
-      </c>
-      <c r="R8" s="144" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R8" s="143" t="str">
         <f t="shared" ref="R8:R10" si="3">N12</f>
         <v>CAPEX [ 1.3 ] Shop-applied Coating</v>
       </c>
-      <c r="V8" s="137"/>
-      <c r="X8" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136">
-        <f>interior_fbe_capex</f>
-        <v>1304653.1635533839</v>
-      </c>
-      <c r="AA8" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="228" t="s">
-        <v>443</v>
-      </c>
-      <c r="D9" s="229">
+      <c r="V8" s="136"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="223" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="223" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" s="224">
         <f>pv_inhibitors</f>
         <v>10223564.573747916</v>
       </c>
-      <c r="E9" s="229">
+      <c r="E9" s="224">
         <v>0</v>
       </c>
-      <c r="F9" s="230">
+      <c r="F9" s="226">
         <f>D9</f>
         <v>10223564.573747916</v>
       </c>
-      <c r="G9" s="133"/>
+      <c r="G9" s="132"/>
       <c r="H9" t="str">
         <f>"Coated\nCAPEX [ "&amp;ROUND(E8/1000000,1)&amp;" ] Coated\nPipe"</f>
         <v>Coated\nCAPEX [ 1.3 ] Coated\nPipe</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="135">
+      <c r="I9" s="130"/>
+      <c r="J9" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="144" t="str">
+      <c r="Q9" s="143" t="e">
         <f t="shared" ref="Q9:Q12" si="4">N5</f>
-        <v xml:space="preserve">CAPEX [ 0 ] </v>
-      </c>
-      <c r="R9" s="144" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R9" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>OPEX [ 36 ] Friction Energy</v>
       </c>
-      <c r="V9" s="137"/>
-      <c r="X9" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="136">
-        <f>Dosage_plant_investment</f>
-        <v>272160</v>
-      </c>
-      <c r="Z9" s="136"/>
-      <c r="AA9" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="228" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="229">
+      <c r="V9" s="136"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="223" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="223" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="224">
         <f ca="1">bare_friction_energy_PV</f>
         <v>48965594.081127092</v>
       </c>
-      <c r="E10" s="229">
+      <c r="E10" s="224">
         <f ca="1">fbe_friction_energy_PV</f>
         <v>35957717.079432316</v>
       </c>
-      <c r="F10" s="230">
+      <c r="F10" s="226">
         <f ca="1">Charts!$D10-Charts!$E10</f>
         <v>13007877.001694776</v>
       </c>
@@ -17912,67 +17386,52 @@
         <f ca="1">"Coated\nOPEX [ "&amp;ROUND(E10/1000000,1)&amp;" ] Coated\nPipe"</f>
         <v>Coated\nOPEX [ 36 ] Coated\nPipe</v>
       </c>
-      <c r="I10" s="131"/>
-      <c r="J10" s="135">
+      <c r="I10" s="130"/>
+      <c r="J10" s="134">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q10" s="144" t="str">
+      <c r="M10" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="143" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>OPEX [ 49 ] Friction Energy</v>
       </c>
-      <c r="R10" s="144" t="str">
+      <c r="R10" s="143" t="str">
         <f t="shared" si="3"/>
         <v>OPEX [ 3.6 ] Inspections</v>
       </c>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="157"/>
-      <c r="X10" s="138" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="139">
-        <f ca="1">SUBTOTAL(109,Charts!$Y$3:$Y$9)</f>
-        <v>27134417.582734436</v>
-      </c>
-      <c r="Z10" s="139">
-        <f>SUBTOTAL(109,Charts!$Z$3:$Z$9)</f>
-        <v>9638653.1635533832</v>
-      </c>
-      <c r="AA10" s="140">
-        <f ca="1">Charts!$Y$10-Charts!$Z$10</f>
-        <v>17495764.419181053</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="229">
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="156"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="223" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="224">
         <f>bare_inspections_PV</f>
         <v>7261632.0145834861</v>
       </c>
-      <c r="E11" s="229">
+      <c r="E11" s="224">
         <f>fbe_inspections_PV</f>
         <v>3630816.0072917431</v>
       </c>
-      <c r="F11" s="230">
+      <c r="F11" s="226">
         <f>D11-E11</f>
         <v>3630816.0072917431</v>
       </c>
-      <c r="G11" s="136"/>
+      <c r="G11" s="135"/>
       <c r="H11" t="str">
         <f>"Coated\nOPEX [ "&amp;ROUND(E11/1000000,1)&amp;" ] Coated\nPipe"</f>
         <v>Coated\nOPEX [ 3.6 ] Coated\nPipe</v>
       </c>
-      <c r="I11" s="159"/>
-      <c r="J11" s="135">
+      <c r="I11" s="158"/>
+      <c r="J11" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17980,139 +17439,124 @@
         <f>"Coated [ "&amp;ROUND(E7/1000000,1)&amp;" ] CAPEX"</f>
         <v>Coated [ 8.3 ] CAPEX</v>
       </c>
-      <c r="N11" s="144" t="str">
+      <c r="N11" s="143" t="str">
         <f>"CAPEX [ "&amp;ROUND(E7/1000000,1)&amp;" ] "&amp;C7</f>
         <v>CAPEX [ 8.3 ] Field Joint Coating</v>
       </c>
       <c r="O11" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q11" s="144" t="str">
+        <v>251</v>
+      </c>
+      <c r="Q11" s="143" t="str">
         <f t="shared" si="4"/>
         <v>OPEX [ 10.2 ] Corrosion Inhibitors</v>
       </c>
-      <c r="R11" s="144"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11">
-        <f ca="1">diff_total_fbe_usd/diff_total_diff</f>
-        <v>0.55091352013097994</v>
-      </c>
-      <c r="AA11" s="112"/>
-    </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="227"/>
-      <c r="C12" s="227" t="s">
-        <v>436</v>
-      </c>
-      <c r="D12" s="229">
+      <c r="R11" s="143"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="222"/>
+      <c r="C12" s="222" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="224">
         <f>SUM(D6:D8)</f>
         <v>5869704.9470408764</v>
       </c>
-      <c r="E12" s="229">
+      <c r="E12" s="224">
         <f>SUM(E6:E8)</f>
         <v>9638653.1635533832</v>
       </c>
-      <c r="F12" s="230">
+      <c r="F12" s="226">
         <f>_bare_CAPEX-_coated_CAPEX</f>
         <v>-3768948.2165125068</v>
       </c>
-      <c r="G12" s="131"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="135"/>
+      <c r="G12" s="130"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="134"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" t="str">
         <f>"Coated [ "&amp;ROUND(E8/1000000,1)&amp;" ] CAPEX"</f>
         <v>Coated [ 1.3 ] CAPEX</v>
       </c>
-      <c r="N12" s="144" t="str">
+      <c r="N12" s="143" t="str">
         <f>"CAPEX [ "&amp;ROUND(E8/1000000,1)&amp;" ] "&amp;C8</f>
         <v>CAPEX [ 1.3 ] Shop-applied Coating</v>
       </c>
       <c r="O12" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q12" s="144" t="str">
+        <v>252</v>
+      </c>
+      <c r="Q12" s="143" t="str">
         <f t="shared" si="4"/>
         <v>OPEX [ 7.3 ] Inspections</v>
       </c>
-      <c r="R12" s="144" t="str">
+      <c r="R12" s="143" t="str">
         <f>O11</f>
         <v>:Field Joint Coating #0a82b0</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="227"/>
-      <c r="C13" s="227" t="s">
-        <v>437</v>
-      </c>
-      <c r="D13" s="229">
+    <row r="13" spans="2:22">
+      <c r="B13" s="222"/>
+      <c r="C13" s="222" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="224">
         <f ca="1">SUM(D9:D11)</f>
         <v>66450790.669458494</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="224">
         <f ca="1">SUM(E9:E11)</f>
         <v>39588533.086724058</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="226">
         <f ca="1">_bare_OPEX-_coated_OPEX</f>
         <v>26862257.582734436</v>
       </c>
-      <c r="G13" s="136"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="134"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" t="str">
         <f ca="1">"Coated [ "&amp;ROUND(E10/1000000,1)&amp;" ] OPEX"</f>
         <v>Coated [ 36 ] OPEX</v>
       </c>
-      <c r="N13" s="144" t="str">
+      <c r="N13" s="143" t="str">
         <f ca="1">"OPEX [ "&amp;ROUND(E10/1000000,1)&amp;" ] "&amp;C10</f>
         <v>OPEX [ 36 ] Friction Energy</v>
       </c>
       <c r="O13" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144" t="str">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143" t="str">
         <f t="shared" ref="R13:R15" si="5">O12</f>
         <v>:Shop Coating #0a82b0</v>
       </c>
-      <c r="X13" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="135" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="228"/>
-      <c r="C14" s="227" t="s">
-        <v>438</v>
-      </c>
-      <c r="D14" s="232">
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="223"/>
+      <c r="C14" s="222" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="227">
         <f ca="1">D13+D12</f>
         <v>72320495.616499364</v>
       </c>
-      <c r="E14" s="232">
+      <c r="E14" s="227">
         <f ca="1">E13+E12</f>
         <v>49227186.250277445</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="227">
         <f ca="1">bare_total_usd-fbe_total_usd</f>
         <v>23093309.36622192</v>
       </c>
-      <c r="G14" s="172"/>
+      <c r="G14" s="171"/>
       <c r="H14" t="str">
         <f ca="1">"Coated\nPipe [ "&amp;ROUND(E14/1000000,1)&amp;" ] Bare\nPipe"</f>
         <v>Coated\nPipe [ 49.2 ] Bare\nPipe</v>
       </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="135">
+      <c r="I14" s="132"/>
+      <c r="J14" s="134">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -18122,102 +17566,96 @@
         <f>"Coated [ "&amp;ROUND(E11/1000000,1)&amp;" ] OPEX"</f>
         <v>Coated [ 3.6 ] OPEX</v>
       </c>
-      <c r="N14" s="144" t="str">
+      <c r="N14" s="143" t="str">
         <f>"OPEX [ "&amp;ROUND(E11/1000000,1)&amp;" ] "&amp;C11</f>
         <v>OPEX [ 3.6 ] Inspections</v>
       </c>
       <c r="O14" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q14" s="144" t="str">
+        <v>254</v>
+      </c>
+      <c r="Q14" s="143" t="str">
         <f>O4</f>
         <v>:Steel corrosion #0a82b0</v>
       </c>
-      <c r="R14" s="144" t="str">
+      <c r="R14" s="143" t="str">
         <f t="shared" si="5"/>
         <v>:Friction Energy #74b4dd</v>
       </c>
-      <c r="X14" s="132" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y14" s="155">
-        <f>pv_inhibitors/1000000</f>
-        <v>10.223564573747916</v>
-      </c>
-      <c r="Z14" s="155"/>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="131"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="216"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="130"/>
       <c r="H15" t="str">
         <f ca="1">"Savings [ "&amp;ROUND(F14/1000000,1)&amp;" ] Bare\nPipe"</f>
         <v>Savings [ 23.1 ] Bare\nPipe</v>
       </c>
-      <c r="I15" s="133"/>
-      <c r="J15" s="135">
+      <c r="I15" s="132"/>
+      <c r="J15" s="134">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="N15" s="144"/>
-      <c r="Q15" s="144" t="str">
+      <c r="N15" s="143"/>
+      <c r="Q15" s="143" t="str">
         <f>O5</f>
         <v>:Dosing Plant #0a82b0</v>
       </c>
-      <c r="R15" s="144" t="str">
+      <c r="R15" s="143" t="str">
         <f t="shared" si="5"/>
         <v>:Inspections #74b4dd</v>
       </c>
-      <c r="X15" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y15" s="155">
-        <f ca="1">extra_friction_energy/1000000</f>
-        <v>13.007877001694776</v>
-      </c>
-      <c r="Z15" s="155"/>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="224"/>
-      <c r="F16" s="225"/>
-      <c r="G16" s="159"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="135"/>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="134"/>
+      <c r="C16" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="158"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="134"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="N16" s="144"/>
-      <c r="Q16" s="144" t="str">
+      <c r="N16" s="143"/>
+      <c r="Q16" s="143" t="str">
         <f>O6</f>
         <v>:Friction Energy #74b4dd</v>
       </c>
-      <c r="R16" s="144"/>
-      <c r="X16" s="132" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y16" s="155">
-        <f>extra_steel/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="155"/>
-    </row>
-    <row r="17" spans="2:26">
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="156"/>
+      <c r="R16" s="143"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="214"/>
+      <c r="C17" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="135">
+        <f>pv_inhibitors</f>
+        <v>10223564.573747916</v>
+      </c>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136">
+        <v>1</v>
+      </c>
+      <c r="G17" s="155"/>
       <c r="H17" t="str">
         <f>"Bare\nPipe [ "&amp;ROUND(D6/1000000,1)&amp;" ] Bare\nCAPEX"</f>
         <v>Bare\nPipe [ 5.9 ] Bare\nCAPEX</v>
       </c>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135">
+      <c r="I17" s="133"/>
+      <c r="J17" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18227,378 +17665,442 @@
         <f>(E7/1000000)</f>
         <v>8.3339999999999996</v>
       </c>
-      <c r="N17" s="144"/>
-      <c r="Q17" s="144" t="str">
+      <c r="N17" s="143"/>
+      <c r="Q17" s="143" t="str">
         <f>O7</f>
         <v>:Inhibitors #74b4dd</v>
       </c>
-      <c r="X17" s="132" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155">
-        <f>field_coating_total/1000000</f>
-        <v>8.3339999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26">
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="222"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="C18" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="135">
+        <f ca="1">extra_friction_energy</f>
+        <v>13007877.001694776</v>
+      </c>
+      <c r="E18" s="135"/>
+      <c r="F18" s="136">
+        <f ca="1">1-E10/D10</f>
+        <v>0.26565340921102865</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" t="str">
         <f>"Bare\nPipe [ "&amp;ROUND(D9/1000000,1)&amp;" ] Bare\nOPEX"</f>
         <v>Bare\nPipe [ 10.2 ] Bare\nOPEX</v>
       </c>
-      <c r="I18" s="131"/>
-      <c r="J18" s="135">
+      <c r="I18" s="130"/>
+      <c r="J18" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
       <c r="M18" s="12">
         <f>E8/1000000</f>
         <v>1.304653163553384</v>
       </c>
-      <c r="Q18" s="144" t="str">
+      <c r="Q18" s="143" t="str">
         <f>O8</f>
         <v>:Inspections #74b4dd</v>
       </c>
-      <c r="X18" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y18" s="155">
-        <f>extra_inspections/1000000</f>
-        <v>3.630816007291743</v>
-      </c>
-      <c r="Z18" s="155"/>
-    </row>
-    <row r="19" spans="2:26">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="C19" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="135">
+        <f>_bare_corrosion_steel</f>
+        <v>5869704.9470408764</v>
+      </c>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
       <c r="H19" t="str">
         <f ca="1">"Bare\nPipe [ "&amp;ROUND(D10/1000000,1)&amp;" ] Bare\nOPEX"</f>
         <v>Bare\nPipe [ 49 ] Bare\nOPEX</v>
       </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="135">
+      <c r="I19" s="130"/>
+      <c r="J19" s="134">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="12">
         <f>SUM(M17:M18)</f>
         <v>9.6386531635533839</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="X19" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155">
-        <f>interior_fbe_capex/1000000</f>
-        <v>1.304653163553384</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="C20" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135">
+        <f>field_coating_total</f>
+        <v>8334000</v>
+      </c>
+      <c r="F20" s="136">
+        <v>1</v>
+      </c>
       <c r="H20" t="str">
         <f>"Bare\nPipe [ "&amp;ROUND(D11/1000000,1)&amp;" ] Bare\nOPEX"</f>
         <v>Bare\nPipe [ 7.3 ] Bare\nOPEX</v>
       </c>
-      <c r="J20" s="135">
+      <c r="J20" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="Q20" s="144"/>
-      <c r="X20" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="155">
-        <f>Dosage_plant_investment/1000000</f>
-        <v>0.27216000000000001</v>
-      </c>
-      <c r="Z20" s="155"/>
-    </row>
-    <row r="21" spans="2:26">
-      <c r="J21" s="135"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="Q20" s="143"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="C21" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="135">
+        <f>extra_inspections</f>
+        <v>3630816.0072917431</v>
+      </c>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136">
+        <f>1-E11/D11</f>
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="134"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
       <c r="M21" s="12">
         <f ca="1">E10/1000000</f>
         <v>35.957717079432314</v>
       </c>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="Q21" s="144"/>
-    </row>
-    <row r="22" spans="2:26">
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="Q21" s="143"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="C22" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135">
+        <f>interior_fbe_capex</f>
+        <v>1304653.1635533839</v>
+      </c>
+      <c r="F22" s="136">
+        <v>1</v>
+      </c>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
       <c r="M22" s="12">
         <f>E11/1000000</f>
         <v>3.630816007291743</v>
       </c>
-      <c r="N22" s="143"/>
-      <c r="Q22" s="144"/>
-    </row>
-    <row r="23" spans="2:26">
+      <c r="N22" s="142"/>
+      <c r="Q22" s="143"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="C23" s="131"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
       <c r="H23" t="str">
         <f>"Bare\nCAPEX [ "&amp;ROUND(D6/1000000,1)&amp;" ] Corrosion\nExtra Steel"</f>
         <v>Bare\nCAPEX [ 5.9 ] Corrosion\nExtra Steel</v>
       </c>
-      <c r="J23" s="135">
+      <c r="J23" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
       <c r="M23" s="12">
         <f ca="1">SUM(M21:M22)</f>
         <v>39.588533086724055</v>
       </c>
-      <c r="N23" s="143">
+      <c r="N23" s="142">
         <f ca="1">M23+M19</f>
         <v>49.227186250277441</v>
       </c>
-      <c r="O23" s="143"/>
-    </row>
-    <row r="24" spans="2:26">
+      <c r="O23" s="142"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="C24" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="138">
+        <f ca="1">SUBTOTAL(109,Charts!$D$17:$D$23)</f>
+        <v>32731962.529775314</v>
+      </c>
+      <c r="E24" s="138">
+        <f>SUBTOTAL(109,Charts!$E$17:$E$23)</f>
+        <v>9638653.1635533832</v>
+      </c>
+      <c r="F24" s="139">
+        <f ca="1">Charts!$D$24-Charts!$E$24</f>
+        <v>23093309.366221931</v>
+      </c>
       <c r="H24" t="str">
         <f ca="1">"Bare\nOPEX [ "&amp;ROUND(D10/1000000,1)&amp;" ] Bare\nFriction\nEnergy"</f>
         <v>Bare\nOPEX [ 49 ] Bare\nFriction\nEnergy</v>
       </c>
-      <c r="J24" s="135">
+      <c r="J24" s="134">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-    </row>
-    <row r="25" spans="2:26">
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="131"/>
+      <c r="D25" s="12"/>
+      <c r="E25">
+        <f ca="1">diff_total_fbe_usd/diff_total_diff</f>
+        <v>0.41737860133860355</v>
+      </c>
+      <c r="F25" s="111"/>
+      <c r="G25" s="131"/>
       <c r="H25" t="str">
         <f>"Bare\nOPEX [ "&amp;ROUND(D9/1000000,1)&amp;" ] Inhibitors"</f>
         <v>Bare\nOPEX [ 10.2 ] Inhibitors</v>
       </c>
-      <c r="J25" s="135">
+      <c r="J25" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="144"/>
-    </row>
-    <row r="26" spans="2:26">
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
+      <c r="M25" s="143"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="131"/>
+      <c r="G26" s="133"/>
       <c r="H26" t="str">
         <f>"Bare\nOPEX [ "&amp;ROUND(D11/1000000,1)&amp;" ] Bare\nInspections"</f>
         <v>Bare\nOPEX [ 7.3 ] Bare\nInspections</v>
       </c>
-      <c r="J26" s="135">
+      <c r="J26" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="144"/>
-    </row>
-    <row r="27" spans="2:26">
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="136"/>
+      <c r="M26" s="143"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="215"/>
+      <c r="C27" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="135"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="2:26">
-      <c r="B28" s="217"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="218"/>
-      <c r="G28" s="131"/>
+    <row r="28" spans="2:17">
+      <c r="B28" s="131"/>
+      <c r="C28" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="154">
+        <f>pv_inhibitors/1000000</f>
+        <v>10.223564573747916</v>
+      </c>
+      <c r="E28" s="154"/>
+      <c r="G28" s="130"/>
       <c r="H28" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" s="135">
+        <v>260</v>
+      </c>
+      <c r="J28" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="144"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="131"/>
+      <c r="M28" s="143"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="131"/>
+      <c r="C29" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="154">
+        <f ca="1">extra_friction_energy/1000000</f>
+        <v>13.007877001694776</v>
+      </c>
+      <c r="E29" s="154"/>
+      <c r="G29" s="130"/>
       <c r="H29" t="s">
-        <v>267</v>
-      </c>
-      <c r="J29" s="135">
+        <v>261</v>
+      </c>
+      <c r="J29" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="144"/>
-    </row>
-    <row r="30" spans="2:26">
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
+      <c r="M29" s="143"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="C30" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="154">
+        <f>_bare_corrosion_steel/1000000</f>
+        <v>5.8697049470408764</v>
+      </c>
+      <c r="E30" s="154"/>
       <c r="H30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J30" s="135">
+        <v>262</v>
+      </c>
+      <c r="J30" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="144"/>
-    </row>
-    <row r="31" spans="2:26">
-      <c r="B31" s="216"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
+      <c r="M30" s="143"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="C31" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154">
+        <f>field_coating_total/1000000</f>
+        <v>8.3339999999999996</v>
+      </c>
       <c r="H31" t="s">
-        <v>269</v>
-      </c>
-      <c r="J31" s="135">
+        <v>263</v>
+      </c>
+      <c r="J31" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="144"/>
-    </row>
-    <row r="32" spans="2:26">
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
+      <c r="M31" s="143"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="C32" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="154">
+        <f>extra_inspections/1000000</f>
+        <v>3.630816007291743</v>
+      </c>
+      <c r="E32" s="154"/>
       <c r="H32" t="s">
-        <v>270</v>
-      </c>
-      <c r="J32" s="135">
+        <v>264</v>
+      </c>
+      <c r="J32" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="144"/>
-    </row>
-    <row r="33" spans="4:17">
+      <c r="M32" s="143"/>
+    </row>
+    <row r="33" spans="3:17">
+      <c r="C33" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154">
+        <f>interior_fbe_capex/1000000</f>
+        <v>1.304653163553384</v>
+      </c>
       <c r="H33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J33" s="135">
+        <v>265</v>
+      </c>
+      <c r="J33" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="144"/>
-    </row>
-    <row r="34" spans="4:17">
-      <c r="D34" s="8"/>
-      <c r="E34" s="144"/>
+      <c r="M33" s="143"/>
+    </row>
+    <row r="34" spans="3:17">
+      <c r="C34" s="131"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
       <c r="H34" t="s">
-        <v>272</v>
-      </c>
-      <c r="J34" s="135">
+        <v>266</v>
+      </c>
+      <c r="J34" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M34" s="144"/>
-    </row>
-    <row r="35" spans="4:17">
+      <c r="M34" s="143"/>
+    </row>
+    <row r="35" spans="3:17">
       <c r="D35" s="8"/>
-      <c r="E35" s="144"/>
+      <c r="E35" s="143"/>
       <c r="H35" t="s">
-        <v>278</v>
-      </c>
-      <c r="J35" s="135">
+        <v>272</v>
+      </c>
+      <c r="J35" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35" s="144"/>
-    </row>
-    <row r="36" spans="4:17">
+      <c r="M35" s="143"/>
+    </row>
+    <row r="36" spans="3:17">
       <c r="H36" t="s">
-        <v>273</v>
-      </c>
-      <c r="J36" s="135">
+        <v>267</v>
+      </c>
+      <c r="J36" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:17">
+    <row r="37" spans="3:17">
       <c r="H37" t="s">
-        <v>274</v>
-      </c>
-      <c r="J37" s="135">
+        <v>268</v>
+      </c>
+      <c r="J37" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:17">
+    <row r="38" spans="3:17">
       <c r="H38" t="s">
-        <v>275</v>
-      </c>
-      <c r="J38" s="135">
+        <v>269</v>
+      </c>
+      <c r="J38" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:17">
+    <row r="39" spans="3:17">
       <c r="H39" t="s">
-        <v>276</v>
-      </c>
-      <c r="J39" s="135">
+        <v>270</v>
+      </c>
+      <c r="J39" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-    </row>
-    <row r="40" spans="4:17">
-      <c r="J40" s="135"/>
-      <c r="P40" s="143"/>
-    </row>
-    <row r="41" spans="4:17">
-      <c r="P41" s="143"/>
-    </row>
-    <row r="43" spans="4:17">
-      <c r="P43" s="143"/>
+      <c r="P39" s="142"/>
+      <c r="Q39" s="142"/>
+    </row>
+    <row r="40" spans="3:17">
+      <c r="J40" s="134"/>
+      <c r="P40" s="142"/>
+    </row>
+    <row r="41" spans="3:17">
+      <c r="P41" s="142"/>
+    </row>
+    <row r="43" spans="3:17">
+      <c r="P43" s="142"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18963,7 +18465,7 @@
     </row>
     <row r="23" spans="2:5" ht="17">
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>

--- a/Bare-vs-Coated-Water-Pipelines.xlsx
+++ b/Bare-vs-Coated-Water-Pipelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igna/Dropbox/Victaulic/FBE_vs_Bare/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5A049-9DF2-C149-AB00-E863279B418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E27DF5-B657-8D4B-8057-D51609DAC6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" activeTab="6" xr2:uid="{4A80D9CF-9772-3D47-BAD7-B0FB3ABE71DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -114,6 +114,7 @@
     <definedName name="diff_shop_coating">Charts!$E$22</definedName>
     <definedName name="diff_steel_bare">Charts!$D$19</definedName>
     <definedName name="diff_total_diff">Charts!$F$24</definedName>
+    <definedName name="diff_total_diff_pp">Charts!$G$24</definedName>
     <definedName name="diff_total_fbe_usd">Charts!$E$24</definedName>
     <definedName name="diff_total_usd">Charts!$F$14</definedName>
     <definedName name="discount_rate">#REF!</definedName>
@@ -182,6 +183,7 @@
     <definedName name="freight_cost_t">Steel!$C$11</definedName>
     <definedName name="grav_accel">#REF!</definedName>
     <definedName name="gravitational_acceleration">Parameters!$C$34</definedName>
+    <definedName name="higher_initial_CAPEX_coated">Charts!$G$12</definedName>
     <definedName name="hrc_price">#REF!</definedName>
     <definedName name="hrc_price_usd_t">Parameters!$C$31</definedName>
     <definedName name="hrc_to_X70_multiplier">Parameters!$C$35</definedName>
@@ -202,6 +204,7 @@
     <definedName name="k_yr_1_2">Electricity!#REF!</definedName>
     <definedName name="k_yr_25">Electricity!#REF!</definedName>
     <definedName name="k_yr_25_2">Electricity!#REF!</definedName>
+    <definedName name="lifecycle_cost_saving">Charts!$G$14</definedName>
     <definedName name="m3_per_year">#REF!</definedName>
     <definedName name="ocean_freight">Steel!$C$9</definedName>
     <definedName name="opex_chem_yr">#REF!</definedName>
@@ -227,6 +230,7 @@
     <definedName name="pump_efficiency">Parameters!$C$28</definedName>
     <definedName name="pump_efficiency_percentage">Parameters!$C$27</definedName>
     <definedName name="pv_inhibitors">Inhibitors!$F$15</definedName>
+    <definedName name="reduction_pumping_energy">Charts!$F$18</definedName>
     <definedName name="robotic_internal_coating_service">#REF!</definedName>
     <definedName name="robotic_internal_coating_service_CAPEX">#REF!</definedName>
     <definedName name="roughness_bare_pipe">#REF!</definedName>
@@ -356,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="441">
   <si>
     <t>km</t>
   </si>
@@ -1727,6 +1731,9 @@
   </si>
   <si>
     <t>Corrosion</t>
+  </si>
+  <si>
+    <t>JRI: Los cálculos de las curvas características del sistema se realizan para los escenarios de tubería nueva y usada, considerando respectivamente rugosidad (ε) igual a 0.025 mm y 0.3 mm.</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1767,7 @@
     <numFmt numFmtId="182" formatCode="0.0\ &quot;m³&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1988,6 +1995,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2285,7 +2297,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2789,6 +2801,10 @@
     </xf>
     <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4409,7 +4425,7 @@
           <c:x val="0"/>
           <c:y val="0"/>
           <c:w val="1"/>
-          <c:h val="0.9452655869710288"/>
+          <c:h val="0.94847451728934951"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4694,7 +4710,7 @@
                 <c:formatCode>"$"#,##0.00\ "MM"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.007877001694776</c:v>
+                  <c:v>6.7536021671561972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7493,15 +7509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1454649</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1642</xdr:rowOff>
+      <xdr:colOff>789411</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>555191</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1054120</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1486</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7935,9 +7951,9 @@
   <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8351,7 +8367,7 @@
         <v>132</v>
       </c>
       <c r="C20" s="145">
-        <v>6.8000000000000005E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -8365,7 +8381,6 @@
       <c r="G20" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="H20" s="147"/>
       <c r="I20">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -8382,7 +8397,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="145">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -8396,7 +8411,9 @@
       <c r="G21" s="147" t="s">
         <v>233</v>
       </c>
-      <c r="H21" s="147"/>
+      <c r="H21" s="228" t="s">
+        <v>440</v>
+      </c>
       <c r="I21">
         <v>0.72</v>
       </c>
@@ -9879,8 +9896,8 @@
   <dimension ref="B2:N58"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10113,10 +10130,10 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="228" t="s">
+      <c r="H16" s="230" t="s">
         <v>384</v>
       </c>
-      <c r="I16" s="228"/>
+      <c r="I16" s="230"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="75" t="s">
@@ -10365,7 +10382,10 @@
         <f>fbe_steel_weight_t</f>
         <v>16490.937232370805</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <f>(Steel_a2-Steel_b2)/Steel_a2</f>
+        <v>0.2785236652421258</v>
+      </c>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="13" t="s">
@@ -11105,7 +11125,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11674,11 +11694,11 @@
   </sheetPr>
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="182" zoomScaleNormal="180" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="180" zoomScaleSheetLayoutView="170" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.1640625" style="14" customWidth="1"/>
@@ -11823,13 +11843,13 @@
       </c>
       <c r="E12" s="119">
         <f ca="1">bare_electricity_yr_1+K20</f>
-        <v>17247241.911456712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="69" customFormat="1" ht="12">
+        <v>16892256.386132829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="69" customFormat="1">
       <c r="A15" s="65" t="str">
-        <f>" Analyzed case: Bare. Initial wall thickness = "&amp;ROUND(13.28,2)&amp;" mm; year 25 wall thickness = "&amp;ROUND(D44,2)&amp;" mm. Initial pipe roughness = "&amp;ROUND(B20,2)&amp;" mm; year 25 pipe roughness = "&amp;ROUND(B44,2)&amp;" mm. Fixed parameters: Elevation head = "&amp;Elevation_change&amp;" m; pump efficiency = "&amp;pump_efficiency_percentage&amp;"%; energy cost = "&amp;Projected_MWh&amp;" $/MWh; outside diameter = "&amp;outside_diameter_inches&amp;"''; flow rate = "&amp;design_flow_rate_l_s&amp;" L/s; density of water = "&amp;fluid_density&amp;" kg/m3; viscosity of water = "&amp;dynamic_viscosity_of_water&amp;" Pa·s"</f>
-        <v xml:space="preserve"> Analyzed case: Bare. Initial wall thickness = 13.28 mm; year 25 wall thickness = 9.53 mm. Initial pipe roughness = 0.07 mm; year 25 pipe roughness = 0.72 mm. Fixed parameters: Elevation head = 1000 m; pump efficiency = 82%; energy cost = 175 $/MWh; outside diameter = 28''; flow rate = 700 L/s; density of water = 1030 kg/m3; viscosity of water = 0.0013 Pa·s</v>
+        <f>"Analyzed case: Bare. Initial wall thickness = "&amp;ROUND(13.28,2)&amp;" mm; year 25 wall thickness = "&amp;ROUND(D44,2)&amp;" mm. Initial pipe roughness = "&amp;ROUND(B20,2)&amp;" mm; year 25 pipe roughness = "&amp;ROUND(B44,2)&amp;" mm.  Fixed parameters: Elevation head = "&amp;Elevation_change&amp;" m; pump efficiency = "&amp;pump_efficiency_percentage&amp;"%; energy cost = "&amp;Projected_MWh&amp;" $/MWh; outside diameter = "&amp;outside_diameter_inches&amp;"''; flow rate = "&amp;design_flow_rate_l_s&amp;" L/s; density of water = "&amp;fluid_density&amp;" kg/m3; viscosity of water = "&amp;dynamic_viscosity_of_water&amp;" Pa·s"</f>
+        <v>Analyzed case: Bare. Initial wall thickness = 13.28 mm; year 25 wall thickness = 9.53 mm. Initial pipe roughness = 0.03 mm; year 25 pipe roughness = 0.3 mm.  Fixed parameters: Elevation head = 1000 m; pump efficiency = 82%; energy cost = 175 $/MWh; outside diameter = 28''; flow rate = 700 L/s; density of water = 1030 kg/m3; viscosity of water = 0.0013 Pa·s</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -11854,10 +11874,10 @@
       <c r="V15" s="67"/>
       <c r="W15" s="68"/>
     </row>
-    <row r="16" spans="1:23" s="69" customFormat="1" ht="12">
+    <row r="16" spans="1:23" s="69" customFormat="1">
       <c r="A16" s="65" t="str">
-        <f>" Analyzed case: Coated. Initial wall thickness = "&amp;ROUND(D48,2)&amp;" mm; year 25 wall thickness = "&amp;ROUND(D72,2)&amp;" mm. Initial pipe roughness = "&amp;ROUND(B48,2)&amp;" mm; year 25 pipe roughness = "&amp;ROUND(B72,2)&amp;" mm. Fixed parameters: Elevation head = "&amp;Elevation_change&amp;" m; pump efficiency = "&amp;pump_efficiency_percentage&amp;"%; energy cost = "&amp;Projected_MWh&amp;" $/kWh; outside diameter = "&amp;outside_diameter_inches&amp;"''; flow rate = "&amp;design_flow_rate_l_s&amp;" L/s; density of water = "&amp;fluid_density&amp;" kg/m3; viscosity of water = "&amp;dynamic_viscosity_of_water&amp;" Pa·s"</f>
-        <v xml:space="preserve"> Analyzed case: Coated. Initial wall thickness = 9.53 mm; year 25 wall thickness = 9.53 mm. Initial pipe roughness = 0.02 mm; year 25 pipe roughness = 0.04 mm. Fixed parameters: Elevation head = 1000 m; pump efficiency = 82%; energy cost = 175 $/kWh; outside diameter = 28''; flow rate = 700 L/s; density of water = 1030 kg/m3; viscosity of water = 0.0013 Pa·s</v>
+        <f>"Analyzed case: Coated. Initial wall thickness = "&amp;ROUND(D48,2)&amp;" mm; year 25 wall thickness = "&amp;ROUND(D72,2)&amp;" mm. Initial pipe roughness = "&amp;ROUND(B48,2)&amp;" mm; year 25 pipe roughness = "&amp;ROUND(B72,2)&amp;" mm. Fixed parameters: Elevation head = "&amp;Elevation_change&amp;" m; pump efficiency = "&amp;pump_efficiency_percentage&amp;"%; energy cost = "&amp;Projected_MWh&amp;" $/kWh; outside diameter = "&amp;outside_diameter_inches&amp;"''; flow rate = "&amp;design_flow_rate_l_s&amp;" L/s; density of water = "&amp;fluid_density&amp;" kg/m3; viscosity of water = "&amp;dynamic_viscosity_of_water&amp;" Pa·s"</f>
+        <v>Analyzed case: Coated. Initial wall thickness = 9.53 mm; year 25 wall thickness = 9.53 mm. Initial pipe roughness = 0.02 mm; year 25 pipe roughness = 0.04 mm. Fixed parameters: Elevation head = 1000 m; pump efficiency = 82%; energy cost = 175 $/kWh; outside diameter = 28''; flow rate = 700 L/s; density of water = 1030 kg/m3; viscosity of water = 0.0013 Pa·s</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
@@ -11970,7 +11990,7 @@
       </c>
       <c r="B20" s="23">
         <f t="shared" ref="B20:B44" si="0">P20*1000</f>
-        <v>6.8000000000000005E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" ref="C20:C44" si="1">O20*1000</f>
@@ -11986,15 +12006,15 @@
       </c>
       <c r="F20" s="26">
         <f t="shared" ref="F20:F44" ca="1" si="4">1/(-2*LOG10((P20/O20)/3.7 + 2.51/(Q20*SQRT(F20+1E-300))))^2</f>
-        <v>1.3396264738380228E-2</v>
+        <v>1.2356112466784554E-2</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ref="G20:G44" ca="1" si="5">(F20 * pipeline_length * E20^2 ) / (2*gravitational_acceleration * O20)</f>
-        <v>360.69325569524273</v>
+        <v>332.68724681235102</v>
       </c>
       <c r="H20" s="28">
         <f t="shared" ref="H20:H44" ca="1" si="6">(S20*gravitational_acceleration*T20*(G20)/(pump_efficiency))/1000</f>
-        <v>3110.1412244022745</v>
+        <v>2868.654472481267</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" ref="I20:I44" si="7">(S20*gravitational_acceleration*T20*(Elevation_change)/(pump_efficiency))/1000</f>
@@ -12002,7 +12022,7 @@
       </c>
       <c r="J20" s="120">
         <f t="shared" ref="J20:J44" ca="1" si="8">H20*Projected_kWh*annual_hours_operation_h_yr</f>
-        <v>4571907.599871343</v>
+        <v>4216922.0745474622</v>
       </c>
       <c r="K20" s="120">
         <f t="shared" ref="K20:K44" si="9">I20*Projected_kWh*annual_hours_operation_h_yr</f>
@@ -12026,7 +12046,7 @@
       </c>
       <c r="P20" s="112">
         <f>roughness_bare_yr_1_mm/1000</f>
-        <v>6.7999999999999999E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="Q20" s="104">
         <f t="shared" ref="Q20:Q44" si="13">S20*E20*O20/L20</f>
@@ -12046,11 +12066,11 @@
       </c>
       <c r="U20" s="33">
         <f t="shared" ref="U20:U44" ca="1" si="17">1/SQRT(F20)</f>
-        <v>8.6398885279520368</v>
+        <v>8.9961994146214384</v>
       </c>
       <c r="V20" s="33">
         <f t="shared" ref="V20:V44" ca="1" si="18">-2 *LOG10(((P20) / (3.7 *O20)) + (2.51 / (Q20* SQRT(F20))))</f>
-        <v>8.6398885279520368</v>
+        <v>8.9961994146214419</v>
       </c>
       <c r="W20" s="34">
         <f t="shared" ref="W20:W44" ca="1" si="19">V20-U20</f>
@@ -12067,7 +12087,7 @@
       </c>
       <c r="B21" s="23">
         <f t="shared" si="0"/>
-        <v>9.5166666666666663E-2</v>
+        <v>3.6458333333333329E-2</v>
       </c>
       <c r="C21" s="24">
         <f t="shared" si="1"/>
@@ -12083,15 +12103,15 @@
       </c>
       <c r="F21" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3937251555253943E-2</v>
+        <v>1.2662017524418569E-2</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>374.40402515403258</v>
+        <v>340.14671464590879</v>
       </c>
       <c r="H21" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3228.3647526738637</v>
+        <v>2932.9750497444379</v>
       </c>
       <c r="I21" s="28">
         <f t="shared" si="7"/>
@@ -12099,7 +12119,7 @@
       </c>
       <c r="J21" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>4745696.18643058</v>
+        <v>4311473.323124324</v>
       </c>
       <c r="K21" s="120">
         <f t="shared" si="9"/>
@@ -12123,7 +12143,7 @@
       </c>
       <c r="P21" s="31">
         <f t="shared" ref="P21:P43" si="20">P20-(P$20-P$44)/24</f>
-        <v>9.5166666666666658E-5</v>
+        <v>3.645833333333333E-5</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" si="13"/>
@@ -12143,11 +12163,11 @@
       </c>
       <c r="U21" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>8.4705464945113231</v>
+        <v>8.8868642224823216</v>
       </c>
       <c r="V21" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>8.4705464945113231</v>
+        <v>8.8868642224823216</v>
       </c>
       <c r="W21" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12175,7 +12195,7 @@
       </c>
       <c r="B22" s="23">
         <f t="shared" si="0"/>
-        <v>0.12233333333333332</v>
+        <v>4.7916666666666663E-2</v>
       </c>
       <c r="C22" s="24">
         <f t="shared" si="1"/>
@@ -12191,15 +12211,15 @@
       </c>
       <c r="F22" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4417792839917344E-2</v>
+        <v>1.2944845963205817E-2</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>386.43074613769363</v>
+        <v>346.95230676013881</v>
       </c>
       <c r="H22" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3332.067275898396</v>
+        <v>2991.6574682724345</v>
       </c>
       <c r="I22" s="28">
         <f t="shared" si="7"/>
@@ -12207,7 +12227,7 @@
       </c>
       <c r="J22" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>4898138.8955706414</v>
+        <v>4397736.4783604788</v>
       </c>
       <c r="K22" s="120">
         <f t="shared" si="9"/>
@@ -12231,7 +12251,7 @@
       </c>
       <c r="P22" s="31">
         <f t="shared" si="20"/>
-        <v>1.2233333333333332E-4</v>
+        <v>4.7916666666666661E-5</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" si="13"/>
@@ -12251,11 +12271,11 @@
       </c>
       <c r="U22" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>8.3281897083139</v>
+        <v>8.7892447155860598</v>
       </c>
       <c r="V22" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3281897083139</v>
+        <v>8.7892447155860598</v>
       </c>
       <c r="W22" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12286,7 +12306,7 @@
       </c>
       <c r="B23" s="23">
         <f t="shared" si="0"/>
-        <v>0.14949999999999997</v>
+        <v>5.937499999999999E-2</v>
       </c>
       <c r="C23" s="24">
         <f t="shared" si="1"/>
@@ -12302,15 +12322,15 @@
       </c>
       <c r="F23" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4852185839743759E-2</v>
+        <v>1.3208354360613472E-2</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>397.16707705415382</v>
+        <v>353.20885091960616</v>
       </c>
       <c r="H23" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3424.6431831405339</v>
+        <v>3045.6056239570917</v>
       </c>
       <c r="I23" s="28">
         <f t="shared" si="7"/>
@@ -12318,7 +12338,7 @@
       </c>
       <c r="J23" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5034225.479216584</v>
+        <v>4477040.2672169246</v>
       </c>
       <c r="K23" s="120">
         <f t="shared" si="9"/>
@@ -12342,7 +12362,7 @@
       </c>
       <c r="P23" s="31">
         <f t="shared" si="20"/>
-        <v>1.4949999999999997E-4</v>
+        <v>5.9374999999999993E-5</v>
       </c>
       <c r="Q23" s="104">
         <f t="shared" si="13"/>
@@ -12362,11 +12382,11 @@
       </c>
       <c r="U23" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>8.205495518546309</v>
+        <v>8.7011297342500136</v>
       </c>
       <c r="V23" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>8.205495518546309</v>
+        <v>8.7011297342500136</v>
       </c>
       <c r="W23" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12391,7 +12411,7 @@
       </c>
       <c r="B24" s="23">
         <f t="shared" si="0"/>
-        <v>0.17666666666666664</v>
+        <v>7.0833333333333331E-2</v>
       </c>
       <c r="C24" s="24">
         <f t="shared" si="1"/>
@@ -12407,15 +12427,15 @@
       </c>
       <c r="F24" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5250050163666661E-2</v>
+        <v>1.3455429496062632E-2</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>406.87833250602495</v>
+        <v>358.99703002642622</v>
       </c>
       <c r="H24" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3508.3801963634405</v>
+        <v>3095.5152193545591</v>
       </c>
       <c r="I24" s="28">
         <f t="shared" si="7"/>
@@ -12423,7 +12443,7 @@
       </c>
       <c r="J24" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5157318.8886542572</v>
+        <v>4550407.372451202</v>
       </c>
       <c r="K24" s="120">
         <f t="shared" si="9"/>
@@ -12447,7 +12467,7 @@
       </c>
       <c r="P24" s="31">
         <f t="shared" si="20"/>
-        <v>1.7666666666666663E-4</v>
+        <v>7.0833333333333325E-5</v>
       </c>
       <c r="Q24" s="104">
         <f t="shared" si="13"/>
@@ -12467,11 +12487,11 @@
       </c>
       <c r="U24" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0977499833466418</v>
+        <v>8.6208724098463527</v>
       </c>
       <c r="V24" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0977499833466435</v>
+        <v>8.6208724098463527</v>
       </c>
       <c r="W24" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12496,7 +12516,7 @@
       </c>
       <c r="B25" s="23">
         <f t="shared" si="0"/>
-        <v>0.20383333333333328</v>
+        <v>8.2291666666666652E-2</v>
       </c>
       <c r="C25" s="24">
         <f t="shared" si="1"/>
@@ -12512,15 +12532,15 @@
       </c>
       <c r="F25" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5618187745167487E-2</v>
+        <v>1.368833904416657E-2</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>415.75243873098674</v>
+        <v>364.38032585116719</v>
       </c>
       <c r="H25" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3584.8987427021557</v>
+        <v>3141.9336372299017</v>
       </c>
       <c r="I25" s="28">
         <f t="shared" si="7"/>
@@ -12528,7 +12548,7 @@
       </c>
       <c r="J25" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5269801.1517721685</v>
+        <v>4618642.4467279548</v>
       </c>
       <c r="K25" s="120">
         <f t="shared" si="9"/>
@@ -12552,7 +12572,7 @@
       </c>
       <c r="P25" s="31">
         <f t="shared" si="20"/>
-        <v>2.0383333333333329E-4</v>
+        <v>8.2291666666666657E-5</v>
       </c>
       <c r="Q25" s="104">
         <f t="shared" si="13"/>
@@ -12572,11 +12592,11 @@
       </c>
       <c r="U25" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0017445076913383</v>
+        <v>8.5472148951617672</v>
       </c>
       <c r="V25" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0017445076913383</v>
+        <v>8.5472148951617672</v>
       </c>
       <c r="W25" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12601,7 +12621,7 @@
       </c>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
-        <v>0.23099999999999996</v>
+        <v>9.3749999999999986E-2</v>
       </c>
       <c r="C26" s="24">
         <f t="shared" si="1"/>
@@ -12617,15 +12637,15 @@
       </c>
       <c r="F26" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5961597855822608E-2</v>
+        <v>1.390889801641579E-2</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>423.92776054712533</v>
+        <v>369.4096318575381</v>
       </c>
       <c r="H26" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3655.3918972085194</v>
+        <v>3185.2997154516811</v>
       </c>
       <c r="I26" s="28">
         <f t="shared" si="7"/>
@@ -12633,7 +12653,7 @@
       </c>
       <c r="J26" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5373426.0888965232</v>
+        <v>4682390.5817139708</v>
       </c>
       <c r="K26" s="120">
         <f t="shared" si="9"/>
@@ -12657,7 +12677,7 @@
       </c>
       <c r="P26" s="31">
         <f t="shared" si="20"/>
-        <v>2.3099999999999995E-4</v>
+        <v>9.3749999999999988E-5</v>
       </c>
       <c r="Q26" s="104">
         <f t="shared" si="13"/>
@@ -12677,11 +12697,11 @@
       </c>
       <c r="U26" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9151986255634279</v>
+        <v>8.4791757797222989</v>
       </c>
       <c r="V26" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.9151986255634279</v>
+        <v>8.4791757797222989</v>
       </c>
       <c r="W26" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12706,7 +12726,7 @@
       </c>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
-        <v>0.25816666666666666</v>
+        <v>0.10520833333333332</v>
       </c>
       <c r="C27" s="24">
         <f t="shared" si="1"/>
@@ -12722,15 +12742,15 @@
       </c>
       <c r="F27" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6284070426168574E-2</v>
+        <v>1.4118582723532285E-2</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>431.50937920633629</v>
+        <v>374.12641353567028</v>
       </c>
       <c r="H27" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3720.7657415135891</v>
+        <v>3225.9709975231685</v>
       </c>
       <c r="I27" s="28">
         <f t="shared" si="7"/>
@@ -12738,7 +12758,7 @@
       </c>
       <c r="J27" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5469525.6400249749</v>
+        <v>4742177.3663590569</v>
       </c>
       <c r="K27" s="120">
         <f t="shared" si="9"/>
@@ -12762,7 +12782,7 @@
       </c>
       <c r="P27" s="31">
         <f t="shared" si="20"/>
-        <v>2.5816666666666664E-4</v>
+        <v>1.0520833333333332E-4</v>
       </c>
       <c r="Q27" s="104">
         <f t="shared" si="13"/>
@@ -12782,11 +12802,11 @@
       </c>
       <c r="U27" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8364346096082107</v>
+        <v>8.4159752302824842</v>
       </c>
       <c r="V27" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.8364346096082107</v>
+        <v>8.4159752302824842</v>
       </c>
       <c r="W27" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12799,7 +12819,7 @@
       </c>
       <c r="AA27" s="36">
         <f>P20</f>
-        <v>6.7999999999999999E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AB27" s="17" t="s">
         <v>2</v>
@@ -12811,7 +12831,7 @@
       </c>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
-        <v>0.28533333333333327</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="C28" s="24">
         <f t="shared" si="1"/>
@@ -12827,15 +12847,15 @@
       </c>
       <c r="F28" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6588552355868553E-2</v>
+        <v>1.4318610917606773E-2</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>438.57914955310173</v>
+        <v>378.56493226813171</v>
       </c>
       <c r="H28" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3781.7260834533063</v>
+        <v>3264.2429082593476</v>
       </c>
       <c r="I28" s="28">
         <f t="shared" si="7"/>
@@ -12843,7 +12863,7 @@
       </c>
       <c r="J28" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5559137.3426763592</v>
+        <v>4798437.0751412408</v>
       </c>
       <c r="K28" s="120">
         <f t="shared" si="9"/>
@@ -12867,7 +12887,7 @@
       </c>
       <c r="P28" s="31">
         <f t="shared" si="20"/>
-        <v>2.8533333333333329E-4</v>
+        <v>1.1666666666666665E-4</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="13"/>
@@ -12887,11 +12907,11 @@
       </c>
       <c r="U28" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7641828754785251</v>
+        <v>8.3569837167212349</v>
       </c>
       <c r="V28" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.764182875478526</v>
+        <v>8.3569837167212349</v>
       </c>
       <c r="W28" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -12916,7 +12936,7 @@
       </c>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
-        <v>0.31249999999999994</v>
+        <v>0.12812499999999999</v>
       </c>
       <c r="C29" s="24">
         <f t="shared" si="1"/>
@@ -12932,15 +12952,15 @@
       </c>
       <c r="F29" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6877383969230612E-2</v>
+        <v>1.4509999481197843E-2</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>445.20219681317587</v>
+        <v>382.75384719364223</v>
       </c>
       <c r="H29" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3838.8344767749863</v>
+        <v>3300.3625661393717</v>
       </c>
       <c r="I29" s="28">
         <f t="shared" si="7"/>
@@ -12948,7 +12968,7 @@
       </c>
       <c r="J29" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5643086.6808592295</v>
+        <v>4851532.9722248754</v>
       </c>
       <c r="K29" s="120">
         <f t="shared" si="9"/>
@@ -12972,7 +12992,7 @@
       </c>
       <c r="P29" s="31">
         <f t="shared" si="20"/>
-        <v>3.1249999999999995E-4</v>
+        <v>1.2812499999999998E-4</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="13"/>
@@ -12992,11 +13012,11 @@
       </c>
       <c r="U29" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6974598896550921</v>
+        <v>8.3016859768911537</v>
       </c>
       <c r="V29" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.697459889655093</v>
+        <v>8.3016859768911537</v>
       </c>
       <c r="W29" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13021,7 +13041,7 @@
       </c>
       <c r="B30" s="23">
         <f t="shared" si="0"/>
-        <v>0.33966666666666662</v>
+        <v>0.13958333333333331</v>
       </c>
       <c r="C30" s="24">
         <f t="shared" si="1"/>
@@ -13037,15 +13057,15 @@
       </c>
       <c r="F30" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7152457400475295E-2</v>
+        <v>1.469360681532372E-2</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>451.43127161753102</v>
+        <v>386.71739299033624</v>
       </c>
       <c r="H30" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3892.5457730995267</v>
+        <v>3334.5389389505112</v>
       </c>
       <c r="I30" s="28">
         <f t="shared" si="7"/>
@@ -13053,7 +13073,7 @@
       </c>
       <c r="J30" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5722042.2864563037</v>
+        <v>4901772.2402572511</v>
       </c>
       <c r="K30" s="120">
         <f t="shared" si="9"/>
@@ -13077,7 +13097,7 @@
       </c>
       <c r="P30" s="31">
         <f t="shared" si="20"/>
-        <v>3.3966666666666661E-4</v>
+        <v>1.395833333333333E-4</v>
       </c>
       <c r="Q30" s="104">
         <f t="shared" si="13"/>
@@ -13097,11 +13117,11 @@
       </c>
       <c r="U30" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6354884633614066</v>
+        <v>8.2496551144223833</v>
       </c>
       <c r="V30" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.6354884633614075</v>
+        <v>8.2496551144223833</v>
       </c>
       <c r="W30" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13114,16 +13134,16 @@
       </c>
       <c r="AA30" s="17">
         <f ca="1">F20</f>
-        <v>1.3396264738380228E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="14">
+        <v>1.2356112466784554E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="13">
       <c r="A31" s="22">
         <v>12</v>
       </c>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
-        <v>0.36683333333333329</v>
+        <v>0.15104166666666663</v>
       </c>
       <c r="C31" s="24">
         <f t="shared" si="1"/>
@@ -13139,15 +13159,15 @@
       </c>
       <c r="F31" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7415326049563255E-2</v>
+        <v>1.4870164556348013E-2</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>457.30976192782447</v>
+        <v>390.47626175575516</v>
       </c>
       <c r="H31" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3943.2340927800601</v>
+        <v>3366.9504479539537</v>
       </c>
       <c r="I31" s="28">
         <f t="shared" si="7"/>
@@ -13155,7 +13175,7 @@
       </c>
       <c r="J31" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5796554.1163866883</v>
+        <v>4949417.1584923109</v>
       </c>
       <c r="K31" s="120">
         <f t="shared" si="9"/>
@@ -13179,7 +13199,7 @@
       </c>
       <c r="P31" s="31">
         <f t="shared" si="20"/>
-        <v>3.6683333333333327E-4</v>
+        <v>1.5104166666666662E-4</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" si="13"/>
@@ -13199,11 +13219,11 @@
       </c>
       <c r="U31" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.5776439477214401</v>
+        <v>8.2005336065290759</v>
       </c>
       <c r="V31" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.5776439477214392</v>
+        <v>8.2005336065290759</v>
       </c>
       <c r="W31" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13216,7 +13236,7 @@
       </c>
       <c r="AA31" s="39">
         <f ca="1">G20</f>
-        <v>360.69325569524273</v>
+        <v>332.68724681235102</v>
       </c>
       <c r="AB31" s="17" t="s">
         <v>2</v>
@@ -13228,7 +13248,7 @@
       </c>
       <c r="B32" s="23">
         <f t="shared" si="0"/>
-        <v>0.39399999999999991</v>
+        <v>0.16249999999999995</v>
       </c>
       <c r="C32" s="24">
         <f t="shared" si="1"/>
@@ -13244,15 +13264,15 @@
       </c>
       <c r="F32" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7667282271520542E-2</v>
+        <v>1.5040301696086399E-2</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>462.87383247096852</v>
+        <v>394.04827412586263</v>
       </c>
       <c r="H32" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3991.2112725539346</v>
+        <v>3397.7507547268997</v>
       </c>
       <c r="I32" s="28">
         <f t="shared" si="7"/>
@@ -13260,7 +13280,7 @@
       </c>
       <c r="J32" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5867080.5706542833</v>
+        <v>4994693.6094485419</v>
       </c>
       <c r="K32" s="120">
         <f t="shared" si="9"/>
@@ -13284,7 +13304,7 @@
       </c>
       <c r="P32" s="31">
         <f t="shared" si="20"/>
-        <v>3.9399999999999993E-4</v>
+        <v>1.6249999999999994E-4</v>
       </c>
       <c r="Q32" s="104">
         <f t="shared" si="13"/>
@@ -13304,11 +13324,11 @@
       </c>
       <c r="U32" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.5234168609462309</v>
+        <v>8.1540191304777547</v>
       </c>
       <c r="V32" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.5234168609462309</v>
+        <v>8.1540191304777547</v>
       </c>
       <c r="W32" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13333,7 +13353,7 @@
       </c>
       <c r="B33" s="23">
         <f t="shared" si="0"/>
-        <v>0.42116666666666658</v>
+        <v>0.17395833333333327</v>
       </c>
       <c r="C33" s="24">
         <f t="shared" si="1"/>
@@ -13349,15 +13369,15 @@
       </c>
       <c r="F33" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7909413807636207E-2</v>
+        <v>1.520456319327051E-2</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>468.15397995887975</v>
+        <v>397.44889748601827</v>
       </c>
       <c r="H33" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4036.7402756993442</v>
+        <v>3427.0732295280964</v>
       </c>
       <c r="I33" s="28">
         <f t="shared" si="7"/>
@@ -13365,7 +13385,7 @@
       </c>
       <c r="J33" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5934008.2052780362</v>
+        <v>5037797.6474063005</v>
       </c>
       <c r="K33" s="120">
         <f t="shared" si="9"/>
@@ -13389,7 +13409,7 @@
       </c>
       <c r="P33" s="31">
         <f t="shared" si="20"/>
-        <v>4.2116666666666659E-4</v>
+        <v>1.7395833333333326E-4</v>
       </c>
       <c r="Q33" s="104">
         <f t="shared" si="13"/>
@@ -13409,11 +13429,11 @@
       </c>
       <c r="U33" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.4723862805685206</v>
+        <v>8.1098538179418185</v>
       </c>
       <c r="V33" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.4723862805685215</v>
+        <v>8.1098538179418185</v>
       </c>
       <c r="W33" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13438,7 +13458,7 @@
       </c>
       <c r="B34" s="23">
         <f t="shared" si="0"/>
-        <v>0.44833333333333325</v>
+        <v>0.18541666666666656</v>
       </c>
       <c r="C34" s="24">
         <f t="shared" si="1"/>
@@ -13454,15 +13474,15 @@
       </c>
       <c r="F34" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8142645611462359E-2</v>
+        <v>1.5363424523826868E-2</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>473.17618669040883</v>
+        <v>400.69165139275151</v>
       </c>
       <c r="H34" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4080.045139171471</v>
+        <v>3455.0344471186027</v>
       </c>
       <c r="I34" s="28">
         <f t="shared" si="7"/>
@@ -13470,7 +13490,7 @@
       </c>
       <c r="J34" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>5997666.354582062</v>
+        <v>5078900.6372643448</v>
       </c>
       <c r="K34" s="120">
         <f t="shared" si="9"/>
@@ -13494,7 +13514,7 @@
       </c>
       <c r="P34" s="31">
         <f t="shared" si="20"/>
-        <v>4.4833333333333324E-4</v>
+        <v>1.8541666666666657E-4</v>
       </c>
       <c r="Q34" s="104">
         <f t="shared" si="13"/>
@@ -13514,11 +13534,11 @@
       </c>
       <c r="U34" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.4242004874178722</v>
+        <v>8.0678159918278993</v>
       </c>
       <c r="V34" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.4242004874178731</v>
+        <v>8.0678159918278993</v>
       </c>
       <c r="W34" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13543,7 +13563,7 @@
       </c>
       <c r="B35" s="23">
         <f t="shared" si="0"/>
-        <v>0.47549999999999992</v>
+        <v>0.19687499999999988</v>
       </c>
       <c r="C35" s="24">
         <f t="shared" si="1"/>
@@ -13559,15 +13579,15 @@
       </c>
       <c r="F35" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8367771406277059E-2</v>
+        <v>1.5517303191922262E-2</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>477.96279161723231</v>
+        <v>403.78842854324449</v>
       </c>
       <c r="H35" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4121.3184845217902</v>
+        <v>3481.7369543777709</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="7"/>
@@ -13575,7 +13595,7 @@
       </c>
       <c r="J35" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6058338.1722470308</v>
+        <v>5118153.3229353223</v>
       </c>
       <c r="K35" s="120">
         <f t="shared" si="9"/>
@@ -13599,7 +13619,7 @@
       </c>
       <c r="P35" s="31">
         <f t="shared" si="20"/>
-        <v>4.754999999999999E-4</v>
+        <v>1.9687499999999989E-4</v>
       </c>
       <c r="Q35" s="104">
         <f t="shared" si="13"/>
@@ -13619,11 +13639,11 @@
       </c>
       <c r="U35" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.378562615306639</v>
+        <v>8.0277137300945114</v>
       </c>
       <c r="V35" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.378562615306639</v>
+        <v>8.0277137300945114</v>
       </c>
       <c r="W35" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13636,7 +13656,7 @@
       </c>
       <c r="AA35" s="41">
         <f ca="1">(fluid_density*gravitational_acceleration*design_flow_rate*(bare_hf_yr1_m+Elevation_change))/pump_efficiency</f>
-        <v>11732817.626841299</v>
+        <v>11491330.874920292</v>
       </c>
       <c r="AB35" s="17" t="s">
         <v>113</v>
@@ -13648,7 +13668,7 @@
       </c>
       <c r="B36" s="23">
         <f t="shared" si="0"/>
-        <v>0.5026666666666666</v>
+        <v>0.2083333333333332</v>
       </c>
       <c r="C36" s="24">
         <f t="shared" si="1"/>
@@ -13664,15 +13684,15 @@
       </c>
       <c r="F36" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8585477874260663E-2</v>
+        <v>1.566656793542252E-2</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>482.53315855130842</v>
+        <v>406.74975164386535</v>
       </c>
       <c r="H36" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4160.7272796347361</v>
+        <v>3507.2714851974915</v>
       </c>
       <c r="I36" s="28">
         <f t="shared" si="7"/>
@@ -13680,7 +13700,7 @@
       </c>
       <c r="J36" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6116269.1010630615</v>
+        <v>5155689.0832403125</v>
       </c>
       <c r="K36" s="120">
         <f t="shared" si="9"/>
@@ -13704,7 +13724,7 @@
       </c>
       <c r="P36" s="31">
         <f t="shared" si="20"/>
-        <v>5.0266666666666656E-4</v>
+        <v>2.0833333333333321E-4</v>
       </c>
       <c r="Q36" s="104">
         <f t="shared" si="13"/>
@@ -13724,11 +13744,11 @@
       </c>
       <c r="U36" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.3352198313107682</v>
+        <v>7.9893797939222635</v>
       </c>
       <c r="V36" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.335219831310769</v>
+        <v>7.9893797939222644</v>
       </c>
       <c r="W36" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13753,7 +13773,7 @@
       </c>
       <c r="B37" s="23">
         <f t="shared" si="0"/>
-        <v>0.52983333333333327</v>
+        <v>0.21979166666666652</v>
       </c>
       <c r="C37" s="24">
         <f t="shared" si="1"/>
@@ -13769,15 +13789,15 @@
       </c>
       <c r="F37" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8796363461598447E-2</v>
+        <v>1.5811546160488684E-2</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>486.90419605210303</v>
+        <v>409.58498101732062</v>
       </c>
       <c r="H37" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4198.4173215470128</v>
+        <v>3531.7187506114865</v>
       </c>
       <c r="I37" s="28">
         <f t="shared" si="7"/>
@@ -13785,7 +13805,7 @@
       </c>
       <c r="J37" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6171673.4626741083</v>
+        <v>5191626.5633988846</v>
       </c>
       <c r="K37" s="120">
         <f t="shared" si="9"/>
@@ -13809,7 +13829,7 @@
       </c>
       <c r="P37" s="31">
         <f t="shared" si="20"/>
-        <v>5.2983333333333322E-4</v>
+        <v>2.1979166666666653E-4</v>
       </c>
       <c r="Q37" s="104">
         <f t="shared" si="13"/>
@@ -13829,11 +13849,11 @@
       </c>
       <c r="U37" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.2939550544284613</v>
+        <v>7.9526675883683584</v>
       </c>
       <c r="V37" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.2939550544284613</v>
+        <v>7.9526675883683593</v>
       </c>
       <c r="W37" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13855,7 +13875,7 @@
       </c>
       <c r="B38" s="23">
         <f t="shared" si="0"/>
-        <v>0.55699999999999983</v>
+        <v>0.23124999999999984</v>
       </c>
       <c r="C38" s="24">
         <f t="shared" si="1"/>
@@ -13871,15 +13891,15 @@
       </c>
       <c r="F38" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9000953184840581E-2</v>
+        <v>1.5952530000487252E-2</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>491.09076708961442</v>
+        <v>412.30248392010333</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4234.5167688392976</v>
+        <v>3555.1508987648708</v>
       </c>
       <c r="I38" s="28">
         <f t="shared" si="7"/>
@@ -13887,7 +13907,7 @@
       </c>
       <c r="J38" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6224739.6501937667</v>
+        <v>5226071.8211843595</v>
       </c>
       <c r="K38" s="120">
         <f t="shared" si="9"/>
@@ -13911,7 +13931,7 @@
       </c>
       <c r="P38" s="31">
         <f t="shared" si="20"/>
-        <v>5.5699999999999988E-4</v>
+        <v>2.3124999999999985E-4</v>
       </c>
       <c r="Q38" s="104">
         <f t="shared" si="13"/>
@@ -13931,11 +13951,11 @@
       </c>
       <c r="U38" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.2545805308511104</v>
+        <v>7.9174479139027447</v>
       </c>
       <c r="V38" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.2545805308511104</v>
+        <v>7.9174479139027447</v>
       </c>
       <c r="W38" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -13950,7 +13970,7 @@
       </c>
       <c r="B39" s="23">
         <f t="shared" si="0"/>
-        <v>0.5841666666666665</v>
+        <v>0.24270833333333316</v>
       </c>
       <c r="C39" s="24">
         <f t="shared" si="1"/>
@@ -13966,15 +13986,15 @@
       </c>
       <c r="F39" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9199710423515311E-2</v>
+        <v>1.608978129499938E-2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>495.1060155835267</v>
+        <v>414.90977378600286</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4269.1389572776834</v>
+        <v>3577.632715565881</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="7"/>
@@ -13982,7 +14002,7 @@
       </c>
       <c r="J39" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6275634.2671981938</v>
+        <v>5259120.0918818451</v>
       </c>
       <c r="K39" s="120">
         <f t="shared" si="9"/>
@@ -14006,7 +14026,7 @@
       </c>
       <c r="P39" s="31">
         <f t="shared" si="20"/>
-        <v>5.8416666666666654E-4</v>
+        <v>2.4270833333333317E-4</v>
       </c>
       <c r="Q39" s="104">
         <f t="shared" si="13"/>
@@ -14026,11 +14046,11 @@
       </c>
       <c r="U39" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.2169327883574841</v>
+        <v>7.8836063305410731</v>
       </c>
       <c r="V39" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.2169327883574832</v>
+        <v>7.8836063305410731</v>
       </c>
       <c r="W39" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -14045,7 +14065,7 @@
       </c>
       <c r="B40" s="23">
         <f t="shared" si="0"/>
-        <v>0.61133333333333317</v>
+        <v>0.25416666666666649</v>
       </c>
       <c r="C40" s="24">
         <f t="shared" si="1"/>
@@ -14061,15 +14081,15 @@
       </c>
       <c r="F40" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9393046410970317E-2</v>
+        <v>1.6223535712926725E-2</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>498.96162941689744</v>
+        <v>417.41362562026285</v>
       </c>
       <c r="H40" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4302.3846676956073</v>
+        <v>3599.2226196923575</v>
       </c>
       <c r="I40" s="28">
         <f t="shared" si="7"/>
@@ -14077,7 +14097,7 @@
       </c>
       <c r="J40" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6324505.4615125423</v>
+        <v>5290857.2509477651</v>
       </c>
       <c r="K40" s="120">
         <f t="shared" si="9"/>
@@ -14101,7 +14121,7 @@
       </c>
       <c r="P40" s="31">
         <f t="shared" si="20"/>
-        <v>6.1133333333333319E-4</v>
+        <v>2.5416666666666648E-4</v>
       </c>
       <c r="Q40" s="104">
         <f t="shared" si="13"/>
@@ -14121,11 +14141,11 @@
       </c>
       <c r="U40" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1808686295926609</v>
+        <v>7.8510410013676681</v>
       </c>
       <c r="V40" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1808686295926609</v>
+        <v>7.8510410013676672</v>
       </c>
       <c r="W40" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -14140,7 +14160,7 @@
       </c>
       <c r="B41" s="23">
         <f t="shared" si="0"/>
-        <v>0.63849999999999985</v>
+        <v>0.26562499999999978</v>
       </c>
       <c r="C41" s="24">
         <f t="shared" si="1"/>
@@ -14156,15 +14176,15 @@
       </c>
       <c r="F41" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9581327945819946E-2</v>
+        <v>1.6354006191171007E-2</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>502.66805431092098</v>
+        <v>419.82017231163098</v>
       </c>
       <c r="H41" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4334.3439701667166</v>
+        <v>3619.9734930593854</v>
       </c>
       <c r="I41" s="28">
         <f t="shared" si="7"/>
@@ -14172,7 +14192,7 @@
       </c>
       <c r="J41" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6371485.636145073</v>
+        <v>5321361.0347972959</v>
       </c>
       <c r="K41" s="120">
         <f t="shared" si="9"/>
@@ -14196,7 +14216,7 @@
       </c>
       <c r="P41" s="31">
         <f t="shared" si="20"/>
-        <v>6.3849999999999985E-4</v>
+        <v>2.656249999999998E-4</v>
       </c>
       <c r="Q41" s="104">
         <f t="shared" si="13"/>
@@ -14216,11 +14236,11 @@
       </c>
       <c r="U41" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1462619179684683</v>
+        <v>7.8196609147746132</v>
       </c>
       <c r="V41" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1462619179684692</v>
+        <v>7.8196609147746141</v>
       </c>
       <c r="W41" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -14235,7 +14255,7 @@
       </c>
       <c r="B42" s="23">
         <f t="shared" si="0"/>
-        <v>0.66566666666666652</v>
+        <v>0.27708333333333313</v>
       </c>
       <c r="C42" s="24">
         <f t="shared" si="1"/>
@@ -14251,15 +14271,15 @@
       </c>
       <c r="F42" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9764883712526358E-2</v>
+        <v>1.6481385821478695E-2</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>506.23466926640003</v>
+        <v>422.13498555017497</v>
       </c>
       <c r="H42" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4365.0977367799114</v>
+        <v>3639.9333785474323</v>
       </c>
       <c r="I42" s="28">
         <f t="shared" si="7"/>
@@ -14267,7 +14287,7 @@
       </c>
       <c r="J42" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6416693.6730664689</v>
+        <v>5350702.066464725</v>
       </c>
       <c r="K42" s="120">
         <f t="shared" si="9"/>
@@ -14291,7 +14311,7 @@
       </c>
       <c r="P42" s="31">
         <f t="shared" si="20"/>
-        <v>6.6566666666666651E-4</v>
+        <v>2.7708333333333312E-4</v>
       </c>
       <c r="Q42" s="104">
         <f t="shared" si="13"/>
@@ -14311,11 +14331,11 @@
       </c>
       <c r="U42" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1130009753805199</v>
+        <v>7.7893844085195765</v>
       </c>
       <c r="V42" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1130009753805208</v>
+        <v>7.7893844085195756</v>
       </c>
       <c r="W42" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -14330,7 +14350,7 @@
       </c>
       <c r="B43" s="23">
         <f t="shared" si="0"/>
-        <v>0.69283333333333319</v>
+        <v>0.28854166666666642</v>
       </c>
       <c r="C43" s="24">
         <f t="shared" si="1"/>
@@ -14346,15 +14366,15 @@
       </c>
       <c r="F43" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9944009503717351E-2</v>
+        <v>1.6605850288932356E-2</v>
       </c>
       <c r="G43" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v>509.66993163843313</v>
+        <v>424.36314423038669</v>
       </c>
       <c r="H43" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4394.718892571429</v>
+        <v>3659.1460698201836</v>
       </c>
       <c r="I43" s="28">
         <f t="shared" si="7"/>
@@ -14362,7 +14382,7 @@
       </c>
       <c r="J43" s="120">
         <f t="shared" ca="1" si="8"/>
-        <v>6460236.7720799996</v>
+        <v>5378944.7226356696</v>
       </c>
       <c r="K43" s="120">
         <f t="shared" si="9"/>
@@ -14386,7 +14406,7 @@
       </c>
       <c r="P43" s="31">
         <f t="shared" si="20"/>
-        <v>6.9283333333333317E-4</v>
+        <v>2.8854166666666644E-4</v>
       </c>
       <c r="Q43" s="104">
         <f t="shared" si="13"/>
@@ -14406,11 +14426,11 @@
       </c>
       <c r="U43" s="33">
         <f t="shared" ca="1" si="17"/>
-        <v>7.0809864572520516</v>
+        <v>7.7601379362855054</v>
       </c>
       <c r="V43" s="33">
         <f t="shared" ca="1" si="18"/>
-        <v>7.0809864572520516</v>
+        <v>7.7601379362855054</v>
       </c>
       <c r="W43" s="34">
         <f t="shared" ca="1" si="19"/>
@@ -14429,7 +14449,7 @@
       </c>
       <c r="B44" s="44">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
       <c r="C44" s="45">
         <f t="shared" si="1"/>
@@ -14445,15 +14465,15 @@
       </c>
       <c r="F44" s="47">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0118972567143085E-2</v>
+        <v>1.6727559943553166E-2</v>
       </c>
       <c r="G44" s="48">
         <f t="shared" ca="1" si="5"/>
-        <v>512.98149799241901</v>
+        <v>426.5092926074995</v>
       </c>
       <c r="H44" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>4423.2734576270532</v>
+        <v>3677.6516127876471</v>
       </c>
       <c r="I44" s="28">
         <f t="shared" si="7"/>
@@ -14461,7 +14481,7 @@
       </c>
       <c r="J44" s="121">
         <f t="shared" ca="1" si="8"/>
-        <v>6502211.9827117678</v>
+        <v>5406147.8707978409</v>
       </c>
       <c r="K44" s="121">
         <f t="shared" si="9"/>
@@ -14485,7 +14505,7 @@
       </c>
       <c r="P44" s="113">
         <f>roughness_bare_yr_25_mm/1000</f>
-        <v>7.1999999999999994E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Q44" s="105">
         <f t="shared" si="13"/>
@@ -14505,11 +14525,11 @@
       </c>
       <c r="U44" s="53">
         <f t="shared" ca="1" si="17"/>
-        <v>7.0501296036588021</v>
+        <v>7.7318550305662681</v>
       </c>
       <c r="V44" s="53">
         <f t="shared" ca="1" si="18"/>
-        <v>7.0501296036588021</v>
+        <v>7.731855030566269</v>
       </c>
       <c r="W44" s="54">
         <f t="shared" ca="1" si="19"/>
@@ -14530,7 +14550,7 @@
       <c r="I45" s="28"/>
       <c r="J45" s="122">
         <f ca="1">NPV(annual_discount_rate,J20:J44)</f>
-        <v>48965594.081127092</v>
+        <v>42711319.246588513</v>
       </c>
       <c r="K45" s="122">
         <f>NPV(annual_discount_rate,K20:K44)</f>
@@ -17001,8 +17021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C17EE-927F-F041-B032-C0FE3D7D286E}">
   <dimension ref="B1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="183" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="B20" zoomScale="144" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17141,7 +17161,7 @@
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bare [ 49 ] OPEX</v>
+        <v>Bare [ 42.7 ] OPEX</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17225,11 +17245,11 @@
       </c>
       <c r="M6" t="str">
         <f ca="1">"Bare [ "&amp;ROUND(D10/1000000,1)&amp;" ] OPEX"</f>
-        <v>Bare [ 49 ] OPEX</v>
+        <v>Bare [ 42.7 ] OPEX</v>
       </c>
       <c r="N6" s="143" t="str">
         <f ca="1">"OPEX [ "&amp;ROUND(D10/1000000,1)&amp;" ] "&amp;C10</f>
-        <v>OPEX [ 49 ] Friction Energy</v>
+        <v>OPEX [ 42.7 ] Friction Energy</v>
       </c>
       <c r="O6" t="s">
         <v>253</v>
@@ -17372,7 +17392,7 @@
       </c>
       <c r="D10" s="224">
         <f ca="1">bare_friction_energy_PV</f>
-        <v>48965594.081127092</v>
+        <v>42711319.246588513</v>
       </c>
       <c r="E10" s="224">
         <f ca="1">fbe_friction_energy_PV</f>
@@ -17380,7 +17400,7 @@
       </c>
       <c r="F10" s="226">
         <f ca="1">Charts!$D10-Charts!$E10</f>
-        <v>13007877.001694776</v>
+        <v>6753602.1671561971</v>
       </c>
       <c r="H10" t="str">
         <f ca="1">"Coated\nOPEX [ "&amp;ROUND(E10/1000000,1)&amp;" ] Coated\nPipe"</f>
@@ -17396,7 +17416,7 @@
       </c>
       <c r="Q10" s="143" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>OPEX [ 49 ] Friction Energy</v>
+        <v>OPEX [ 42.7 ] Friction Energy</v>
       </c>
       <c r="R10" s="143" t="str">
         <f t="shared" si="3"/>
@@ -17469,7 +17489,10 @@
         <f>_bare_CAPEX-_coated_CAPEX</f>
         <v>-3768948.2165125068</v>
       </c>
-      <c r="G12" s="130"/>
+      <c r="G12" s="132">
+        <f>Total_capex/_coated_CAPEX+1</f>
+        <v>0.60897563668293175</v>
+      </c>
       <c r="I12" s="155"/>
       <c r="J12" s="134"/>
       <c r="K12" s="9"/>
@@ -17501,7 +17524,7 @@
       </c>
       <c r="D13" s="224">
         <f ca="1">SUM(D9:D11)</f>
-        <v>66450790.669458494</v>
+        <v>60196515.834919915</v>
       </c>
       <c r="E13" s="224">
         <f ca="1">SUM(E9:E11)</f>
@@ -17509,7 +17532,7 @@
       </c>
       <c r="F13" s="226">
         <f ca="1">_bare_OPEX-_coated_OPEX</f>
-        <v>26862257.582734436</v>
+        <v>20607982.748195857</v>
       </c>
       <c r="G13" s="135"/>
       <c r="I13" s="130"/>
@@ -17540,7 +17563,7 @@
       </c>
       <c r="D14" s="227">
         <f ca="1">D13+D12</f>
-        <v>72320495.616499364</v>
+        <v>66066220.781960793</v>
       </c>
       <c r="E14" s="227">
         <f ca="1">E13+E12</f>
@@ -17548,9 +17571,12 @@
       </c>
       <c r="F14" s="227">
         <f ca="1">bare_total_usd-fbe_total_usd</f>
-        <v>23093309.36622192</v>
-      </c>
-      <c r="G14" s="171"/>
+        <v>16839034.531683348</v>
+      </c>
+      <c r="G14" s="171">
+        <f ca="1">(bare_total_usd-fbe_total_usd)/bare_total_usd</f>
+        <v>0.25488115306697251</v>
+      </c>
       <c r="H14" t="str">
         <f ca="1">"Coated\nPipe [ "&amp;ROUND(E14/1000000,1)&amp;" ] Bare\nPipe"</f>
         <v>Coated\nPipe [ 49.2 ] Bare\nPipe</v>
@@ -17591,7 +17617,7 @@
       <c r="G15" s="130"/>
       <c r="H15" t="str">
         <f ca="1">"Savings [ "&amp;ROUND(F14/1000000,1)&amp;" ] Bare\nPipe"</f>
-        <v>Savings [ 23.1 ] Bare\nPipe</v>
+        <v>Savings [ 16.8 ] Bare\nPipe</v>
       </c>
       <c r="I15" s="132"/>
       <c r="J15" s="134">
@@ -17646,7 +17672,7 @@
         <v>10223564.573747916</v>
       </c>
       <c r="E17" s="135"/>
-      <c r="F17" s="136">
+      <c r="F17" s="171">
         <v>1</v>
       </c>
       <c r="G17" s="155"/>
@@ -17677,12 +17703,12 @@
       </c>
       <c r="D18" s="135">
         <f ca="1">extra_friction_energy</f>
-        <v>13007877.001694776</v>
+        <v>6753602.1671561971</v>
       </c>
       <c r="E18" s="135"/>
-      <c r="F18" s="136">
+      <c r="F18" s="171">
         <f ca="1">1-E10/D10</f>
-        <v>0.26565340921102865</v>
+        <v>0.15812206895706293</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" t="str">
@@ -17714,10 +17740,10 @@
         <v>5869704.9470408764</v>
       </c>
       <c r="E19" s="135"/>
-      <c r="F19" s="136"/>
+      <c r="F19" s="171"/>
       <c r="H19" t="str">
         <f ca="1">"Bare\nPipe [ "&amp;ROUND(D10/1000000,1)&amp;" ] Bare\nOPEX"</f>
-        <v>Bare\nPipe [ 49 ] Bare\nOPEX</v>
+        <v>Bare\nPipe [ 42.7 ] Bare\nOPEX</v>
       </c>
       <c r="I19" s="130"/>
       <c r="J19" s="134">
@@ -17742,7 +17768,7 @@
         <f>field_coating_total</f>
         <v>8334000</v>
       </c>
-      <c r="F20" s="136">
+      <c r="F20" s="171">
         <v>1</v>
       </c>
       <c r="H20" t="str">
@@ -17768,7 +17794,7 @@
         <v>3630816.0072917431</v>
       </c>
       <c r="E21" s="135"/>
-      <c r="F21" s="136">
+      <c r="F21" s="171">
         <f>1-E11/D11</f>
         <v>0.5</v>
       </c>
@@ -17792,7 +17818,7 @@
         <f>interior_fbe_capex</f>
         <v>1304653.1635533839</v>
       </c>
-      <c r="F22" s="136">
+      <c r="F22" s="171">
         <v>1</v>
       </c>
       <c r="K22" s="144"/>
@@ -17835,7 +17861,7 @@
       </c>
       <c r="D24" s="138">
         <f ca="1">SUBTOTAL(109,Charts!$D$17:$D$23)</f>
-        <v>32731962.529775314</v>
+        <v>26477687.695236735</v>
       </c>
       <c r="E24" s="138">
         <f>SUBTOTAL(109,Charts!$E$17:$E$23)</f>
@@ -17843,11 +17869,15 @@
       </c>
       <c r="F24" s="139">
         <f ca="1">Charts!$D$24-Charts!$E$24</f>
-        <v>23093309.366221931</v>
+        <v>16839034.531683352</v>
+      </c>
+      <c r="G24" s="229">
+        <f ca="1">1-F24/D24</f>
+        <v>0.36402926397864233</v>
       </c>
       <c r="H24" t="str">
         <f ca="1">"Bare\nOPEX [ "&amp;ROUND(D10/1000000,1)&amp;" ] Bare\nFriction\nEnergy"</f>
-        <v>Bare\nOPEX [ 49 ] Bare\nFriction\nEnergy</v>
+        <v>Bare\nOPEX [ 42.7 ] Bare\nFriction\nEnergy</v>
       </c>
       <c r="J24" s="134">
         <f t="shared" ca="1" si="2"/>
@@ -17861,7 +17891,7 @@
       <c r="D25" s="12"/>
       <c r="E25">
         <f ca="1">diff_total_fbe_usd/diff_total_diff</f>
-        <v>0.41737860133860355</v>
+        <v>0.57239939412309249</v>
       </c>
       <c r="F25" s="111"/>
       <c r="G25" s="131"/>
@@ -17936,7 +17966,7 @@
       </c>
       <c r="D29" s="154">
         <f ca="1">extra_friction_energy/1000000</f>
-        <v>13.007877001694776</v>
+        <v>6.7536021671561972</v>
       </c>
       <c r="E29" s="154"/>
       <c r="G29" s="130"/>
